--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219CBB1F-9976-46F7-B4CF-4FC1488598C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
   <si>
     <t>int</t>
   </si>
@@ -63,6 +59,9 @@
     <t>frontTalent</t>
   </si>
   <si>
+    <t>backTalent</t>
+  </si>
+  <si>
     <t>cost</t>
   </si>
   <si>
@@ -93,6 +92,12 @@
     <t>解锁前置天赋Id</t>
   </si>
   <si>
+    <t>可解锁的后置天赋Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 解锁以及升级所需资源[[资源id,1级,2级,3级],[资源id,1级,2级,3级]]</t>
+  </si>
+  <si>
     <t>icon 图标</t>
   </si>
   <si>
@@ -114,252 +119,257 @@
     <t>talentItemCanvas_1</t>
   </si>
   <si>
+    <t>1|10|20||2|10|20</t>
+  </si>
+  <si>
     <t>TalentTree_Desc_1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 解锁以及升级所需资源[[资源id,1级,2级,3级],[资源id,1级,2级,3级]]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>物理伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_2</t>
+  </si>
+  <si>
+    <t>魔法学识</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_2</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_2</t>
+  </si>
+  <si>
+    <t>魔法伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_3</t>
+  </si>
+  <si>
+    <t>基地耐久</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_3</t>
+  </si>
+  <si>
+    <t>1|10|20|40||2|10|20|40</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_3</t>
+  </si>
+  <si>
+    <t>基地耐久提高{0}</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_4</t>
+  </si>
+  <si>
+    <t>攻速增强</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_4</t>
   </si>
   <si>
     <t>1001|1002</t>
   </si>
   <si>
+    <t>1007|1008|1009</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_4</t>
+  </si>
+  <si>
+    <t>攻击速度提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_5</t>
+  </si>
+  <si>
+    <t>天降能量</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_5</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_5</t>
+  </si>
+  <si>
+    <t>每个波次获得{0}能量</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_6</t>
+  </si>
+  <si>
+    <t>矿机升级</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_6</t>
+  </si>
+  <si>
+    <t>1|10|20|40|65|100||2|10|20|40|65|100</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_6</t>
+  </si>
+  <si>
+    <t>能量单位产出能量效率提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_7</t>
+  </si>
+  <si>
+    <t>光元素增伤</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_7</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_7</t>
+  </si>
+  <si>
+    <t>光属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_8</t>
+  </si>
+  <si>
+    <t>水元素增伤</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_8</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_8</t>
+  </si>
+  <si>
+    <t>水属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_9</t>
+  </si>
+  <si>
+    <t>土元素增伤</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_9</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_9</t>
+  </si>
+  <si>
+    <t>土属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_10</t>
+  </si>
+  <si>
+    <t>耐久恢复</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_10</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_10</t>
+  </si>
+  <si>
+    <t>基地每个波次恢复{0}耐久</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_11</t>
+  </si>
+  <si>
+    <t>暗元素增伤</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_11</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_11</t>
+  </si>
+  <si>
+    <t>暗属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_12</t>
+  </si>
+  <si>
+    <t>火元素增伤</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_12</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_12</t>
+  </si>
+  <si>
+    <t>火属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_13</t>
+  </si>
+  <si>
+    <t>木元素增伤</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_13</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_13</t>
+  </si>
+  <si>
+    <t>木属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_14</t>
+  </si>
+  <si>
+    <t>敌方减速</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_14</t>
+  </si>
+  <si>
     <t>1006|1010</t>
   </si>
   <si>
+    <t>TalentTree_Desc_14</t>
+  </si>
+  <si>
+    <t>敌方入场5秒内减速{0}%</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_15</t>
+  </si>
+  <si>
+    <t>慧光</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_15</t>
+  </si>
+  <si>
     <t>1011|1012|1013|1014</t>
   </si>
   <si>
-    <t>1|10|20||2|10|20</t>
-  </si>
-  <si>
-    <t>1|10|20|40||2|10|20|40</t>
-  </si>
-  <si>
-    <t>1|10|20|40|65|100||2|10|20|40|65|100</t>
-  </si>
-  <si>
     <t>1|10|20|40|65||2|10|20|40|65</t>
   </si>
   <si>
-    <t>TalentTree_Name_2</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_3</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_4</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_5</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_6</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_7</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_8</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_9</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_10</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_11</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_12</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_13</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_14</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_15</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_2</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_3</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_4</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_5</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_6</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_7</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_8</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_9</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_10</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_11</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_12</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_13</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_14</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_15</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_2</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_3</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_4</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_5</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_6</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_7</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_8</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_9</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_10</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_11</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_12</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_13</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_14</t>
-  </si>
-  <si>
     <t>TalentTree_Desc_15</t>
   </si>
   <si>
-    <t>物理伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>魔法伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>基地耐久提高{0}</t>
-  </si>
-  <si>
-    <t>攻击速度提高{0}%</t>
-  </si>
-  <si>
-    <t>每个波次获得{0}能量</t>
-  </si>
-  <si>
-    <t>能量单位产出能量效率提高{0}%</t>
-  </si>
-  <si>
-    <t>光属性伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>水属性伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>土属性伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>基地每个波次恢复{0}耐久</t>
-  </si>
-  <si>
-    <t>暗属性伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>火属性伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>木属性伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>敌方入场5秒内减速{0}%</t>
-  </si>
-  <si>
     <t>敌方受到伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>矿机升级</t>
-  </si>
-  <si>
-    <t>光元素增伤</t>
-  </si>
-  <si>
-    <t>水元素增伤</t>
-  </si>
-  <si>
-    <t>土元素增伤</t>
-  </si>
-  <si>
-    <t>暗元素增伤</t>
-  </si>
-  <si>
-    <t>火元素增伤</t>
-  </si>
-  <si>
-    <t>木元素增伤</t>
-  </si>
-  <si>
-    <t>敌方减速</t>
-  </si>
-  <si>
-    <t>慧光</t>
-  </si>
-  <si>
-    <t>耐久恢复</t>
-  </si>
-  <si>
-    <t>魔法学识</t>
-  </si>
-  <si>
-    <t>基地耐久</t>
-  </si>
-  <si>
-    <t>攻速增强</t>
-  </si>
-  <si>
-    <t>天降能量</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,41 +378,363 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -410,9 +742,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -420,30 +994,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -693,32 +1311,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.75" customWidth="1"/>
-    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.375" customWidth="1"/>
-    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="8" width="63.375" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +1346,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
@@ -738,22 +1356,25 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -763,7 +1384,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -787,561 +1408,610 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="42" customHeight="1" spans="1:12">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" ht="16.5" spans="1:12">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4">
+        <v>163646</v>
+      </c>
+      <c r="J5">
+        <v>1001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1">
-        <v>163646</v>
-      </c>
-      <c r="I5">
-        <v>1001</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" ht="16.5" spans="1:12">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="1">
+        <v>1004</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4">
         <v>163646</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1002</v>
       </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>79</v>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" ht="16.5" spans="1:12">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="1">
+        <v>1005</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="4">
         <v>163646</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1003</v>
       </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>80</v>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" ht="16.5" spans="1:12">
       <c r="A8">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="4">
         <v>163646</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1004</v>
       </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>81</v>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" ht="16.5" spans="1:12">
       <c r="A9">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>1003</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G9" s="1">
+        <v>1010</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4">
         <v>163646</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1005</v>
       </c>
-      <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>82</v>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" ht="16.5" spans="1:12">
       <c r="A10">
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>1003</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="G10" s="1">
+        <v>1014</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="4">
         <v>163646</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1006</v>
       </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>83</v>
+      <c r="K10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" ht="16.5" spans="1:12">
       <c r="A11">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>1004</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="G11" s="1">
+        <v>1011</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="4">
         <v>163646</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1007</v>
       </c>
-      <c r="J11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>84</v>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" ht="16.5" spans="1:12">
       <c r="A12">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>1004</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="G12" s="1">
+        <v>1012</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4">
         <v>163646</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1008</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>85</v>
+      <c r="L12" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" ht="16.5" spans="1:12">
       <c r="A13">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>1004</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G13" s="1">
+        <v>1013</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="4">
         <v>163646</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1009</v>
       </c>
-      <c r="J13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>86</v>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" ht="16.5" spans="1:12">
       <c r="A14">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>1005</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="G14" s="1">
+        <v>1014</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="4">
         <v>163646</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1010</v>
       </c>
-      <c r="J14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>87</v>
+      <c r="K14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" ht="16.5" spans="1:12">
       <c r="A15">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>82</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>1007</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="G15" s="1">
+        <v>1015</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="4">
         <v>163646</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1011</v>
       </c>
-      <c r="J15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>88</v>
+      <c r="K15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" ht="16.5" spans="1:12">
       <c r="A16">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>87</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>1008</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="G16" s="1">
+        <v>1015</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4">
         <v>163646</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1012</v>
       </c>
-      <c r="J16" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>89</v>
+      <c r="K16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" ht="16.5" spans="1:12">
       <c r="A17">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>92</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>1009</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="G17" s="1">
+        <v>1015</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="4">
         <v>163646</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1013</v>
       </c>
-      <c r="J17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>90</v>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" ht="16.5" spans="1:12">
       <c r="A18">
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>62</v>
+        <v>97</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="F18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1015</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="4">
         <v>163646</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1014</v>
       </c>
-      <c r="J18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>91</v>
+      <c r="K18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" ht="16.5" spans="1:12">
       <c r="A19">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>103</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="F19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="4">
         <v>163646</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1015</v>
       </c>
-      <c r="J19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>92</v>
+      <c r="K19" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lamb\Dragonverse neo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B1637B-6836-4B91-BEE3-4C4EA8775902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A822E6-075D-425A-8778-68DE28FE2856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1229,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1363,53 +1363,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1004</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>32</v>
-      </c>
+    <row r="4" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1424,71 +1394,68 @@
         <v>163646</v>
       </c>
       <c r="J5" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>182</v>
+      <c r="G6" s="1">
+        <v>1004</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I6" s="4">
         <v>163646</v>
       </c>
       <c r="J6" s="1">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
+      <c r="G7" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>41</v>
@@ -1497,65 +1464,65 @@
         <v>163646</v>
       </c>
       <c r="J7" s="1">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <v>1003</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1010</v>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I8" s="4">
         <v>163646</v>
       </c>
       <c r="J8" s="1">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>270</v>
+        <v>1005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1564,74 +1531,74 @@
         <v>1003</v>
       </c>
       <c r="G9" s="1">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I9" s="4">
         <v>163646</v>
       </c>
       <c r="J9" s="1">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>1007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
+        <v>1006</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>271</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G10" s="1">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I10" s="4">
         <v>163646</v>
       </c>
       <c r="J10" s="1">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>271</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1640,7 +1607,7 @@
         <v>1004</v>
       </c>
       <c r="G11" s="1">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>30</v>
@@ -1649,27 +1616,27 @@
         <v>163646</v>
       </c>
       <c r="J11" s="1">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1678,7 +1645,7 @@
         <v>1004</v>
       </c>
       <c r="G12" s="1">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>30</v>
@@ -1687,36 +1654,36 @@
         <v>163646</v>
       </c>
       <c r="J12" s="1">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G13" s="1">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>30</v>
@@ -1725,36 +1692,36 @@
         <v>163646</v>
       </c>
       <c r="J13" s="1">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G14" s="1">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>30</v>
@@ -1763,33 +1730,33 @@
         <v>163646</v>
       </c>
       <c r="J14" s="1">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G15" s="1">
         <v>1015</v>
@@ -1801,33 +1768,33 @@
         <v>163646</v>
       </c>
       <c r="J15" s="1">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G16" s="1">
         <v>1015</v>
@@ -1839,141 +1806,141 @@
         <v>163646</v>
       </c>
       <c r="J16" s="1">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>98</v>
+      <c r="F17" s="1">
+        <v>1009</v>
       </c>
       <c r="G17" s="1">
         <v>1015</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I17" s="4">
         <v>163646</v>
       </c>
       <c r="J17" s="1">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="1">
         <v>1015</v>
       </c>
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="I18" s="4">
         <v>163646</v>
       </c>
       <c r="J18" s="1">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="4">
+        <v>163646</v>
+      </c>
+      <c r="J19" s="1">
         <v>1015</v>
       </c>
-      <c r="G19" s="1">
-        <v>1020</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1016</v>
-      </c>
       <c r="K19" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>219</v>
+        <v>106</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1982,36 +1949,36 @@
         <v>1015</v>
       </c>
       <c r="G20" s="1">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="I20" s="4">
         <v>163646</v>
       </c>
       <c r="J20" s="1">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2020,36 +1987,36 @@
         <v>1015</v>
       </c>
       <c r="G21" s="1">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="I21" s="4">
         <v>163646</v>
       </c>
       <c r="J21" s="1">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2067,147 +2034,147 @@
         <v>163646</v>
       </c>
       <c r="J22" s="1">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G23" s="1">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I23" s="4">
         <v>163646</v>
       </c>
       <c r="J23" s="1">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G24" s="1">
         <v>1022</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="I24" s="4">
         <v>163646</v>
       </c>
       <c r="J24" s="1">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1017</v>
+      </c>
+      <c r="G25" s="1">
         <v>1022</v>
       </c>
-      <c r="B25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1024</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="I25" s="4">
         <v>163646</v>
       </c>
       <c r="J25" s="1">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>177</v>
+      <c r="F26" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="G26" s="1">
         <v>1024</v>
@@ -2219,103 +2186,103 @@
         <v>163646</v>
       </c>
       <c r="J26" s="1">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="K26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="1">
         <v>1024</v>
       </c>
-      <c r="B27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>240</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="I27" s="4">
         <v>163646</v>
       </c>
       <c r="J27" s="1">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="K27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="4">
+        <v>163646</v>
+      </c>
+      <c r="J28" s="1">
         <v>1024</v>
       </c>
-      <c r="G28" s="1">
-        <v>1028</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1025</v>
-      </c>
       <c r="K28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2333,27 +2300,27 @@
         <v>163646</v>
       </c>
       <c r="J29" s="1">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="K29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2361,46 +2328,46 @@
       <c r="F30" s="1">
         <v>1024</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>242</v>
+      <c r="G30" s="1">
+        <v>1028</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I30" s="4">
         <v>163646</v>
       </c>
       <c r="J30" s="1">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="K30" t="s">
-        <v>196</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>43</v>
+        <v>195</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>179</v>
+      <c r="F31" s="1">
+        <v>1024</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>30</v>
@@ -2409,65 +2376,65 @@
         <v>163646</v>
       </c>
       <c r="J31" s="1">
+        <v>1027</v>
+      </c>
+      <c r="K31" t="s">
+        <v>196</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>1028</v>
       </c>
-      <c r="K31" t="s">
-        <v>197</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>1029</v>
-      </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="1">
-        <v>1027</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1034</v>
+      <c r="F32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="4">
         <v>163646</v>
       </c>
       <c r="J32" s="1">
+        <v>1028</v>
+      </c>
+      <c r="K32" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
         <v>1029</v>
       </c>
-      <c r="K32" t="s">
-        <v>198</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>1030</v>
-      </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2476,74 +2443,74 @@
         <v>1027</v>
       </c>
       <c r="G33" s="1">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="4">
+        <v>30</v>
+      </c>
+      <c r="I33" s="7">
         <v>163646</v>
       </c>
       <c r="J33" s="1">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>246</v>
+        <v>123</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G34" s="1">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I34" s="4">
         <v>163646</v>
       </c>
       <c r="J34" s="1">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K34" t="s">
-        <v>200</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>64</v>
+        <v>199</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -2552,7 +2519,7 @@
         <v>1028</v>
       </c>
       <c r="G35" s="1">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>30</v>
@@ -2561,27 +2528,27 @@
         <v>163646</v>
       </c>
       <c r="J35" s="1">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2590,7 +2557,7 @@
         <v>1028</v>
       </c>
       <c r="G36" s="1">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>30</v>
@@ -2599,36 +2566,36 @@
         <v>163646</v>
       </c>
       <c r="J36" s="1">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>252</v>
+        <v>126</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G37" s="1">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>30</v>
@@ -2637,36 +2604,36 @@
         <v>163646</v>
       </c>
       <c r="J37" s="1">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>249</v>
+        <v>127</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G38" s="1">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>30</v>
@@ -2675,33 +2642,33 @@
         <v>163646</v>
       </c>
       <c r="J38" s="1">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G39" s="1">
         <v>1039</v>
@@ -2713,33 +2680,33 @@
         <v>163646</v>
       </c>
       <c r="J39" s="1">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="K39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G40" s="1">
         <v>1039</v>
@@ -2751,141 +2718,141 @@
         <v>163646</v>
       </c>
       <c r="J40" s="1">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="K40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>253</v>
+        <v>130</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>180</v>
+      <c r="F41" s="1">
+        <v>1033</v>
       </c>
       <c r="G41" s="1">
         <v>1039</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I41" s="4">
         <v>163646</v>
       </c>
       <c r="J41" s="1">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="1">
         <v>1039</v>
       </c>
-      <c r="B42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>243</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="I42" s="4">
         <v>163646</v>
       </c>
       <c r="J42" s="1">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="4">
+        <v>163646</v>
+      </c>
+      <c r="J43" s="1">
         <v>1039</v>
       </c>
-      <c r="G43" s="1">
-        <v>1044</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1040</v>
-      </c>
       <c r="K43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -2894,36 +2861,36 @@
         <v>1039</v>
       </c>
       <c r="G44" s="1">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="I44" s="4">
         <v>163646</v>
       </c>
       <c r="J44" s="1">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -2932,36 +2899,36 @@
         <v>1039</v>
       </c>
       <c r="G45" s="1">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="I45" s="4">
         <v>163646</v>
       </c>
       <c r="J45" s="1">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -2979,176 +2946,179 @@
         <v>163646</v>
       </c>
       <c r="J46" s="1">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G47" s="1">
         <v>1046</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I47" s="4">
         <v>163646</v>
       </c>
       <c r="J47" s="1">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G48" s="1">
         <v>1046</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="I48" s="4">
         <v>163646</v>
       </c>
       <c r="J48" s="1">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1041</v>
+      </c>
+      <c r="G49" s="1">
         <v>1046</v>
       </c>
-      <c r="B49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>245</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="I49" s="4">
         <v>163646</v>
       </c>
       <c r="J49" s="1">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
-      </c>
-      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I50" s="4">
+        <v>163646</v>
+      </c>
+      <c r="J50" s="1">
         <v>1046</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I50" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J50" s="1">
-        <v>1047</v>
-      </c>
       <c r="K50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -3163,27 +3133,27 @@
         <v>163646</v>
       </c>
       <c r="J51" s="1">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -3198,12 +3168,47 @@
         <v>163646</v>
       </c>
       <c r="J52" s="1">
+        <v>1048</v>
+      </c>
+      <c r="K52" t="s">
+        <v>217</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>1049</v>
       </c>
-      <c r="K52" t="s">
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1046</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I53" s="4">
+        <v>163646</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1049</v>
+      </c>
+      <c r="K53" t="s">
         <v>218</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>229</v>
       </c>
     </row>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A822E6-075D-425A-8778-68DE28FE2856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592AE4C6-6954-42FA-8AFB-C7873FE491F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="225" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="275">
   <si>
     <t>int</t>
   </si>
@@ -861,6 +861,14 @@
   </si>
   <si>
     <t>攻速增强2</t>
+  </si>
+  <si>
+    <t>iconGray</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未激活 icon 图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -934,7 +942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,9 +962,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1229,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1244,12 +1249,13 @@
     <col min="5" max="5" width="31.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="63.375" customWidth="1"/>
-    <col min="10" max="10" width="16.625" customWidth="1"/>
-    <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="30" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1278,16 +1284,19 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
       <c r="L1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1315,17 +1324,20 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>108</v>
       </c>
@@ -1353,22 +1365,25 @@
       <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -1391,19 +1406,22 @@
         <v>30</v>
       </c>
       <c r="I5" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J5" s="1">
+        <v>387109</v>
+      </c>
+      <c r="J5" s="4">
+        <v>386997</v>
+      </c>
+      <c r="K5" s="1">
         <v>1001</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
@@ -1426,19 +1444,22 @@
         <v>30</v>
       </c>
       <c r="I6" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J6" s="1">
+        <v>386998</v>
+      </c>
+      <c r="J6" s="4">
+        <v>387089</v>
+      </c>
+      <c r="K6" s="1">
         <v>1002</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
@@ -1461,19 +1482,22 @@
         <v>41</v>
       </c>
       <c r="I7" s="4">
+        <v>387015</v>
+      </c>
+      <c r="J7" s="4">
         <v>163646</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>1003</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
@@ -1499,19 +1523,22 @@
         <v>41</v>
       </c>
       <c r="I8" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J8" s="1">
+        <v>387108</v>
+      </c>
+      <c r="J8" s="4">
+        <v>387003</v>
+      </c>
+      <c r="K8" s="1">
         <v>1004</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
@@ -1537,19 +1564,22 @@
         <v>30</v>
       </c>
       <c r="I9" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J9" s="1">
+        <v>387011</v>
+      </c>
+      <c r="J9" s="4">
+        <v>387090</v>
+      </c>
+      <c r="K9" s="1">
         <v>1005</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
@@ -1575,19 +1605,22 @@
         <v>58</v>
       </c>
       <c r="I10" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J10" s="1">
+        <v>387006</v>
+      </c>
+      <c r="J10" s="4">
+        <v>387055</v>
+      </c>
+      <c r="K10" s="1">
         <v>1006</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -1613,19 +1646,22 @@
         <v>30</v>
       </c>
       <c r="I11" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J11" s="1">
+        <v>385317</v>
+      </c>
+      <c r="J11" s="4">
+        <v>385333</v>
+      </c>
+      <c r="K11" s="1">
         <v>1007</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
@@ -1651,19 +1687,22 @@
         <v>30</v>
       </c>
       <c r="I12" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J12" s="1">
+        <v>385384</v>
+      </c>
+      <c r="J12" s="4">
+        <v>385288</v>
+      </c>
+      <c r="K12" s="1">
         <v>1008</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -1689,19 +1728,22 @@
         <v>30</v>
       </c>
       <c r="I13" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J13" s="1">
+        <v>385337</v>
+      </c>
+      <c r="J13" s="4">
+        <v>385284</v>
+      </c>
+      <c r="K13" s="1">
         <v>1009</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
@@ -1727,19 +1769,22 @@
         <v>30</v>
       </c>
       <c r="I14" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J14" s="1">
+        <v>387000</v>
+      </c>
+      <c r="J14" s="4">
+        <v>387058</v>
+      </c>
+      <c r="K14" s="1">
         <v>1010</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -1765,19 +1810,22 @@
         <v>30</v>
       </c>
       <c r="I15" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J15" s="1">
+        <v>385331</v>
+      </c>
+      <c r="J15" s="4">
+        <v>385335</v>
+      </c>
+      <c r="K15" s="1">
         <v>1011</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -1805,17 +1853,20 @@
       <c r="I16" s="4">
         <v>163646</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
+        <v>163646</v>
+      </c>
+      <c r="K16" s="1">
         <v>1012</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -1841,19 +1892,22 @@
         <v>30</v>
       </c>
       <c r="I17" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J17" s="1">
+        <v>385338</v>
+      </c>
+      <c r="J17" s="4">
+        <v>385286</v>
+      </c>
+      <c r="K17" s="1">
         <v>1013</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>93</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
@@ -1879,19 +1933,22 @@
         <v>41</v>
       </c>
       <c r="I18" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J18" s="1">
+        <v>387013</v>
+      </c>
+      <c r="J18" s="4">
+        <v>387088</v>
+      </c>
+      <c r="K18" s="1">
         <v>1014</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
@@ -1917,19 +1974,22 @@
         <v>105</v>
       </c>
       <c r="I19" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J19" s="1">
+        <v>387110</v>
+      </c>
+      <c r="J19" s="4">
+        <v>387087</v>
+      </c>
+      <c r="K19" s="1">
         <v>1015</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>106</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
@@ -1955,19 +2015,22 @@
         <v>30</v>
       </c>
       <c r="I20" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J20" s="1">
+        <v>387010</v>
+      </c>
+      <c r="J20" s="4">
+        <v>387086</v>
+      </c>
+      <c r="K20" s="1">
         <v>1016</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>185</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
@@ -1993,19 +2056,22 @@
         <v>183</v>
       </c>
       <c r="I21" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J21" s="1">
+        <v>387111</v>
+      </c>
+      <c r="J21" s="4">
+        <v>387005</v>
+      </c>
+      <c r="K21" s="1">
         <v>1017</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>186</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
@@ -2031,19 +2097,22 @@
         <v>105</v>
       </c>
       <c r="I22" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J22" s="1">
+        <v>387014</v>
+      </c>
+      <c r="J22" s="4">
+        <v>387062</v>
+      </c>
+      <c r="K22" s="1">
         <v>1018</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>187</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
@@ -2069,19 +2138,22 @@
         <v>105</v>
       </c>
       <c r="I23" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J23" s="1">
+        <v>386996</v>
+      </c>
+      <c r="J23" s="4">
+        <v>387056</v>
+      </c>
+      <c r="K23" s="1">
         <v>1019</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>188</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
@@ -2107,19 +2179,22 @@
         <v>30</v>
       </c>
       <c r="I24" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J24" s="1">
+        <v>387112</v>
+      </c>
+      <c r="J24" s="4">
+        <v>387084</v>
+      </c>
+      <c r="K24" s="1">
         <v>1020</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>189</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
@@ -2145,19 +2220,22 @@
         <v>183</v>
       </c>
       <c r="I25" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J25" s="1">
+        <v>387107</v>
+      </c>
+      <c r="J25" s="4">
+        <v>387085</v>
+      </c>
+      <c r="K25" s="1">
         <v>1021</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>190</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
@@ -2173,7 +2251,7 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G26" s="1">
@@ -2183,19 +2261,22 @@
         <v>41</v>
       </c>
       <c r="I26" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J26" s="1">
+        <v>387012</v>
+      </c>
+      <c r="J26" s="4">
+        <v>387057</v>
+      </c>
+      <c r="K26" s="1">
         <v>1022</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>191</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
@@ -2221,26 +2302,29 @@
         <v>41</v>
       </c>
       <c r="I27" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J27" s="1">
+        <v>386999</v>
+      </c>
+      <c r="J27" s="4">
+        <v>387063</v>
+      </c>
+      <c r="K27" s="1">
         <v>1023</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>192</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>258</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2252,33 +2336,36 @@
       <c r="F28" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>240</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I28" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J28" s="1">
+        <v>387110</v>
+      </c>
+      <c r="J28" s="4">
+        <v>387087</v>
+      </c>
+      <c r="K28" s="1">
         <v>1024</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>193</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>256</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2297,26 +2384,29 @@
         <v>41</v>
       </c>
       <c r="I29" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J29" s="1">
+        <v>387109</v>
+      </c>
+      <c r="J29" s="4">
+        <v>386997</v>
+      </c>
+      <c r="K29" s="1">
         <v>1025</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>194</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2335,26 +2425,29 @@
         <v>41</v>
       </c>
       <c r="I30" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J30" s="1">
+        <v>386998</v>
+      </c>
+      <c r="J30" s="4">
+        <v>387089</v>
+      </c>
+      <c r="K30" s="1">
         <v>1026</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>195</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>252</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2366,33 +2459,36 @@
       <c r="F31" s="1">
         <v>1024</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>242</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="4">
+        <v>387015</v>
+      </c>
+      <c r="J31" s="4">
         <v>163646</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>1027</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>196</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2404,33 +2500,36 @@
       <c r="F32" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>241</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I32" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J32" s="1">
+        <v>387108</v>
+      </c>
+      <c r="J32" s="4">
+        <v>387003</v>
+      </c>
+      <c r="K32" s="1">
         <v>1028</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>197</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
       <c r="B33" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>255</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2448,27 +2547,30 @@
       <c r="H33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="7">
-        <v>163646</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="4">
+        <v>387011</v>
+      </c>
+      <c r="J33" s="4">
+        <v>387090</v>
+      </c>
+      <c r="K33" s="1">
         <v>1029</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>198</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
       <c r="B34" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>254</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2487,19 +2589,22 @@
         <v>58</v>
       </c>
       <c r="I34" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J34" s="1">
+        <v>387006</v>
+      </c>
+      <c r="J34" s="4">
+        <v>387055</v>
+      </c>
+      <c r="K34" s="1">
         <v>1030</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>199</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
@@ -2525,19 +2630,22 @@
         <v>30</v>
       </c>
       <c r="I35" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J35" s="1">
+        <v>385317</v>
+      </c>
+      <c r="J35" s="4">
+        <v>385333</v>
+      </c>
+      <c r="K35" s="1">
         <v>1031</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>200</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
@@ -2563,19 +2671,22 @@
         <v>30</v>
       </c>
       <c r="I36" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J36" s="1">
+        <v>385384</v>
+      </c>
+      <c r="J36" s="4">
+        <v>385288</v>
+      </c>
+      <c r="K36" s="1">
         <v>1032</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>201</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
@@ -2601,26 +2712,29 @@
         <v>30</v>
       </c>
       <c r="I37" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J37" s="1">
+        <v>385337</v>
+      </c>
+      <c r="J37" s="4">
+        <v>385284</v>
+      </c>
+      <c r="K37" s="1">
         <v>1033</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>202</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
       <c r="B38" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>252</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2639,19 +2753,22 @@
         <v>30</v>
       </c>
       <c r="I38" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J38" s="1">
+        <v>387000</v>
+      </c>
+      <c r="J38" s="4">
+        <v>387058</v>
+      </c>
+      <c r="K38" s="1">
         <v>1034</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>203</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
@@ -2677,19 +2794,22 @@
         <v>30</v>
       </c>
       <c r="I39" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J39" s="1">
+        <v>385331</v>
+      </c>
+      <c r="J39" s="4">
+        <v>385335</v>
+      </c>
+      <c r="K39" s="1">
         <v>1035</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>204</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
@@ -2717,17 +2837,20 @@
       <c r="I40" s="4">
         <v>163646</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="4">
+        <v>163646</v>
+      </c>
+      <c r="K40" s="1">
         <v>1036</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>205</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
@@ -2753,26 +2876,29 @@
         <v>30</v>
       </c>
       <c r="I41" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J41" s="1">
+        <v>385338</v>
+      </c>
+      <c r="J41" s="4">
+        <v>385286</v>
+      </c>
+      <c r="K41" s="1">
         <v>1037</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>206</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="B42" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>253</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -2791,26 +2917,29 @@
         <v>41</v>
       </c>
       <c r="I42" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J42" s="1">
+        <v>387013</v>
+      </c>
+      <c r="J42" s="4">
+        <v>387088</v>
+      </c>
+      <c r="K42" s="1">
         <v>1038</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>207</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
       <c r="B43" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>259</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2822,33 +2951,36 @@
       <c r="F43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>243</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I43" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J43" s="1">
+        <v>387110</v>
+      </c>
+      <c r="J43" s="4">
+        <v>387087</v>
+      </c>
+      <c r="K43" s="1">
         <v>1039</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>261</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2867,26 +2999,29 @@
         <v>30</v>
       </c>
       <c r="I44" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J44" s="1">
+        <v>387010</v>
+      </c>
+      <c r="J44" s="4">
+        <v>387086</v>
+      </c>
+      <c r="K44" s="1">
         <v>1040</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>209</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
       <c r="B45" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>262</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2905,26 +3040,29 @@
         <v>183</v>
       </c>
       <c r="I45" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J45" s="1">
+        <v>387111</v>
+      </c>
+      <c r="J45" s="4">
+        <v>387005</v>
+      </c>
+      <c r="K45" s="1">
         <v>1041</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>210</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
       <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>263</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -2943,26 +3081,29 @@
         <v>105</v>
       </c>
       <c r="I46" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J46" s="1">
+        <v>387014</v>
+      </c>
+      <c r="J46" s="4">
+        <v>387062</v>
+      </c>
+      <c r="K46" s="1">
         <v>1042</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>211</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
       <c r="B47" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>264</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -2981,26 +3122,29 @@
         <v>105</v>
       </c>
       <c r="I47" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J47" s="1">
+        <v>386996</v>
+      </c>
+      <c r="J47" s="4">
+        <v>387056</v>
+      </c>
+      <c r="K47" s="1">
         <v>1043</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>212</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
       <c r="B48" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>265</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3019,26 +3163,29 @@
         <v>30</v>
       </c>
       <c r="I48" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J48" s="1">
+        <v>387112</v>
+      </c>
+      <c r="J48" s="4">
+        <v>387084</v>
+      </c>
+      <c r="K48" s="1">
         <v>1044</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>213</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="B49" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>266</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3057,26 +3204,29 @@
         <v>183</v>
       </c>
       <c r="I49" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J49" s="1">
+        <v>387107</v>
+      </c>
+      <c r="J49" s="4">
+        <v>387085</v>
+      </c>
+      <c r="K49" s="1">
         <v>1045</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>214</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
       <c r="B50" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>260</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3085,36 +3235,39 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="7" t="s">
         <v>245</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I50" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J50" s="1">
+        <v>387012</v>
+      </c>
+      <c r="J50" s="4">
+        <v>387057</v>
+      </c>
+      <c r="K50" s="1">
         <v>1046</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>215</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
       <c r="B51" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>267</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -3130,26 +3283,29 @@
         <v>184</v>
       </c>
       <c r="I51" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J51" s="1">
+        <v>387007</v>
+      </c>
+      <c r="J51" s="4">
+        <v>387007</v>
+      </c>
+      <c r="K51" s="1">
         <v>1047</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>216</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>268</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3165,26 +3321,29 @@
         <v>184</v>
       </c>
       <c r="I52" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J52" s="1">
+        <v>387002</v>
+      </c>
+      <c r="J52" s="4">
+        <v>387002</v>
+      </c>
+      <c r="K52" s="1">
         <v>1048</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>217</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>269</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3200,15 +3359,18 @@
         <v>184</v>
       </c>
       <c r="I53" s="4">
-        <v>163646</v>
-      </c>
-      <c r="J53" s="1">
+        <v>387004</v>
+      </c>
+      <c r="J53" s="4">
+        <v>387004</v>
+      </c>
+      <c r="K53" s="1">
         <v>1049</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>218</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>229</v>
       </c>
     </row>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592AE4C6-6954-42FA-8AFB-C7873FE491F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A15586-CC39-40D1-9B38-CE09A3883E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,10 +726,6 @@
     <t>在无尽模式下，基地耐久提高{0}</t>
   </si>
   <si>
-    <t>1015|1016|1017|1018</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>距离增强</t>
   </si>
   <si>
@@ -770,10 +766,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1039|1040|1041</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1044|1045|1042|1043</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -868,6 +860,14 @@
   </si>
   <si>
     <t>未激活 icon 图标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1016|1017|1018|1019</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1040|1041|1042</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1325,7 +1325,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -1366,7 +1366,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1584,7 +1584,7 @@
         <v>1006</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>56</v>
@@ -1628,7 +1628,7 @@
         <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
@@ -1967,8 +1967,8 @@
       <c r="F19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>230</v>
+      <c r="G19" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>105</v>
@@ -1997,7 +1997,7 @@
         <v>109</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>143</v>
@@ -2038,7 +2038,7 @@
         <v>110</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>144</v>
@@ -2079,7 +2079,7 @@
         <v>111</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>145</v>
@@ -2120,7 +2120,7 @@
         <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>146</v>
@@ -2161,7 +2161,7 @@
         <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>147</v>
@@ -2202,7 +2202,7 @@
         <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>148</v>
@@ -2243,7 +2243,7 @@
         <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>149</v>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G26" s="1">
         <v>1024</v>
@@ -2284,7 +2284,7 @@
         <v>116</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>150</v>
@@ -2325,7 +2325,7 @@
         <v>117</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>151</v>
@@ -2337,7 +2337,7 @@
         <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>105</v>
@@ -2366,7 +2366,7 @@
         <v>118</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>152</v>
@@ -2407,7 +2407,7 @@
         <v>119</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>153</v>
@@ -2448,7 +2448,7 @@
         <v>120</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>154</v>
@@ -2460,7 +2460,7 @@
         <v>1024</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>30</v>
@@ -2489,7 +2489,7 @@
         <v>121</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>155</v>
@@ -2501,7 +2501,7 @@
         <v>179</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>30</v>
@@ -2530,7 +2530,7 @@
         <v>122</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>156</v>
@@ -2571,7 +2571,7 @@
         <v>123</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>157</v>
@@ -2612,7 +2612,7 @@
         <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>158</v>
@@ -2653,7 +2653,7 @@
         <v>125</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>159</v>
@@ -2694,7 +2694,7 @@
         <v>126</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>160</v>
@@ -2735,7 +2735,7 @@
         <v>127</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>161</v>
@@ -2776,7 +2776,7 @@
         <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>162</v>
@@ -2817,7 +2817,7 @@
         <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>163</v>
@@ -2858,7 +2858,7 @@
         <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>164</v>
@@ -2899,7 +2899,7 @@
         <v>131</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>165</v>
@@ -2940,7 +2940,7 @@
         <v>132</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>166</v>
@@ -2952,7 +2952,7 @@
         <v>181</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>105</v>
@@ -2981,7 +2981,7 @@
         <v>133</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>167</v>
@@ -3022,7 +3022,7 @@
         <v>134</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>168</v>
@@ -3063,7 +3063,7 @@
         <v>135</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>169</v>
@@ -3104,7 +3104,7 @@
         <v>136</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>170</v>
@@ -3145,7 +3145,7 @@
         <v>137</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>171</v>
@@ -3186,7 +3186,7 @@
         <v>138</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>172</v>
@@ -3227,7 +3227,7 @@
         <v>139</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>173</v>
@@ -3236,10 +3236,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>105</v>
@@ -3268,7 +3268,7 @@
         <v>140</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>174</v>
@@ -3306,7 +3306,7 @@
         <v>141</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>175</v>
@@ -3344,7 +3344,7 @@
         <v>142</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>176</v>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A15586-CC39-40D1-9B38-CE09A3883E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAF6144-8188-4FEA-94A6-6E7B573F97AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="276">
   <si>
     <t>int</t>
   </si>
@@ -774,24 +774,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>光元素伤害加成2</t>
-  </si>
-  <si>
-    <t>暗元素伤害加成2</t>
-  </si>
-  <si>
-    <t>水元素伤害加成2</t>
-  </si>
-  <si>
-    <t>火元素伤害加成2</t>
-  </si>
-  <si>
-    <t>土元素伤害加成2</t>
-  </si>
-  <si>
-    <t>木元素伤害加成2</t>
-  </si>
-  <si>
     <t>基地耐久2</t>
   </si>
   <si>
@@ -868,6 +850,34 @@
   </si>
   <si>
     <t>1040|1041|1042</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久恢复2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>光元素增伤2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水元素增伤2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土元素增伤2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗元素增伤2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火元素增伤2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>木元素增伤2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1236,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1325,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -1366,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1485,7 +1495,7 @@
         <v>387015</v>
       </c>
       <c r="J7" s="4">
-        <v>163646</v>
+        <v>385893</v>
       </c>
       <c r="K7" s="1">
         <v>1003</v>
@@ -1584,7 +1594,7 @@
         <v>1006</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>56</v>
@@ -1628,7 +1638,7 @@
         <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
@@ -1851,7 +1861,7 @@
         <v>30</v>
       </c>
       <c r="I16" s="4">
-        <v>163646</v>
+        <v>391472</v>
       </c>
       <c r="J16" s="4">
         <v>163646</v>
@@ -1968,7 +1978,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>105</v>
@@ -2325,7 +2335,7 @@
         <v>117</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>151</v>
@@ -2366,7 +2376,7 @@
         <v>118</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>152</v>
@@ -2407,7 +2417,7 @@
         <v>119</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>153</v>
@@ -2448,7 +2458,7 @@
         <v>120</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>154</v>
@@ -2469,7 +2479,7 @@
         <v>387015</v>
       </c>
       <c r="J31" s="4">
-        <v>163646</v>
+        <v>385893</v>
       </c>
       <c r="K31" s="1">
         <v>1027</v>
@@ -2489,7 +2499,7 @@
         <v>121</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>155</v>
@@ -2530,7 +2540,7 @@
         <v>122</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>156</v>
@@ -2571,7 +2581,7 @@
         <v>123</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>157</v>
@@ -2611,8 +2621,8 @@
       <c r="B35" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>244</v>
+      <c r="C35" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>158</v>
@@ -2652,8 +2662,8 @@
       <c r="B36" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>245</v>
+      <c r="C36" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>159</v>
@@ -2693,8 +2703,8 @@
       <c r="B37" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>246</v>
+      <c r="C37" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>160</v>
@@ -2735,7 +2745,7 @@
         <v>127</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>161</v>
@@ -2775,8 +2785,8 @@
       <c r="B39" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>247</v>
+      <c r="C39" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>162</v>
@@ -2816,8 +2826,8 @@
       <c r="B40" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>248</v>
+      <c r="C40" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>163</v>
@@ -2835,7 +2845,7 @@
         <v>30</v>
       </c>
       <c r="I40" s="4">
-        <v>163646</v>
+        <v>391472</v>
       </c>
       <c r="J40" s="4">
         <v>163646</v>
@@ -2857,8 +2867,8 @@
       <c r="B41" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>249</v>
+      <c r="C41" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>164</v>
@@ -2899,7 +2909,7 @@
         <v>131</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>165</v>
@@ -2940,7 +2950,7 @@
         <v>132</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>166</v>
@@ -2952,7 +2962,7 @@
         <v>181</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>105</v>
@@ -2981,7 +2991,7 @@
         <v>133</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>167</v>
@@ -3022,7 +3032,7 @@
         <v>134</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>168</v>
@@ -3063,7 +3073,7 @@
         <v>135</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>169</v>
@@ -3104,7 +3114,7 @@
         <v>136</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>170</v>
@@ -3145,7 +3155,7 @@
         <v>137</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>171</v>
@@ -3186,7 +3196,7 @@
         <v>138</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>172</v>
@@ -3227,7 +3237,7 @@
         <v>139</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>173</v>
@@ -3268,7 +3278,7 @@
         <v>140</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>174</v>
@@ -3286,7 +3296,7 @@
         <v>387007</v>
       </c>
       <c r="J51" s="4">
-        <v>387007</v>
+        <v>387060</v>
       </c>
       <c r="K51" s="1">
         <v>1047</v>
@@ -3306,7 +3316,7 @@
         <v>141</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>175</v>
@@ -3324,7 +3334,7 @@
         <v>387002</v>
       </c>
       <c r="J52" s="4">
-        <v>387002</v>
+        <v>387059</v>
       </c>
       <c r="K52" s="1">
         <v>1048</v>
@@ -3344,7 +3354,7 @@
         <v>142</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>176</v>
@@ -3362,7 +3372,7 @@
         <v>387004</v>
       </c>
       <c r="J53" s="4">
-        <v>387004</v>
+        <v>387061</v>
       </c>
       <c r="K53" s="1">
         <v>1049</v>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAF6144-8188-4FEA-94A6-6E7B573F97AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="278">
   <si>
     <t>int</t>
   </si>
@@ -69,9 +65,15 @@
     <t>cost</t>
   </si>
   <si>
+    <t>maxLevel</t>
+  </si>
+  <si>
     <t>icon</t>
   </si>
   <si>
+    <t>iconGray</t>
+  </si>
+  <si>
     <t>buffId</t>
   </si>
   <si>
@@ -81,6 +83,9 @@
     <t>descCN</t>
   </si>
   <si>
+    <t>TalentTreeid</t>
+  </si>
+  <si>
     <t>天赋名称</t>
   </si>
   <si>
@@ -102,9 +107,15 @@
     <t xml:space="preserve"> 解锁以及升级所需资源[[资源id,1级,2级,3级],[资源id,1级,2级,3级]]</t>
   </si>
   <si>
+    <t>最大等级</t>
+  </si>
+  <si>
     <t>icon 图标</t>
   </si>
   <si>
+    <t>未激活 icon 图标</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 天赋buff表的id</t>
   </si>
   <si>
@@ -156,6 +167,9 @@
     <t>talentItemCanvas_3</t>
   </si>
   <si>
+    <t>1005|1006</t>
+  </si>
+  <si>
     <t>1|10|20|40||2|10|20|40</t>
   </si>
   <si>
@@ -201,6 +215,9 @@
     <t>每个波次获得{0}能量</t>
   </si>
   <si>
+    <t>TalentTree_Name_6</t>
+  </si>
+  <si>
     <t>矿机升级</t>
   </si>
   <si>
@@ -219,6 +236,9 @@
     <t>TalentTree_Name_7</t>
   </si>
   <si>
+    <t>光元素增伤</t>
+  </si>
+  <si>
     <t>talentItemCanvas_7</t>
   </si>
   <si>
@@ -348,6 +368,9 @@
     <t>1011|1012|1013|1014</t>
   </si>
   <si>
+    <t>1016|1017|1018|1019</t>
+  </si>
+  <si>
     <t>1|10|20|40|65||2|10|20|40|65</t>
   </si>
   <si>
@@ -357,535 +380,500 @@
     <t>敌方受到伤害提高{0}%</t>
   </si>
   <si>
-    <t>TalentTreeid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TalentTree_Name_16</t>
   </si>
   <si>
+    <t>距离增强</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_16</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_16</t>
+  </si>
+  <si>
+    <t>攻击范围提高{0}%</t>
+  </si>
+  <si>
     <t>TalentTree_Name_17</t>
   </si>
   <si>
+    <t>物理斩杀</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_17</t>
+  </si>
+  <si>
+    <t>1|10||2|10</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_17</t>
+  </si>
+  <si>
+    <t>物理伤害对于血量低于20%的敌方造成伤害提高{0}%</t>
+  </si>
+  <si>
     <t>TalentTree_Name_18</t>
   </si>
   <si>
+    <t>黯灭</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_18</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_18</t>
+  </si>
+  <si>
+    <t>敌方入场5秒内护甲减少{0}</t>
+  </si>
+  <si>
     <t>TalentTree_Name_19</t>
   </si>
   <si>
+    <t>希瓦</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_19</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_19</t>
+  </si>
+  <si>
+    <t>敌方入场5秒内魔抗减少{0}</t>
+  </si>
+  <si>
     <t>TalentTree_Name_20</t>
   </si>
   <si>
+    <t>高射火炮</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_20</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_20</t>
+  </si>
+  <si>
+    <t>对空中敌方造成伤害提高{0}%</t>
+  </si>
+  <si>
     <t>TalentTree_Name_21</t>
   </si>
   <si>
+    <t>魔法压制</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_21</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_21</t>
+  </si>
+  <si>
+    <t>魔法伤害对于血量高于80%的敌方造成伤害提高{0}%</t>
+  </si>
+  <si>
     <t>TalentTree_Name_22</t>
   </si>
   <si>
+    <t>元素压制</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_22</t>
+  </si>
+  <si>
+    <t>1020|1021</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_22</t>
+  </si>
+  <si>
+    <t>元素克制时造成伤害提高{0}%</t>
+  </si>
+  <si>
     <t>TalentTree_Name_23</t>
   </si>
   <si>
+    <t>元素抵抗</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_23</t>
+  </si>
+  <si>
+    <t>1018|1019</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_23</t>
+  </si>
+  <si>
+    <t>元素被克制时的伤害减免减少{0}%</t>
+  </si>
+  <si>
     <t>TalentTree_Name_24</t>
   </si>
   <si>
+    <t>慧光2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_24</t>
+  </si>
+  <si>
+    <t>1022|1023</t>
+  </si>
+  <si>
+    <t>1025|1026|1027</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_24</t>
+  </si>
+  <si>
     <t>TalentTree_Name_25</t>
   </si>
   <si>
+    <t>物理精通</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_25</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_25</t>
+  </si>
+  <si>
     <t>TalentTree_Name_26</t>
   </si>
   <si>
+    <t>魔法升华</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_26</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_26</t>
+  </si>
+  <si>
     <t>TalentTree_Name_27</t>
   </si>
   <si>
+    <t>基地耐久2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_27</t>
+  </si>
+  <si>
+    <t>1029|1030</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_27</t>
+  </si>
+  <si>
     <t>TalentTree_Name_28</t>
   </si>
   <si>
+    <t>攻速增强2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_28</t>
+  </si>
+  <si>
+    <t>1025|1026</t>
+  </si>
+  <si>
+    <t>1031|1032|1033</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_28</t>
+  </si>
+  <si>
     <t>TalentTree_Name_29</t>
   </si>
   <si>
+    <t>天降能量2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_29</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_29</t>
+  </si>
+  <si>
     <t>TalentTree_Name_30</t>
   </si>
   <si>
+    <t>矿机升级2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_30</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_30</t>
+  </si>
+  <si>
     <t>TalentTree_Name_31</t>
   </si>
   <si>
+    <t>光元素增伤2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_31</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_31</t>
+  </si>
+  <si>
     <t>TalentTree_Name_32</t>
   </si>
   <si>
+    <t>水元素增伤2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_32</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_32</t>
+  </si>
+  <si>
     <t>TalentTree_Name_33</t>
   </si>
   <si>
+    <t>土元素增伤2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_33</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_33</t>
+  </si>
+  <si>
     <t>TalentTree_Name_34</t>
   </si>
   <si>
+    <t>耐久恢复2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_34</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_34</t>
+  </si>
+  <si>
     <t>TalentTree_Name_35</t>
   </si>
   <si>
+    <t>暗元素增伤2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_35</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_35</t>
+  </si>
+  <si>
     <t>TalentTree_Name_36</t>
   </si>
   <si>
+    <t>火元素增伤2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_36</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_36</t>
+  </si>
+  <si>
     <t>TalentTree_Name_37</t>
   </si>
   <si>
+    <t>木元素增伤2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_37</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_37</t>
+  </si>
+  <si>
     <t>TalentTree_Name_38</t>
   </si>
   <si>
+    <t>敌方减速2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_38</t>
+  </si>
+  <si>
+    <t>1034|1030</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_38</t>
+  </si>
+  <si>
     <t>TalentTree_Name_39</t>
   </si>
   <si>
+    <t>慧光3</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_39</t>
+  </si>
+  <si>
+    <t>1035|1036|1037|1038</t>
+  </si>
+  <si>
+    <t>1040|1041|1042</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_39</t>
+  </si>
+  <si>
     <t>TalentTree_Name_40</t>
   </si>
   <si>
+    <t>距离增强2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_40</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_40</t>
+  </si>
+  <si>
     <t>TalentTree_Name_41</t>
   </si>
   <si>
+    <t>物理斩杀2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_41</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_41</t>
+  </si>
+  <si>
     <t>TalentTree_Name_42</t>
   </si>
   <si>
+    <t>黯灭2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_42</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_42</t>
+  </si>
+  <si>
     <t>TalentTree_Name_43</t>
   </si>
   <si>
+    <t>希瓦2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_43</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_43</t>
+  </si>
+  <si>
     <t>TalentTree_Name_44</t>
   </si>
   <si>
+    <t>高射火炮2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_44</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_44</t>
+  </si>
+  <si>
     <t>TalentTree_Name_45</t>
   </si>
   <si>
+    <t>魔法压制2</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_45</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_45</t>
+  </si>
+  <si>
     <t>TalentTree_Name_46</t>
   </si>
   <si>
+    <t>慧光4</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_46</t>
+  </si>
+  <si>
+    <t>1044|1045|1042|1043</t>
+  </si>
+  <si>
+    <t>1047|1048|1049</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_46</t>
+  </si>
+  <si>
     <t>TalentTree_Name_47</t>
   </si>
   <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_47</t>
+  </si>
+  <si>
+    <t>1|100||2|100</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_47</t>
+  </si>
+  <si>
+    <t>在无尽模式下，物理伤害提高{0}%</t>
+  </si>
+  <si>
     <t>TalentTree_Name_48</t>
   </si>
   <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_48</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_48</t>
+  </si>
+  <si>
+    <t>在无尽模式下，魔法伤害提高{0}%</t>
+  </si>
+  <si>
     <t>TalentTree_Name_49</t>
   </si>
   <si>
-    <t>talentItemCanvas_16</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_17</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_18</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_19</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_20</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_21</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_22</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_23</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_24</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_25</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_26</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_27</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_28</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_29</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_30</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_31</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_32</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_33</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_34</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_35</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_36</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_37</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_38</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_39</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_40</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_41</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_42</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_43</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_44</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_45</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_46</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_47</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_48</t>
+    <t>耐久</t>
   </si>
   <si>
     <t>talentItemCanvas_49</t>
   </si>
   <si>
-    <t>1018|1019</t>
-  </si>
-  <si>
-    <t>1022|1023</t>
-  </si>
-  <si>
-    <t>1025|1026</t>
-  </si>
-  <si>
-    <t>1034|1030</t>
-  </si>
-  <si>
-    <t>1035|1036|1037|1038</t>
-  </si>
-  <si>
-    <t>1005|1006</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|10||2|10</t>
-  </si>
-  <si>
-    <t>1|100||2|100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentTree_Desc_16</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_17</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_18</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_19</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_20</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_21</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_22</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_23</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_24</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_25</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_26</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_27</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_28</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_29</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_30</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_31</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_32</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_33</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_34</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_35</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_36</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_37</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_38</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_39</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_40</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_41</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_42</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_43</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_44</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_45</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_46</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_47</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_48</t>
-  </si>
-  <si>
     <t>TalentTree_Desc_49</t>
   </si>
   <si>
-    <t>攻击范围提高{0}%</t>
-  </si>
-  <si>
-    <t>物理伤害对于血量低于20%的敌方造成伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>敌方入场5秒内护甲减少{0}</t>
-  </si>
-  <si>
-    <t>敌方入场5秒内魔抗减少{0}</t>
-  </si>
-  <si>
-    <t>对空中敌方造成伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>魔法伤害对于血量高于80%的敌方造成伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>元素克制时造成伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>元素被克制时的伤害减免减少{0}%</t>
-  </si>
-  <si>
-    <t>在无尽模式下，物理伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>在无尽模式下，魔法伤害提高{0}%</t>
-  </si>
-  <si>
     <t>在无尽模式下，基地耐久提高{0}</t>
-  </si>
-  <si>
-    <t>距离增强</t>
-  </si>
-  <si>
-    <t>物理斩杀</t>
-  </si>
-  <si>
-    <t>黯灭</t>
-  </si>
-  <si>
-    <t>希瓦</t>
-  </si>
-  <si>
-    <t>高射火炮</t>
-  </si>
-  <si>
-    <t>魔法压制</t>
-  </si>
-  <si>
-    <t>元素压制</t>
-  </si>
-  <si>
-    <t>元素抵抗</t>
-  </si>
-  <si>
-    <t>1020|1021</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025|1026|1027</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1031|1032|1033</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1029|1030</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1044|1045|1042|1043</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1047|1048|1049</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基地耐久2</t>
-  </si>
-  <si>
-    <t>敌方减速2</t>
-  </si>
-  <si>
-    <t>矿机升级2</t>
-  </si>
-  <si>
-    <t>天降能量2</t>
-  </si>
-  <si>
-    <t>物理精通</t>
-  </si>
-  <si>
-    <t>魔法升华</t>
-  </si>
-  <si>
-    <t>慧光2</t>
-  </si>
-  <si>
-    <t>慧光3</t>
-  </si>
-  <si>
-    <t>慧光4</t>
-  </si>
-  <si>
-    <t>距离增强2</t>
-  </si>
-  <si>
-    <t>物理斩杀2</t>
-  </si>
-  <si>
-    <t>黯灭2</t>
-  </si>
-  <si>
-    <t>希瓦2</t>
-  </si>
-  <si>
-    <t>高射火炮2</t>
-  </si>
-  <si>
-    <t>魔法压制2</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>魔法</t>
-  </si>
-  <si>
-    <t>耐久</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_6</t>
-  </si>
-  <si>
-    <t>光元素增伤</t>
-  </si>
-  <si>
-    <t>攻速增强2</t>
-  </si>
-  <si>
-    <t>iconGray</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>未激活 icon 图标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1016|1017|1018|1019</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1040|1041|1042</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐久恢复2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>光元素增伤2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水元素增伤2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>土元素增伤2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗元素增伤2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火元素增伤2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>木元素增伤2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,48 +885,360 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -946,13 +1246,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,33 +1504,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1238,34 +1818,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="63.375" customWidth="1"/>
-    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.625" customWidth="1"/>
-    <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="13" width="30" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="16.625" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1291,22 +1871,25 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
       </c>
       <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
       <c r="M1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1334,77 +1917,83 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="42" customHeight="1" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="42" customHeight="1" spans="1:8">
+      <c r="A4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" ht="16.5" spans="1:14">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1413,36 +2002,39 @@
         <v>1004</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
         <v>387109</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>386997</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1001</v>
       </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:14">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1451,115 +2043,124 @@
         <v>1004</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
         <v>386998</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>387089</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>1002</v>
       </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:14">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>182</v>
+      <c r="G7" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
         <v>387015</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>385893</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>1003</v>
       </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:14">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
         <v>387108</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>387003</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>1004</v>
       </c>
-      <c r="L8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:14">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1571,36 +2172,39 @@
         <v>1010</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
         <v>387011</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>387090</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>1005</v>
       </c>
-      <c r="L9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:14">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>262</v>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1612,36 +2216,39 @@
         <v>1014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
         <v>387006</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>387055</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>1006</v>
       </c>
-      <c r="L10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:14">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>263</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1653,36 +2260,39 @@
         <v>1011</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
         <v>385317</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>385333</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>1007</v>
       </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:14">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1694,36 +2304,39 @@
         <v>1012</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4">
         <v>385384</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>385288</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>1008</v>
       </c>
-      <c r="L12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:14">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1735,36 +2348,39 @@
         <v>1013</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
         <v>385337</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>385284</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>1009</v>
       </c>
-      <c r="L13" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:14">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1776,36 +2392,39 @@
         <v>1014</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I14" s="4">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4">
         <v>387000</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>387058</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>1010</v>
       </c>
-      <c r="L14" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:14">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1817,36 +2436,39 @@
         <v>1015</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
         <v>385331</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>385335</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>1011</v>
       </c>
-      <c r="L15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:14">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1858,36 +2480,39 @@
         <v>1015</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
         <v>391472</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>163646</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>1012</v>
       </c>
-      <c r="L16" t="s">
-        <v>88</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:14">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1899,118 +2524,127 @@
         <v>1015</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
         <v>385338</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>385286</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>1013</v>
       </c>
-      <c r="L17" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:14">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G18" s="1">
         <v>1015</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4">
         <v>387013</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>387088</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>1014</v>
       </c>
-      <c r="L18" t="s">
-        <v>99</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:14">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>112</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I19" s="4">
+        <v>4</v>
+      </c>
+      <c r="J19" s="4">
         <v>387110</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>387087</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>1015</v>
       </c>
-      <c r="L19" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M19" t="s">
+        <v>115</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:14">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2022,36 +2656,39 @@
         <v>1020</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I20" s="4">
+        <v>2</v>
+      </c>
+      <c r="J20" s="4">
         <v>387010</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>387086</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>1016</v>
       </c>
-      <c r="L20" t="s">
-        <v>185</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:14">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2063,36 +2700,39 @@
         <v>1021</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
         <v>387111</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>387005</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>1017</v>
       </c>
-      <c r="L21" t="s">
-        <v>186</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:14">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2104,36 +2744,39 @@
         <v>1023</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I22" s="4">
+        <v>4</v>
+      </c>
+      <c r="J22" s="4">
         <v>387014</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>387062</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>1018</v>
       </c>
-      <c r="L22" t="s">
-        <v>187</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M22" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:14">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2145,36 +2788,39 @@
         <v>1023</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I23" s="4">
+        <v>4</v>
+      </c>
+      <c r="J23" s="4">
         <v>386996</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>387056</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>1019</v>
       </c>
-      <c r="L23" t="s">
-        <v>188</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:14">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2186,36 +2832,39 @@
         <v>1022</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4">
         <v>387112</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>387084</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>1020</v>
       </c>
-      <c r="L24" t="s">
-        <v>189</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M24" t="s">
+        <v>141</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:14">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2227,159 +2876,171 @@
         <v>1022</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
         <v>387107</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>387085</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>1021</v>
       </c>
-      <c r="L25" t="s">
-        <v>190</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M25" t="s">
+        <v>146</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:14">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>238</v>
+      <c r="F26" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="G26" s="1">
         <v>1024</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I26" s="4">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4">
         <v>387012</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>387057</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>1022</v>
       </c>
-      <c r="L26" t="s">
-        <v>191</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M26" t="s">
+        <v>152</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:14">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G27" s="1">
         <v>1024</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I27" s="4">
+        <v>3</v>
+      </c>
+      <c r="J27" s="4">
         <v>386999</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
         <v>387063</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>1023</v>
       </c>
-      <c r="L27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M27" t="s">
+        <v>158</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:14">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>250</v>
+        <v>160</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>239</v>
+        <v>163</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I28" s="4">
+        <v>4</v>
+      </c>
+      <c r="J28" s="4">
         <v>387110</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>387087</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>1024</v>
       </c>
-      <c r="L28" t="s">
-        <v>193</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M28" t="s">
+        <v>165</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:14">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>248</v>
+        <v>166</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2391,36 +3052,39 @@
         <v>1028</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I29" s="4">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4">
         <v>387109</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>386997</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>1025</v>
       </c>
-      <c r="L29" t="s">
-        <v>194</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M29" t="s">
+        <v>169</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:14">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>249</v>
+        <v>170</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2432,36 +3096,39 @@
         <v>1028</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I30" s="4">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4">
         <v>386998</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>387089</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>1026</v>
       </c>
-      <c r="L30" t="s">
-        <v>195</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M30" t="s">
+        <v>173</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:14">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>244</v>
+        <v>174</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2469,81 +3136,87 @@
       <c r="F31" s="1">
         <v>1024</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>241</v>
+      <c r="G31" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I31" s="4">
+        <v>3</v>
+      </c>
+      <c r="J31" s="4">
         <v>387015</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>385893</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>1027</v>
       </c>
-      <c r="L31" t="s">
-        <v>196</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M31" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:14">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>264</v>
+        <v>179</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>240</v>
+        <v>182</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I32" s="4">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4">
         <v>387108</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>387003</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>1028</v>
       </c>
-      <c r="L32" t="s">
-        <v>197</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M32" t="s">
+        <v>184</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:14">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>247</v>
+        <v>185</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2555,36 +3228,39 @@
         <v>1034</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I33" s="4">
+        <v>2</v>
+      </c>
+      <c r="J33" s="4">
         <v>387011</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>387090</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <v>1029</v>
       </c>
-      <c r="L33" t="s">
-        <v>198</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M33" t="s">
+        <v>188</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:14">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>246</v>
+        <v>189</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2596,36 +3272,39 @@
         <v>1038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I34" s="4">
+        <v>5</v>
+      </c>
+      <c r="J34" s="4">
         <v>387006</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>387055</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>1030</v>
       </c>
-      <c r="L34" t="s">
-        <v>199</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M34" t="s">
+        <v>192</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:14">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>270</v>
+        <v>193</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -2637,36 +3316,39 @@
         <v>1035</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I35" s="4">
+        <v>2</v>
+      </c>
+      <c r="J35" s="4">
         <v>385317</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>385333</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <v>1031</v>
       </c>
-      <c r="L35" t="s">
-        <v>200</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M35" t="s">
+        <v>196</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:14">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>271</v>
+        <v>197</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2678,36 +3360,39 @@
         <v>1036</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I36" s="4">
+        <v>2</v>
+      </c>
+      <c r="J36" s="4">
         <v>385384</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>385288</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <v>1032</v>
       </c>
-      <c r="L36" t="s">
-        <v>201</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M36" t="s">
+        <v>200</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:14">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>272</v>
+        <v>201</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -2719,36 +3404,39 @@
         <v>1037</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I37" s="4">
+        <v>2</v>
+      </c>
+      <c r="J37" s="4">
         <v>385337</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>385284</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>1033</v>
       </c>
-      <c r="L37" t="s">
-        <v>202</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M37" t="s">
+        <v>204</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:14">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>269</v>
+        <v>205</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2760,36 +3448,39 @@
         <v>1038</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I38" s="4">
+        <v>2</v>
+      </c>
+      <c r="J38" s="4">
         <v>387000</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>387058</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>1034</v>
       </c>
-      <c r="L38" t="s">
-        <v>203</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:14">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>273</v>
+        <v>209</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -2801,36 +3492,39 @@
         <v>1039</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I39" s="4">
+        <v>2</v>
+      </c>
+      <c r="J39" s="4">
         <v>385331</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>385335</v>
       </c>
-      <c r="K39" s="1">
+      <c r="L39" s="1">
         <v>1035</v>
       </c>
-      <c r="L39" t="s">
-        <v>204</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M39" t="s">
+        <v>212</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:14">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>274</v>
+        <v>213</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2842,36 +3536,39 @@
         <v>1039</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I40" s="4">
+        <v>2</v>
+      </c>
+      <c r="J40" s="4">
         <v>391472</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>163646</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="1">
         <v>1036</v>
       </c>
-      <c r="L40" t="s">
-        <v>205</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M40" t="s">
+        <v>216</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:14">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>275</v>
+        <v>217</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -2883,118 +3580,127 @@
         <v>1039</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I41" s="4">
+        <v>2</v>
+      </c>
+      <c r="J41" s="4">
         <v>385338</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>385286</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <v>1037</v>
       </c>
-      <c r="L41" t="s">
-        <v>206</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M41" t="s">
+        <v>220</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:14">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="G42" s="1">
         <v>1039</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I42" s="4">
+        <v>3</v>
+      </c>
+      <c r="J42" s="4">
         <v>387013</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <v>387088</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <v>1038</v>
       </c>
-      <c r="L42" t="s">
-        <v>207</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M42" t="s">
+        <v>225</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="1:14">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I43" s="4">
+        <v>4</v>
+      </c>
+      <c r="J43" s="4">
         <v>387110</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>387087</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <v>1039</v>
       </c>
-      <c r="L43" t="s">
-        <v>208</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M43" t="s">
+        <v>231</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="1:14">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>253</v>
+        <v>232</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -3006,36 +3712,39 @@
         <v>1044</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I44" s="4">
+        <v>2</v>
+      </c>
+      <c r="J44" s="4">
         <v>387010</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>387086</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="1">
         <v>1040</v>
       </c>
-      <c r="L44" t="s">
-        <v>209</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M44" t="s">
+        <v>235</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="1:14">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>254</v>
+        <v>236</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -3047,36 +3756,39 @@
         <v>1045</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4">
         <v>387111</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>387005</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>1041</v>
       </c>
-      <c r="L45" t="s">
-        <v>210</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M45" t="s">
+        <v>239</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:14">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>255</v>
+        <v>240</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -3088,36 +3800,39 @@
         <v>1046</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I46" s="4">
+        <v>4</v>
+      </c>
+      <c r="J46" s="4">
         <v>387014</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>387062</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>1042</v>
       </c>
-      <c r="L46" t="s">
-        <v>211</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M46" t="s">
+        <v>243</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="1:14">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -3129,36 +3844,39 @@
         <v>1046</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I47" s="4">
+        <v>4</v>
+      </c>
+      <c r="J47" s="4">
         <v>386996</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>387056</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>1043</v>
       </c>
-      <c r="L47" t="s">
-        <v>212</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M47" t="s">
+        <v>247</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="1:14">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -3170,36 +3888,39 @@
         <v>1046</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I48" s="4">
+        <v>2</v>
+      </c>
+      <c r="J48" s="4">
         <v>387112</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <v>387084</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="1">
         <v>1044</v>
       </c>
-      <c r="L48" t="s">
-        <v>213</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M48" t="s">
+        <v>251</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="1:14">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3211,77 +3932,83 @@
         <v>1046</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
         <v>387107</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>387085</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>1045</v>
       </c>
-      <c r="L49" t="s">
-        <v>214</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M49" t="s">
+        <v>255</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="1:14">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>243</v>
+      <c r="F50" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="I50" s="4">
+        <v>4</v>
+      </c>
+      <c r="J50" s="4">
         <v>387012</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K50" s="4">
         <v>387057</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <v>1046</v>
       </c>
-      <c r="L50" t="s">
-        <v>215</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M50" t="s">
+        <v>261</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="1:14">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -3289,37 +4016,40 @@
       <c r="F51" s="1">
         <v>1046</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>184</v>
+      <c r="H51" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="I51" s="4">
+        <v>10</v>
+      </c>
+      <c r="J51" s="4">
         <v>387007</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <v>387060</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>1047</v>
       </c>
-      <c r="L51" t="s">
-        <v>216</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M51" t="s">
+        <v>266</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="1:14">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -3327,37 +4057,40 @@
       <c r="F52" s="1">
         <v>1046</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>184</v>
+      <c r="H52" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="I52" s="4">
+        <v>10</v>
+      </c>
+      <c r="J52" s="4">
         <v>387002</v>
       </c>
-      <c r="J52" s="4">
+      <c r="K52" s="4">
         <v>387059</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <v>1048</v>
       </c>
-      <c r="L52" t="s">
-        <v>217</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="M52" t="s">
+        <v>271</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" spans="1:14">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -3365,28 +4098,31 @@
       <c r="F53" s="1">
         <v>1046</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>184</v>
+      <c r="H53" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="I53" s="4">
+        <v>10</v>
+      </c>
+      <c r="J53" s="4">
         <v>387004</v>
       </c>
-      <c r="J53" s="4">
+      <c r="K53" s="4">
         <v>387061</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <v>1049</v>
       </c>
-      <c r="L53" t="s">
-        <v>218</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>229</v>
+      <c r="M53" t="s">
+        <v>276</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -719,7 +719,7 @@
     <t>1035|1036|1037|1038</t>
   </si>
   <si>
-    <t>1040|1041|1042</t>
+    <t>1040|1041|1042|1043</t>
   </si>
   <si>
     <t>TalentTree_Desc_39</t>
@@ -873,14 +873,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1364,133 +1357,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1501,16 +1494,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1826,8 +1819,8 @@
   <sheetPr/>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="288">
   <si>
     <t>int</t>
   </si>
@@ -41,6 +41,12 @@
     <t>int[][]</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -74,6 +80,15 @@
     <t>iconGray</t>
   </si>
   <si>
+    <t>iconSize</t>
+  </si>
+  <si>
+    <t>iconPos</t>
+  </si>
+  <si>
+    <t>outlineColor</t>
+  </si>
+  <si>
     <t>buffId</t>
   </si>
   <si>
@@ -116,6 +131,15 @@
     <t>未激活 icon 图标</t>
   </si>
   <si>
+    <t>icon大小</t>
+  </si>
+  <si>
+    <t>icon位置</t>
+  </si>
+  <si>
+    <t>字体描边颜色</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 天赋buff表的id</t>
   </si>
   <si>
@@ -135,6 +159,12 @@
   </si>
   <si>
     <t>1|10|20||2|10|20</t>
+  </si>
+  <si>
+    <t>12.5|-2</t>
+  </si>
+  <si>
+    <t>#63220F</t>
   </si>
   <si>
     <t>TalentTree_Desc_1</t>
@@ -1817,10 +1847,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1833,12 +1863,12 @@
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="63.375" customWidth="1"/>
     <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="12" width="16.625" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="12" max="15" width="16.625" customWidth="1"/>
+    <col min="16" max="16" width="20.5" customWidth="1"/>
+    <col min="17" max="17" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1873,101 +1903,128 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="42" customHeight="1" spans="1:14">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="42" customHeight="1" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:8">
@@ -1975,18 +2032,18 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="16.5" spans="1:14">
+    <row r="5" ht="16.5" spans="1:17">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1995,7 +2052,7 @@
         <v>1004</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I5" s="4">
         <v>2</v>
@@ -2007,27 +2064,36 @@
         <v>386997</v>
       </c>
       <c r="L5" s="1">
+        <v>48</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="1">
         <v>1001</v>
       </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:14">
+      <c r="P5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:17">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2036,7 +2102,7 @@
         <v>1004</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I6" s="4">
         <v>2</v>
@@ -2048,36 +2114,45 @@
         <v>387089</v>
       </c>
       <c r="L6" s="1">
+        <v>48</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="1">
         <v>1002</v>
       </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:14">
+      <c r="P6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:17">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I7" s="4">
         <v>3</v>
@@ -2089,39 +2164,48 @@
         <v>385893</v>
       </c>
       <c r="L7" s="1">
+        <v>48</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="1">
         <v>1003</v>
       </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:14">
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:17">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I8" s="4">
         <v>3</v>
@@ -2133,27 +2217,36 @@
         <v>387003</v>
       </c>
       <c r="L8" s="1">
+        <v>48</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="1">
         <v>1004</v>
       </c>
-      <c r="M8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:14">
+      <c r="P8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:17">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2165,7 +2258,7 @@
         <v>1010</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I9" s="4">
         <v>2</v>
@@ -2177,27 +2270,36 @@
         <v>387090</v>
       </c>
       <c r="L9" s="1">
+        <v>48</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="1">
         <v>1005</v>
       </c>
-      <c r="M9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:14">
+      <c r="P9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:17">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2209,7 +2311,7 @@
         <v>1014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I10" s="4">
         <v>5</v>
@@ -2221,27 +2323,36 @@
         <v>387055</v>
       </c>
       <c r="L10" s="1">
+        <v>48</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="1">
         <v>1006</v>
       </c>
-      <c r="M10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:14">
+      <c r="P10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:17">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2253,7 +2364,7 @@
         <v>1011</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I11" s="4">
         <v>2</v>
@@ -2265,27 +2376,36 @@
         <v>385333</v>
       </c>
       <c r="L11" s="1">
+        <v>48</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="1">
         <v>1007</v>
       </c>
-      <c r="M11" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:14">
+      <c r="P11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:17">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2297,7 +2417,7 @@
         <v>1012</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I12" s="4">
         <v>2</v>
@@ -2309,27 +2429,36 @@
         <v>385288</v>
       </c>
       <c r="L12" s="1">
+        <v>48</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="1">
         <v>1008</v>
       </c>
-      <c r="M12" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:14">
+      <c r="P12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:17">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2341,7 +2470,7 @@
         <v>1013</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I13" s="4">
         <v>2</v>
@@ -2353,27 +2482,36 @@
         <v>385284</v>
       </c>
       <c r="L13" s="1">
+        <v>48</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="1">
         <v>1009</v>
       </c>
-      <c r="M13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:14">
+      <c r="P13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:17">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2385,7 +2523,7 @@
         <v>1014</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I14" s="4">
         <v>2</v>
@@ -2397,27 +2535,36 @@
         <v>387058</v>
       </c>
       <c r="L14" s="1">
+        <v>48</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="1">
         <v>1010</v>
       </c>
-      <c r="M14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:14">
+      <c r="P14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:17">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2429,7 +2576,7 @@
         <v>1015</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I15" s="4">
         <v>2</v>
@@ -2441,27 +2588,36 @@
         <v>385335</v>
       </c>
       <c r="L15" s="1">
+        <v>48</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="1">
         <v>1011</v>
       </c>
-      <c r="M15" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:14">
+      <c r="P15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:17">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2473,7 +2629,7 @@
         <v>1015</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I16" s="4">
         <v>2</v>
@@ -2485,27 +2641,36 @@
         <v>163646</v>
       </c>
       <c r="L16" s="1">
+        <v>48</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="1">
         <v>1012</v>
       </c>
-      <c r="M16" t="s">
-        <v>96</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:14">
+      <c r="P16" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:17">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2517,7 +2682,7 @@
         <v>1015</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I17" s="4">
         <v>2</v>
@@ -2529,39 +2694,48 @@
         <v>385286</v>
       </c>
       <c r="L17" s="1">
+        <v>48</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="1">
         <v>1013</v>
       </c>
-      <c r="M17" t="s">
-        <v>101</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:14">
+      <c r="P17" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:17">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G18" s="1">
         <v>1015</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I18" s="4">
         <v>3</v>
@@ -2573,39 +2747,48 @@
         <v>387088</v>
       </c>
       <c r="L18" s="1">
+        <v>48</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="1">
         <v>1014</v>
       </c>
-      <c r="M18" t="s">
-        <v>107</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:14">
+      <c r="P18" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:17">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I19" s="4">
         <v>4</v>
@@ -2617,27 +2800,36 @@
         <v>387087</v>
       </c>
       <c r="L19" s="1">
+        <v>48</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="1">
         <v>1015</v>
       </c>
-      <c r="M19" t="s">
-        <v>115</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:14">
+      <c r="P19" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:17">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2649,7 +2841,7 @@
         <v>1020</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I20" s="4">
         <v>2</v>
@@ -2661,27 +2853,36 @@
         <v>387086</v>
       </c>
       <c r="L20" s="1">
+        <v>48</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="1">
         <v>1016</v>
       </c>
-      <c r="M20" t="s">
-        <v>120</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:14">
+      <c r="P20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:17">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2693,7 +2894,7 @@
         <v>1021</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -2705,27 +2906,36 @@
         <v>387005</v>
       </c>
       <c r="L21" s="1">
+        <v>48</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="1">
         <v>1017</v>
       </c>
-      <c r="M21" t="s">
-        <v>126</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:14">
+      <c r="P21" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:17">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2737,7 +2947,7 @@
         <v>1023</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I22" s="4">
         <v>4</v>
@@ -2749,27 +2959,36 @@
         <v>387062</v>
       </c>
       <c r="L22" s="1">
+        <v>48</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="1">
         <v>1018</v>
       </c>
-      <c r="M22" t="s">
-        <v>131</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:14">
+      <c r="P22" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:17">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2781,7 +3000,7 @@
         <v>1023</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I23" s="4">
         <v>4</v>
@@ -2793,27 +3012,36 @@
         <v>387056</v>
       </c>
       <c r="L23" s="1">
+        <v>48</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="1">
         <v>1019</v>
       </c>
-      <c r="M23" t="s">
-        <v>136</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="1:14">
+      <c r="P23" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:17">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2825,7 +3053,7 @@
         <v>1022</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I24" s="4">
         <v>2</v>
@@ -2837,27 +3065,36 @@
         <v>387084</v>
       </c>
       <c r="L24" s="1">
+        <v>48</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="1">
         <v>1020</v>
       </c>
-      <c r="M24" t="s">
-        <v>141</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:14">
+      <c r="P24" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:17">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2869,7 +3106,7 @@
         <v>1022</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
@@ -2881,39 +3118,48 @@
         <v>387085</v>
       </c>
       <c r="L25" s="1">
+        <v>48</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="1">
         <v>1021</v>
       </c>
-      <c r="M25" t="s">
-        <v>146</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="1:14">
+      <c r="P25" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:17">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G26" s="1">
         <v>1024</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I26" s="4">
         <v>3</v>
@@ -2925,39 +3171,48 @@
         <v>387057</v>
       </c>
       <c r="L26" s="1">
+        <v>48</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" s="1">
         <v>1022</v>
       </c>
-      <c r="M26" t="s">
-        <v>152</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="1:14">
+      <c r="P26" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:17">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G27" s="1">
         <v>1024</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I27" s="4">
         <v>3</v>
@@ -2969,39 +3224,48 @@
         <v>387063</v>
       </c>
       <c r="L27" s="1">
+        <v>48</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="1">
         <v>1023</v>
       </c>
-      <c r="M27" t="s">
-        <v>158</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="1:14">
+      <c r="P27" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:17">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I28" s="4">
         <v>4</v>
@@ -3013,27 +3277,36 @@
         <v>387087</v>
       </c>
       <c r="L28" s="1">
+        <v>48</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" s="1">
         <v>1024</v>
       </c>
-      <c r="M28" t="s">
-        <v>165</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="1:14">
+      <c r="P28" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:17">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -3045,7 +3318,7 @@
         <v>1028</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I29" s="4">
         <v>3</v>
@@ -3057,27 +3330,36 @@
         <v>386997</v>
       </c>
       <c r="L29" s="1">
+        <v>48</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="1">
         <v>1025</v>
       </c>
-      <c r="M29" t="s">
-        <v>169</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="1:14">
+      <c r="P29" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:17">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3089,7 +3371,7 @@
         <v>1028</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I30" s="4">
         <v>3</v>
@@ -3101,27 +3383,36 @@
         <v>387089</v>
       </c>
       <c r="L30" s="1">
+        <v>48</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" s="1">
         <v>1026</v>
       </c>
-      <c r="M30" t="s">
-        <v>173</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="1:14">
+      <c r="P30" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:17">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3130,10 +3421,10 @@
         <v>1024</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I31" s="4">
         <v>3</v>
@@ -3145,39 +3436,48 @@
         <v>385893</v>
       </c>
       <c r="L31" s="1">
+        <v>48</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" s="1">
         <v>1027</v>
       </c>
-      <c r="M31" t="s">
-        <v>178</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="1:14">
+      <c r="P31" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:17">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I32" s="4">
         <v>3</v>
@@ -3189,27 +3489,36 @@
         <v>387003</v>
       </c>
       <c r="L32" s="1">
+        <v>48</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" s="1">
         <v>1028</v>
       </c>
-      <c r="M32" t="s">
-        <v>184</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" spans="1:14">
+      <c r="P32" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:17">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3221,7 +3530,7 @@
         <v>1034</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I33" s="4">
         <v>2</v>
@@ -3233,27 +3542,36 @@
         <v>387090</v>
       </c>
       <c r="L33" s="1">
+        <v>48</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" s="1">
         <v>1029</v>
       </c>
-      <c r="M33" t="s">
-        <v>188</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="1:14">
+      <c r="P33" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:17">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3265,7 +3583,7 @@
         <v>1038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I34" s="4">
         <v>5</v>
@@ -3277,27 +3595,36 @@
         <v>387055</v>
       </c>
       <c r="L34" s="1">
+        <v>48</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="1">
         <v>1030</v>
       </c>
-      <c r="M34" t="s">
-        <v>192</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="1:14">
+      <c r="P34" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:17">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3309,7 +3636,7 @@
         <v>1035</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I35" s="4">
         <v>2</v>
@@ -3321,27 +3648,36 @@
         <v>385333</v>
       </c>
       <c r="L35" s="1">
+        <v>48</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="1">
         <v>1031</v>
       </c>
-      <c r="M35" t="s">
-        <v>196</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" spans="1:14">
+      <c r="P35" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:17">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3353,7 +3689,7 @@
         <v>1036</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I36" s="4">
         <v>2</v>
@@ -3365,27 +3701,36 @@
         <v>385288</v>
       </c>
       <c r="L36" s="1">
+        <v>48</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" s="1">
         <v>1032</v>
       </c>
-      <c r="M36" t="s">
-        <v>200</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" spans="1:14">
+      <c r="P36" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:17">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3397,7 +3742,7 @@
         <v>1037</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I37" s="4">
         <v>2</v>
@@ -3409,27 +3754,36 @@
         <v>385284</v>
       </c>
       <c r="L37" s="1">
+        <v>48</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="1">
         <v>1033</v>
       </c>
-      <c r="M37" t="s">
-        <v>204</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5" spans="1:14">
+      <c r="P37" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:17">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3441,7 +3795,7 @@
         <v>1038</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I38" s="4">
         <v>2</v>
@@ -3453,27 +3807,36 @@
         <v>387058</v>
       </c>
       <c r="L38" s="1">
+        <v>48</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O38" s="1">
         <v>1034</v>
       </c>
-      <c r="M38" t="s">
-        <v>208</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" spans="1:14">
+      <c r="P38" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:17">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3485,7 +3848,7 @@
         <v>1039</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I39" s="4">
         <v>2</v>
@@ -3497,27 +3860,36 @@
         <v>385335</v>
       </c>
       <c r="L39" s="1">
+        <v>48</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="1">
         <v>1035</v>
       </c>
-      <c r="M39" t="s">
-        <v>212</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" spans="1:14">
+      <c r="P39" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:17">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -3529,7 +3901,7 @@
         <v>1039</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I40" s="4">
         <v>2</v>
@@ -3541,27 +3913,36 @@
         <v>163646</v>
       </c>
       <c r="L40" s="1">
+        <v>48</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" s="1">
         <v>1036</v>
       </c>
-      <c r="M40" t="s">
-        <v>216</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" spans="1:14">
+      <c r="P40" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:17">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3573,7 +3954,7 @@
         <v>1039</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I41" s="4">
         <v>2</v>
@@ -3585,39 +3966,48 @@
         <v>385286</v>
       </c>
       <c r="L41" s="1">
+        <v>48</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" s="1">
         <v>1037</v>
       </c>
-      <c r="M41" t="s">
-        <v>220</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" spans="1:14">
+      <c r="P41" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:17">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="G42" s="1">
         <v>1039</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I42" s="4">
         <v>3</v>
@@ -3629,39 +4019,48 @@
         <v>387088</v>
       </c>
       <c r="L42" s="1">
+        <v>48</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" s="1">
         <v>1038</v>
       </c>
-      <c r="M42" t="s">
-        <v>225</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" spans="1:14">
+      <c r="P42" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="1:17">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I43" s="4">
         <v>4</v>
@@ -3673,27 +4072,36 @@
         <v>387087</v>
       </c>
       <c r="L43" s="1">
+        <v>48</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O43" s="1">
         <v>1039</v>
       </c>
-      <c r="M43" t="s">
-        <v>231</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" spans="1:14">
+      <c r="P43" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="1:17">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -3705,7 +4113,7 @@
         <v>1044</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I44" s="4">
         <v>2</v>
@@ -3717,27 +4125,36 @@
         <v>387086</v>
       </c>
       <c r="L44" s="1">
+        <v>48</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44" s="1">
         <v>1040</v>
       </c>
-      <c r="M44" t="s">
-        <v>235</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" spans="1:14">
+      <c r="P44" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="1:17">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -3749,7 +4166,7 @@
         <v>1045</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I45" s="4">
         <v>1</v>
@@ -3761,27 +4178,36 @@
         <v>387005</v>
       </c>
       <c r="L45" s="1">
+        <v>48</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O45" s="1">
         <v>1041</v>
       </c>
-      <c r="M45" t="s">
-        <v>239</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" spans="1:14">
+      <c r="P45" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:17">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -3793,7 +4219,7 @@
         <v>1046</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I46" s="4">
         <v>4</v>
@@ -3805,27 +4231,36 @@
         <v>387062</v>
       </c>
       <c r="L46" s="1">
+        <v>48</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" s="1">
         <v>1042</v>
       </c>
-      <c r="M46" t="s">
-        <v>243</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" spans="1:14">
+      <c r="P46" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="1:17">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -3837,7 +4272,7 @@
         <v>1046</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I47" s="4">
         <v>4</v>
@@ -3849,27 +4284,36 @@
         <v>387056</v>
       </c>
       <c r="L47" s="1">
+        <v>48</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O47" s="1">
         <v>1043</v>
       </c>
-      <c r="M47" t="s">
-        <v>247</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" spans="1:14">
+      <c r="P47" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="1:17">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -3881,7 +4325,7 @@
         <v>1046</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I48" s="4">
         <v>2</v>
@@ -3893,27 +4337,36 @@
         <v>387084</v>
       </c>
       <c r="L48" s="1">
+        <v>48</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O48" s="1">
         <v>1044</v>
       </c>
-      <c r="M48" t="s">
-        <v>251</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" spans="1:14">
+      <c r="P48" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="1:17">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="B49" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3925,7 +4378,7 @@
         <v>1046</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I49" s="4">
         <v>1</v>
@@ -3937,39 +4390,48 @@
         <v>387085</v>
       </c>
       <c r="L49" s="1">
+        <v>48</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O49" s="1">
         <v>1045</v>
       </c>
-      <c r="M49" t="s">
-        <v>255</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" spans="1:14">
+      <c r="P49" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="1:17">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
       <c r="B50" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I50" s="4">
         <v>4</v>
@@ -3981,27 +4443,36 @@
         <v>387057</v>
       </c>
       <c r="L50" s="1">
+        <v>48</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O50" s="1">
         <v>1046</v>
       </c>
-      <c r="M50" t="s">
-        <v>261</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" spans="1:14">
+      <c r="P50" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="1:17">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -4010,7 +4481,7 @@
         <v>1046</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="I51" s="4">
         <v>10</v>
@@ -4022,27 +4493,36 @@
         <v>387060</v>
       </c>
       <c r="L51" s="1">
+        <v>48</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O51" s="1">
         <v>1047</v>
       </c>
-      <c r="M51" t="s">
-        <v>266</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" spans="1:14">
+      <c r="P51" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="1:17">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -4051,7 +4531,7 @@
         <v>1046</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="I52" s="4">
         <v>10</v>
@@ -4063,27 +4543,36 @@
         <v>387059</v>
       </c>
       <c r="L52" s="1">
+        <v>48</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O52" s="1">
         <v>1048</v>
       </c>
-      <c r="M52" t="s">
-        <v>271</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" spans="1:14">
+      <c r="P52" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" spans="1:17">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -4092,7 +4581,7 @@
         <v>1046</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="I53" s="4">
         <v>10</v>
@@ -4104,13 +4593,22 @@
         <v>387061</v>
       </c>
       <c r="L53" s="1">
+        <v>48</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O53" s="1">
         <v>1049</v>
       </c>
-      <c r="M53" t="s">
-        <v>276</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>277</v>
+      <c r="P53" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A579A945-D75F-40DD-94DE-BDEC93B08346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="289">
   <si>
     <t>int</t>
   </si>
@@ -164,9 +168,6 @@
     <t>12.5|-2</t>
   </si>
   <si>
-    <t>#63220F</t>
-  </si>
-  <si>
     <t>TalentTree_Desc_1</t>
   </si>
   <si>
@@ -891,19 +892,21 @@
   </si>
   <si>
     <t>在无尽模式下，基地耐久提高{0}</t>
+  </si>
+  <si>
+    <t>4.5|4.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,345 +926,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1269,265 +956,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1536,62 +975,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1841,19 +1239,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -1868,7 +1266,7 @@
     <col min="17" max="17" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1952,7 +1350,7 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
       </c>
       <c r="L2" t="s">
@@ -1974,8 +1372,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="42" customHeight="1" spans="1:17">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
@@ -1993,10 +1391,10 @@
       <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
       <c r="I3" t="s">
@@ -2005,7 +1403,7 @@
       <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>33</v>
       </c>
       <c r="L3" t="s">
@@ -2027,12 +1425,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:17">
+    <row r="4" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -2054,13 +1448,13 @@
       <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>387109</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <v>386997</v>
       </c>
       <c r="L5" s="1">
@@ -2069,31 +1463,31 @@
       <c r="M5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>45</v>
+      <c r="N5" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O5" s="1">
         <v>1001</v>
       </c>
       <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:17">
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2104,13 +1498,13 @@
       <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>386998</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <v>387089</v>
       </c>
       <c r="L6" s="1">
@@ -2119,48 +1513,48 @@
       <c r="M6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>45</v>
+      <c r="N6" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O6" s="1">
         <v>1002</v>
       </c>
       <c r="P6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:17">
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>387015</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <v>385893</v>
       </c>
       <c r="L7" s="1">
@@ -2169,51 +1563,51 @@
       <c r="M7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>45</v>
+      <c r="N7" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O7" s="1">
         <v>1003</v>
       </c>
       <c r="P7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:17">
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="4">
+        <v>56</v>
+      </c>
+      <c r="I8" s="2">
         <v>3</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>387108</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <v>387003</v>
       </c>
       <c r="L8" s="1">
@@ -2222,31 +1616,31 @@
       <c r="M8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>45</v>
+      <c r="N8" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O8" s="1">
         <v>1004</v>
       </c>
       <c r="P8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:17">
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2260,13 +1654,13 @@
       <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>387011</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <v>387090</v>
       </c>
       <c r="L9" s="1">
@@ -2275,31 +1669,31 @@
       <c r="M9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>45</v>
+      <c r="N9" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O9" s="1">
         <v>1005</v>
       </c>
       <c r="P9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:17">
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2311,15 +1705,15 @@
         <v>1014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="4">
+        <v>74</v>
+      </c>
+      <c r="I10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>387006</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <v>387055</v>
       </c>
       <c r="L10" s="1">
@@ -2328,31 +1722,31 @@
       <c r="M10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>45</v>
+      <c r="N10" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O10" s="1">
         <v>1006</v>
       </c>
       <c r="P10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:17">
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2366,13 +1760,13 @@
       <c r="H11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <v>385317</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>385333</v>
       </c>
       <c r="L11" s="1">
@@ -2381,31 +1775,31 @@
       <c r="M11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>45</v>
+      <c r="N11" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O11" s="1">
         <v>1007</v>
       </c>
       <c r="P11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:17">
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2419,13 +1813,13 @@
       <c r="H12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <v>2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <v>385384</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <v>385288</v>
       </c>
       <c r="L12" s="1">
@@ -2434,31 +1828,31 @@
       <c r="M12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>45</v>
+      <c r="N12" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O12" s="1">
         <v>1008</v>
       </c>
       <c r="P12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:17">
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2472,13 +1866,13 @@
       <c r="H13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>385337</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <v>385284</v>
       </c>
       <c r="L13" s="1">
@@ -2487,31 +1881,31 @@
       <c r="M13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>45</v>
+      <c r="N13" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O13" s="1">
         <v>1009</v>
       </c>
       <c r="P13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:17">
+    </row>
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2525,13 +1919,13 @@
       <c r="H14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="2">
         <v>387000</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <v>387058</v>
       </c>
       <c r="L14" s="1">
@@ -2540,31 +1934,31 @@
       <c r="M14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>45</v>
+      <c r="N14" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O14" s="1">
         <v>1010</v>
       </c>
       <c r="P14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:17">
+    </row>
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2578,13 +1972,13 @@
       <c r="H15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <v>2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <v>385331</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <v>385335</v>
       </c>
       <c r="L15" s="1">
@@ -2593,31 +1987,31 @@
       <c r="M15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>45</v>
+      <c r="N15" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O15" s="1">
         <v>1011</v>
       </c>
       <c r="P15" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:17">
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2631,14 +2025,14 @@
       <c r="H16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <v>391472</v>
       </c>
-      <c r="K16" s="4">
-        <v>163646</v>
+      <c r="K16" s="2">
+        <v>385290</v>
       </c>
       <c r="L16" s="1">
         <v>48</v>
@@ -2646,31 +2040,31 @@
       <c r="M16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>45</v>
+      <c r="N16" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O16" s="1">
         <v>1012</v>
       </c>
       <c r="P16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Q16" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:17">
+    </row>
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2684,13 +2078,13 @@
       <c r="H17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="2">
         <v>385338</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="2">
         <v>385286</v>
       </c>
       <c r="L17" s="1">
@@ -2699,51 +2093,51 @@
       <c r="M17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>45</v>
+      <c r="N17" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O17" s="1">
         <v>1013</v>
       </c>
       <c r="P17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q17" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:17">
+    </row>
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
       <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="G18" s="1">
         <v>1015</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="4">
+        <v>56</v>
+      </c>
+      <c r="I18" s="2">
         <v>3</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="2">
         <v>387013</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="2">
         <v>387088</v>
       </c>
       <c r="L18" s="1">
@@ -2752,51 +2146,51 @@
       <c r="M18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>45</v>
+      <c r="N18" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O18" s="1">
         <v>1014</v>
       </c>
       <c r="P18" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Q18" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:17">
+    </row>
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="2">
         <v>387110</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="2">
         <v>387087</v>
       </c>
       <c r="L19" s="1">
@@ -2805,31 +2199,31 @@
       <c r="M19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>45</v>
+      <c r="N19" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O19" s="1">
         <v>1015</v>
       </c>
       <c r="P19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q19" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:17">
+    </row>
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
       <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2843,13 +2237,13 @@
       <c r="H20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <v>2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <v>387010</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="2">
         <v>387086</v>
       </c>
       <c r="L20" s="1">
@@ -2858,31 +2252,31 @@
       <c r="M20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>45</v>
+      <c r="N20" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O20" s="1">
         <v>1016</v>
       </c>
       <c r="P20" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:17">
+    </row>
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
       <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2894,15 +2288,15 @@
         <v>1021</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1</v>
-      </c>
-      <c r="J21" s="4">
+        <v>134</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
         <v>387111</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="2">
         <v>387005</v>
       </c>
       <c r="L21" s="1">
@@ -2911,31 +2305,31 @@
       <c r="M21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>45</v>
+      <c r="N21" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O21" s="1">
         <v>1017</v>
       </c>
       <c r="P21" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:17">
+    </row>
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
       <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2947,15 +2341,15 @@
         <v>1023</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" s="4">
+        <v>123</v>
+      </c>
+      <c r="I22" s="2">
         <v>4</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="2">
         <v>387014</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="2">
         <v>387062</v>
       </c>
       <c r="L22" s="1">
@@ -2964,31 +2358,31 @@
       <c r="M22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>45</v>
+      <c r="N22" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O22" s="1">
         <v>1018</v>
       </c>
       <c r="P22" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:17">
+    </row>
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
       <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -3000,15 +2394,15 @@
         <v>1023</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="4">
+        <v>123</v>
+      </c>
+      <c r="I23" s="2">
         <v>4</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <v>386996</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="2">
         <v>387056</v>
       </c>
       <c r="L23" s="1">
@@ -3017,31 +2411,31 @@
       <c r="M23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>45</v>
+      <c r="N23" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O23" s="1">
         <v>1019</v>
       </c>
       <c r="P23" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="1:17">
+    </row>
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
       <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -3055,13 +2449,13 @@
       <c r="H24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <v>2</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="2">
         <v>387112</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="2">
         <v>387084</v>
       </c>
       <c r="L24" s="1">
@@ -3070,31 +2464,31 @@
       <c r="M24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>45</v>
+      <c r="N24" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O24" s="1">
         <v>1020</v>
       </c>
       <c r="P24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:17">
+    </row>
+    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
       <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -3106,15 +2500,15 @@
         <v>1022</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="4">
-        <v>1</v>
-      </c>
-      <c r="J25" s="4">
+        <v>134</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
         <v>387107</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="2">
         <v>387085</v>
       </c>
       <c r="L25" s="1">
@@ -3123,51 +2517,51 @@
       <c r="M25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>45</v>
+      <c r="N25" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O25" s="1">
         <v>1021</v>
       </c>
       <c r="P25" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="1:17">
+    </row>
+    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
       <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="G26" s="1">
         <v>1024</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="4">
+        <v>56</v>
+      </c>
+      <c r="I26" s="2">
         <v>3</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="2">
         <v>387012</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="2">
         <v>387057</v>
       </c>
       <c r="L26" s="1">
@@ -3176,51 +2570,51 @@
       <c r="M26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>45</v>
+      <c r="N26" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O26" s="1">
         <v>1022</v>
       </c>
       <c r="P26" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="1:17">
+    </row>
+    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
       <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="G27" s="1">
         <v>1024</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="4">
+        <v>56</v>
+      </c>
+      <c r="I27" s="2">
         <v>3</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="2">
         <v>386999</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="2">
         <v>387063</v>
       </c>
       <c r="L27" s="1">
@@ -3229,51 +2623,51 @@
       <c r="M27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>45</v>
+      <c r="N27" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O27" s="1">
         <v>1023</v>
       </c>
       <c r="P27" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="1:17">
+    </row>
+    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
       <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="4">
+        <v>123</v>
+      </c>
+      <c r="I28" s="2">
         <v>4</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="2">
         <v>387110</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="2">
         <v>387087</v>
       </c>
       <c r="L28" s="1">
@@ -3282,31 +2676,31 @@
       <c r="M28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>45</v>
+      <c r="N28" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O28" s="1">
         <v>1024</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="1:17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
       <c r="B29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -3318,15 +2712,15 @@
         <v>1028</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="4">
+        <v>56</v>
+      </c>
+      <c r="I29" s="2">
         <v>3</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="2">
         <v>387109</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="2">
         <v>386997</v>
       </c>
       <c r="L29" s="1">
@@ -3335,31 +2729,31 @@
       <c r="M29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>45</v>
+      <c r="N29" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O29" s="1">
         <v>1025</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="1:17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
       <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3371,15 +2765,15 @@
         <v>1028</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="4">
+        <v>56</v>
+      </c>
+      <c r="I30" s="2">
         <v>3</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="2">
         <v>386998</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="2">
         <v>387089</v>
       </c>
       <c r="L30" s="1">
@@ -3388,31 +2782,31 @@
       <c r="M30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>45</v>
+      <c r="N30" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O30" s="1">
         <v>1026</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="1:17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
       <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3420,19 +2814,19 @@
       <c r="F31" s="1">
         <v>1024</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>187</v>
+      <c r="G31" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="4">
+        <v>56</v>
+      </c>
+      <c r="I31" s="2">
         <v>3</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="2">
         <v>387015</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="2">
         <v>385893</v>
       </c>
       <c r="L31" s="1">
@@ -3441,51 +2835,51 @@
       <c r="M31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>45</v>
+      <c r="N31" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O31" s="1">
         <v>1027</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="1:17">
+        <v>187</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
       <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="4">
+        <v>56</v>
+      </c>
+      <c r="I32" s="2">
         <v>3</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="2">
         <v>387108</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="2">
         <v>387003</v>
       </c>
       <c r="L32" s="1">
@@ -3494,31 +2888,31 @@
       <c r="M32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>45</v>
+      <c r="N32" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O32" s="1">
         <v>1028</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" spans="1:17">
+        <v>193</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
       <c r="B33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3532,13 +2926,13 @@
       <c r="H33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="2">
         <v>2</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="2">
         <v>387011</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="2">
         <v>387090</v>
       </c>
       <c r="L33" s="1">
@@ -3547,31 +2941,31 @@
       <c r="M33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>45</v>
+      <c r="N33" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O33" s="1">
         <v>1029</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="1:17">
+        <v>197</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
       <c r="B34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3583,15 +2977,15 @@
         <v>1038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="4">
+        <v>74</v>
+      </c>
+      <c r="I34" s="2">
         <v>5</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="2">
         <v>387006</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="2">
         <v>387055</v>
       </c>
       <c r="L34" s="1">
@@ -3600,31 +2994,31 @@
       <c r="M34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>45</v>
+      <c r="N34" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O34" s="1">
         <v>1030</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" ht="16.5" spans="1:17">
+        <v>201</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
       <c r="B35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3638,13 +3032,13 @@
       <c r="H35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="2">
         <v>2</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="2">
         <v>385317</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="2">
         <v>385333</v>
       </c>
       <c r="L35" s="1">
@@ -3653,31 +3047,31 @@
       <c r="M35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>45</v>
+      <c r="N35" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O35" s="1">
         <v>1031</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" ht="16.5" spans="1:17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
       <c r="B36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3691,13 +3085,13 @@
       <c r="H36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="2">
         <v>2</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="2">
         <v>385384</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="2">
         <v>385288</v>
       </c>
       <c r="L36" s="1">
@@ -3706,31 +3100,31 @@
       <c r="M36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>45</v>
+      <c r="N36" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O36" s="1">
         <v>1032</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" ht="16.5" spans="1:17">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
       <c r="B37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3744,13 +3138,13 @@
       <c r="H37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="2">
         <v>2</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="2">
         <v>385337</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="2">
         <v>385284</v>
       </c>
       <c r="L37" s="1">
@@ -3759,31 +3153,31 @@
       <c r="M37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>45</v>
+      <c r="N37" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O37" s="1">
         <v>1033</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5" spans="1:17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
       <c r="B38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3797,13 +3191,13 @@
       <c r="H38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="2">
         <v>2</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="2">
         <v>387000</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="2">
         <v>387058</v>
       </c>
       <c r="L38" s="1">
@@ -3812,31 +3206,31 @@
       <c r="M38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>45</v>
+      <c r="N38" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O38" s="1">
         <v>1034</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" spans="1:17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
       <c r="B39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3850,13 +3244,13 @@
       <c r="H39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="2">
         <v>2</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="2">
         <v>385331</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="2">
         <v>385335</v>
       </c>
       <c r="L39" s="1">
@@ -3865,31 +3259,31 @@
       <c r="M39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>45</v>
+      <c r="N39" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O39" s="1">
         <v>1035</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" spans="1:17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
       <c r="B40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -3903,14 +3297,14 @@
       <c r="H40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="2">
         <v>2</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="2">
         <v>391472</v>
       </c>
-      <c r="K40" s="4">
-        <v>163646</v>
+      <c r="K40" s="2">
+        <v>385290</v>
       </c>
       <c r="L40" s="1">
         <v>48</v>
@@ -3918,31 +3312,31 @@
       <c r="M40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>45</v>
+      <c r="N40" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O40" s="1">
         <v>1036</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" spans="1:17">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="B41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3956,13 +3350,13 @@
       <c r="H41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="2">
         <v>2</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="2">
         <v>385338</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="2">
         <v>385286</v>
       </c>
       <c r="L41" s="1">
@@ -3971,51 +3365,51 @@
       <c r="M41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>45</v>
+      <c r="N41" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O41" s="1">
         <v>1037</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" spans="1:17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="B42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="G42" s="1">
         <v>1039</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I42" s="4">
+        <v>56</v>
+      </c>
+      <c r="I42" s="2">
         <v>3</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="2">
         <v>387013</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="2">
         <v>387088</v>
       </c>
       <c r="L42" s="1">
@@ -4024,51 +3418,51 @@
       <c r="M42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>45</v>
+      <c r="N42" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O42" s="1">
         <v>1038</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" spans="1:17">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
       <c r="B43" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I43" s="4">
+        <v>123</v>
+      </c>
+      <c r="I43" s="2">
         <v>4</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="2">
         <v>387110</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="2">
         <v>387087</v>
       </c>
       <c r="L43" s="1">
@@ -4077,31 +3471,31 @@
       <c r="M43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>45</v>
+      <c r="N43" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O43" s="1">
         <v>1039</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" spans="1:17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
       <c r="B44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -4115,13 +3509,13 @@
       <c r="H44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="2">
         <v>2</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="2">
         <v>387010</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="2">
         <v>387086</v>
       </c>
       <c r="L44" s="1">
@@ -4130,31 +3524,31 @@
       <c r="M44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>45</v>
+      <c r="N44" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O44" s="1">
         <v>1040</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" spans="1:17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
       <c r="B45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -4166,15 +3560,15 @@
         <v>1045</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I45" s="4">
-        <v>1</v>
-      </c>
-      <c r="J45" s="4">
+        <v>134</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
         <v>387111</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="2">
         <v>387005</v>
       </c>
       <c r="L45" s="1">
@@ -4183,31 +3577,31 @@
       <c r="M45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>45</v>
+      <c r="N45" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O45" s="1">
         <v>1041</v>
       </c>
       <c r="P45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" spans="1:17">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
       <c r="B46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -4219,15 +3613,15 @@
         <v>1046</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I46" s="4">
+        <v>123</v>
+      </c>
+      <c r="I46" s="2">
         <v>4</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="2">
         <v>387014</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="2">
         <v>387062</v>
       </c>
       <c r="L46" s="1">
@@ -4236,31 +3630,31 @@
       <c r="M46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>45</v>
+      <c r="N46" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O46" s="1">
         <v>1042</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" spans="1:17">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
       <c r="B47" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -4272,15 +3666,15 @@
         <v>1046</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I47" s="4">
+        <v>123</v>
+      </c>
+      <c r="I47" s="2">
         <v>4</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="2">
         <v>386996</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="2">
         <v>387056</v>
       </c>
       <c r="L47" s="1">
@@ -4289,31 +3683,31 @@
       <c r="M47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>45</v>
+      <c r="N47" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O47" s="1">
         <v>1043</v>
       </c>
       <c r="P47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" spans="1:17">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
       <c r="B48" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -4327,13 +3721,13 @@
       <c r="H48" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="2">
         <v>2</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="2">
         <v>387112</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="2">
         <v>387084</v>
       </c>
       <c r="L48" s="1">
@@ -4342,31 +3736,31 @@
       <c r="M48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>45</v>
+      <c r="N48" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O48" s="1">
         <v>1044</v>
       </c>
       <c r="P48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" spans="1:17">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="B49" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -4378,15 +3772,15 @@
         <v>1046</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4">
+        <v>134</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
         <v>387107</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="2">
         <v>387085</v>
       </c>
       <c r="L49" s="1">
@@ -4395,51 +3789,51 @@
       <c r="M49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>45</v>
+      <c r="N49" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O49" s="1">
         <v>1045</v>
       </c>
       <c r="P49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" spans="1:17">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
       <c r="B50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I50" s="4">
+        <v>123</v>
+      </c>
+      <c r="I50" s="2">
         <v>4</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="2">
         <v>387012</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="2">
         <v>387057</v>
       </c>
       <c r="L50" s="1">
@@ -4448,31 +3842,31 @@
       <c r="M50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>45</v>
+      <c r="N50" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O50" s="1">
         <v>1046</v>
       </c>
       <c r="P50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" spans="1:17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
       <c r="B51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -4480,49 +3874,49 @@
       <c r="F51" s="1">
         <v>1046</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="I51" s="4">
+      <c r="H51" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I51" s="2">
         <v>10</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="2">
         <v>387007</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="2">
         <v>387060</v>
       </c>
       <c r="L51" s="1">
-        <v>48</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O51" s="1">
         <v>1047</v>
       </c>
       <c r="P51" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q51" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Q51" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" spans="1:17">
+    </row>
+    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -4530,49 +3924,49 @@
       <c r="F52" s="1">
         <v>1046</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="I52" s="4">
+      <c r="H52" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I52" s="2">
         <v>10</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="2">
         <v>387002</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="2">
         <v>387059</v>
       </c>
       <c r="L52" s="1">
-        <v>48</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O52" s="1">
         <v>1048</v>
       </c>
       <c r="P52" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q52" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="Q52" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" spans="1:17">
+    </row>
+    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -4580,40 +3974,40 @@
       <c r="F53" s="1">
         <v>1046</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="I53" s="4">
+      <c r="H53" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I53" s="2">
         <v>10</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="2">
         <v>387004</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="2">
         <v>387061</v>
       </c>
       <c r="L53" s="1">
-        <v>48</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="O53" s="1">
         <v>1049</v>
       </c>
       <c r="P53" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q53" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="Q53" s="1" t="s">
-        <v>287</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A579A945-D75F-40DD-94DE-BDEC93B08346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="291">
   <si>
     <t>int</t>
   </si>
@@ -102,6 +98,9 @@
     <t>descCN</t>
   </si>
   <si>
+    <t>unlockLevel</t>
+  </si>
+  <si>
     <t>TalentTreeid</t>
   </si>
   <si>
@@ -153,6 +152,9 @@
     <t>描述备注</t>
   </si>
   <si>
+    <t>解锁当前天赋的玩家等级</t>
+  </si>
+  <si>
     <t>TalentTree_Name_1</t>
   </si>
   <si>
@@ -168,6 +170,9 @@
     <t>12.5|-2</t>
   </si>
   <si>
+    <t>#000000</t>
+  </si>
+  <si>
     <t>TalentTree_Desc_1</t>
   </si>
   <si>
@@ -858,6 +863,9 @@
     <t>1|100||2|100</t>
   </si>
   <si>
+    <t>4.5|4.5</t>
+  </si>
+  <si>
     <t>TalentTree_Desc_47</t>
   </si>
   <si>
@@ -892,21 +900,19 @@
   </si>
   <si>
     <t>在无尽模式下，基地耐久提高{0}</t>
-  </si>
-  <si>
-    <t>4.5|4.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#000000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,35 +926,358 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -956,9 +1285,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,21 +1546,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1239,19 +1854,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -1266,7 +1881,7 @@
     <col min="17" max="17" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1318,8 +1933,11 @@
       <c r="Q1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1371,73 +1989,79 @@
       <c r="Q2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="42" customHeight="1" spans="1:18">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" ht="42" customHeight="1"/>
+    <row r="5" ht="16.5" spans="1:18">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1446,7 +2070,7 @@
         <v>1004</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2">
         <v>2</v>
@@ -1461,33 +2085,36 @@
         <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O5" s="1">
         <v>1001</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:18">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1496,7 +2123,7 @@
         <v>1004</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
@@ -1511,42 +2138,45 @@
         <v>48</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O6" s="1">
         <v>1002</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:18">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
@@ -1561,45 +2191,48 @@
         <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O7" s="1">
         <v>1003</v>
       </c>
       <c r="P7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:18">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -1614,33 +2247,36 @@
         <v>48</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O8" s="1">
         <v>1004</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:18">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1652,7 +2288,7 @@
         <v>1010</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -1667,33 +2303,36 @@
         <v>48</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O9" s="1">
         <v>1005</v>
       </c>
       <c r="P9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:18">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1705,7 +2344,7 @@
         <v>1014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I10" s="2">
         <v>5</v>
@@ -1720,33 +2359,36 @@
         <v>48</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O10" s="1">
         <v>1006</v>
       </c>
       <c r="P10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:18">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1758,7 +2400,7 @@
         <v>1011</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I11" s="2">
         <v>2</v>
@@ -1773,33 +2415,36 @@
         <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O11" s="1">
         <v>1007</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:18">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1811,7 +2456,7 @@
         <v>1012</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2">
         <v>2</v>
@@ -1826,33 +2471,36 @@
         <v>48</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O12" s="1">
         <v>1008</v>
       </c>
       <c r="P12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:18">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1864,7 +2512,7 @@
         <v>1013</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
@@ -1879,33 +2527,36 @@
         <v>48</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O13" s="1">
         <v>1009</v>
       </c>
       <c r="P13" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:18">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1917,7 +2568,7 @@
         <v>1014</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2">
         <v>2</v>
@@ -1932,33 +2583,36 @@
         <v>48</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O14" s="1">
         <v>1010</v>
       </c>
       <c r="P14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:18">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1970,7 +2624,7 @@
         <v>1015</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2">
         <v>2</v>
@@ -1985,33 +2639,36 @@
         <v>48</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O15" s="1">
         <v>1011</v>
       </c>
       <c r="P15" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:18">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2023,7 +2680,7 @@
         <v>1015</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I16" s="2">
         <v>2</v>
@@ -2038,33 +2695,36 @@
         <v>48</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O16" s="1">
         <v>1012</v>
       </c>
       <c r="P16" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:18">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2076,7 +2736,7 @@
         <v>1015</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I17" s="2">
         <v>2</v>
@@ -2091,45 +2751,48 @@
         <v>48</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O17" s="1">
         <v>1013</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:18">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G18" s="1">
         <v>1015</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I18" s="2">
         <v>3</v>
@@ -2144,45 +2807,48 @@
         <v>48</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O18" s="1">
         <v>1014</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:18">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I19" s="2">
         <v>4</v>
@@ -2197,33 +2863,36 @@
         <v>48</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O19" s="1">
         <v>1015</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:18">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2235,7 +2904,7 @@
         <v>1020</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2">
         <v>2</v>
@@ -2250,33 +2919,36 @@
         <v>48</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O20" s="1">
         <v>1016</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:18">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2288,7 +2960,7 @@
         <v>1021</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2303,33 +2975,36 @@
         <v>48</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O21" s="1">
         <v>1017</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:18">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2341,7 +3016,7 @@
         <v>1023</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I22" s="2">
         <v>4</v>
@@ -2356,33 +3031,36 @@
         <v>48</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O22" s="1">
         <v>1018</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:18">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2394,7 +3072,7 @@
         <v>1023</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I23" s="2">
         <v>4</v>
@@ -2409,33 +3087,36 @@
         <v>48</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O23" s="1">
         <v>1019</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:18">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2447,7 +3128,7 @@
         <v>1022</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I24" s="2">
         <v>2</v>
@@ -2462,33 +3143,36 @@
         <v>48</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O24" s="1">
         <v>1020</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:18">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2500,7 +3184,7 @@
         <v>1022</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -2515,45 +3199,48 @@
         <v>48</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O25" s="1">
         <v>1021</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:18">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G26" s="1">
         <v>1024</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I26" s="2">
         <v>3</v>
@@ -2568,45 +3255,48 @@
         <v>48</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O26" s="1">
         <v>1022</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:18">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G27" s="1">
         <v>1024</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I27" s="2">
         <v>3</v>
@@ -2621,45 +3311,48 @@
         <v>48</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O27" s="1">
         <v>1023</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:18">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I28" s="2">
         <v>4</v>
@@ -2674,33 +3367,36 @@
         <v>48</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O28" s="1">
         <v>1024</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:18">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2712,7 +3408,7 @@
         <v>1028</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I29" s="2">
         <v>3</v>
@@ -2727,33 +3423,36 @@
         <v>48</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O29" s="1">
         <v>1025</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:18">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2765,7 +3464,7 @@
         <v>1028</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I30" s="2">
         <v>3</v>
@@ -2780,33 +3479,36 @@
         <v>48</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O30" s="1">
         <v>1026</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:18">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2815,10 +3517,10 @@
         <v>1024</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I31" s="2">
         <v>3</v>
@@ -2833,45 +3535,48 @@
         <v>48</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O31" s="1">
         <v>1027</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:18">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I32" s="2">
         <v>3</v>
@@ -2886,33 +3591,36 @@
         <v>48</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O32" s="1">
         <v>1028</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:18">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2924,7 +3632,7 @@
         <v>1034</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I33" s="2">
         <v>2</v>
@@ -2939,33 +3647,36 @@
         <v>48</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O33" s="1">
         <v>1029</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:18">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2977,7 +3688,7 @@
         <v>1038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I34" s="2">
         <v>5</v>
@@ -2992,33 +3703,36 @@
         <v>48</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O34" s="1">
         <v>1030</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:18">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3030,7 +3744,7 @@
         <v>1035</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I35" s="2">
         <v>2</v>
@@ -3045,33 +3759,36 @@
         <v>48</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O35" s="1">
         <v>1031</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:18">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3083,7 +3800,7 @@
         <v>1036</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I36" s="2">
         <v>2</v>
@@ -3098,33 +3815,36 @@
         <v>48</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O36" s="1">
         <v>1032</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:18">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3136,7 +3856,7 @@
         <v>1037</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I37" s="2">
         <v>2</v>
@@ -3151,33 +3871,36 @@
         <v>48</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O37" s="1">
         <v>1033</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:18">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3189,7 +3912,7 @@
         <v>1038</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I38" s="2">
         <v>2</v>
@@ -3204,33 +3927,36 @@
         <v>48</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O38" s="1">
         <v>1034</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:18">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3242,7 +3968,7 @@
         <v>1039</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I39" s="2">
         <v>2</v>
@@ -3257,33 +3983,36 @@
         <v>48</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O39" s="1">
         <v>1035</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:18">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -3295,7 +4024,7 @@
         <v>1039</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I40" s="2">
         <v>2</v>
@@ -3310,33 +4039,36 @@
         <v>48</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O40" s="1">
         <v>1036</v>
       </c>
       <c r="P40" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:18">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3348,7 +4080,7 @@
         <v>1039</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I41" s="2">
         <v>2</v>
@@ -3363,45 +4095,48 @@
         <v>48</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O41" s="1">
         <v>1037</v>
       </c>
       <c r="P41" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:18">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="B42" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G42" s="1">
         <v>1039</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I42" s="2">
         <v>3</v>
@@ -3416,45 +4151,48 @@
         <v>48</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O42" s="1">
         <v>1038</v>
       </c>
       <c r="P42" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="1:18">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I43" s="2">
         <v>4</v>
@@ -3469,33 +4207,36 @@
         <v>48</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O43" s="1">
         <v>1039</v>
       </c>
       <c r="P43" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="1:18">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -3507,7 +4248,7 @@
         <v>1044</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I44" s="2">
         <v>2</v>
@@ -3522,33 +4263,36 @@
         <v>48</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O44" s="1">
         <v>1040</v>
       </c>
       <c r="P44" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="1:18">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -3560,7 +4304,7 @@
         <v>1045</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
@@ -3575,33 +4319,36 @@
         <v>48</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O45" s="1">
         <v>1041</v>
       </c>
       <c r="P45" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:18">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -3613,7 +4360,7 @@
         <v>1046</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I46" s="2">
         <v>4</v>
@@ -3628,33 +4375,36 @@
         <v>48</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O46" s="1">
         <v>1042</v>
       </c>
       <c r="P46" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="1:18">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -3666,7 +4416,7 @@
         <v>1046</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I47" s="2">
         <v>4</v>
@@ -3681,33 +4431,36 @@
         <v>48</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O47" s="1">
         <v>1043</v>
       </c>
       <c r="P47" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="1:18">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -3719,7 +4472,7 @@
         <v>1046</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I48" s="2">
         <v>2</v>
@@ -3734,33 +4487,36 @@
         <v>48</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O48" s="1">
         <v>1044</v>
       </c>
       <c r="P48" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="1:18">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="B49" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3772,7 +4528,7 @@
         <v>1046</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
@@ -3787,45 +4543,48 @@
         <v>48</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O49" s="1">
         <v>1045</v>
       </c>
       <c r="P49" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="1:18">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
       <c r="B50" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I50" s="2">
         <v>4</v>
@@ -3840,33 +4599,36 @@
         <v>48</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O50" s="1">
         <v>1046</v>
       </c>
       <c r="P50" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="1:18">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -3875,7 +4637,7 @@
         <v>1046</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I51" s="2">
         <v>10</v>
@@ -3889,34 +4651,37 @@
       <c r="L51" s="1">
         <v>72</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>288</v>
+      <c r="M51" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O51" s="1">
         <v>1047</v>
       </c>
       <c r="P51" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="1:18">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -3925,7 +4690,7 @@
         <v>1046</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I52" s="2">
         <v>10</v>
@@ -3939,34 +4704,37 @@
       <c r="L52" s="1">
         <v>72</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>288</v>
+      <c r="M52" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O52" s="1">
         <v>1048</v>
       </c>
       <c r="P52" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" spans="1:18">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -3975,7 +4743,7 @@
         <v>1046</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I53" s="2">
         <v>10</v>
@@ -3989,25 +4757,28 @@
       <c r="L53" s="1">
         <v>72</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>288</v>
+      <c r="M53" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="O53" s="1">
         <v>1049</v>
       </c>
       <c r="P53" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D04600B-29B4-4D8E-B8BE-CAD919DB3A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -164,9 +168,6 @@
     <t>talentItemCanvas_1</t>
   </si>
   <si>
-    <t>1|10|20||2|10|20</t>
-  </si>
-  <si>
     <t>12.5|-2</t>
   </si>
   <si>
@@ -206,9 +207,6 @@
     <t>1005|1006</t>
   </si>
   <si>
-    <t>1|10|20|40||2|10|20|40</t>
-  </si>
-  <si>
     <t>TalentTree_Desc_3</t>
   </si>
   <si>
@@ -260,9 +258,6 @@
     <t>talentItemCanvas_6</t>
   </si>
   <si>
-    <t>1|10|20|40|65|100||2|10|20|40|65|100</t>
-  </si>
-  <si>
     <t>TalentTree_Desc_6</t>
   </si>
   <si>
@@ -407,9 +402,6 @@
     <t>1016|1017|1018|1019</t>
   </si>
   <si>
-    <t>1|10|20|40|65||2|10|20|40|65</t>
-  </si>
-  <si>
     <t>TalentTree_Desc_15</t>
   </si>
   <si>
@@ -440,9 +432,6 @@
     <t>talentItemCanvas_17</t>
   </si>
   <si>
-    <t>1|10||2|10</t>
-  </si>
-  <si>
     <t>TalentTree_Desc_17</t>
   </si>
   <si>
@@ -860,9 +849,6 @@
     <t>talentItemCanvas_47</t>
   </si>
   <si>
-    <t>1|100||2|100</t>
-  </si>
-  <si>
     <t>4.5|4.5</t>
   </si>
   <si>
@@ -900,19 +886,31 @@
   </si>
   <si>
     <t>在无尽模式下，基地耐久提高{0}</t>
+  </si>
+  <si>
+    <t>1|50|70||2|50|70</t>
+  </si>
+  <si>
+    <t>1|50|70|100||2|50|70|100</t>
+  </si>
+  <si>
+    <t>1|50|70|100|140|200||2|50|70|100|140|200</t>
+  </si>
+  <si>
+    <t>1|50|70|100|140||2|50|70|100|140</t>
+  </si>
+  <si>
+    <t>1|50||2|50</t>
+  </si>
+  <si>
+    <t>1|200||2|200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,12 +921,14 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -936,348 +936,26 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1285,251 +963,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1550,61 +986,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1854,19 +1246,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -1881,7 +1273,7 @@
     <col min="17" max="17" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1937,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1993,7 +1385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="42" customHeight="1" spans="1:18">
+    <row r="3" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2049,8 +1441,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1"/>
-    <row r="5" ht="16.5" spans="1:18">
+    <row r="4" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -2070,7 +1462,7 @@
         <v>1004</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I5" s="2">
         <v>2</v>
@@ -2085,36 +1477,36 @@
         <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O5" s="1">
         <v>1001</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:18">
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2123,7 +1515,7 @@
         <v>1004</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
@@ -2138,45 +1530,45 @@
         <v>48</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O6" s="1">
         <v>1002</v>
       </c>
       <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:18">
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
@@ -2191,48 +1583,48 @@
         <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O7" s="1">
         <v>1003</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:18">
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -2247,36 +1639,36 @@
         <v>48</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O8" s="1">
         <v>1004</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:18">
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2288,7 +1680,7 @@
         <v>1010</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -2303,36 +1695,36 @@
         <v>48</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" s="1">
         <v>1005</v>
       </c>
       <c r="P9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:18">
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
       <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2344,7 +1736,7 @@
         <v>1014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="I10" s="2">
         <v>5</v>
@@ -2359,36 +1751,36 @@
         <v>48</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" s="1">
         <v>1006</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:18">
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2400,7 +1792,7 @@
         <v>1011</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I11" s="2">
         <v>2</v>
@@ -2415,36 +1807,36 @@
         <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O11" s="1">
         <v>1007</v>
       </c>
       <c r="P11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:18">
+    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2456,7 +1848,7 @@
         <v>1012</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I12" s="2">
         <v>2</v>
@@ -2471,36 +1863,36 @@
         <v>48</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O12" s="1">
         <v>1008</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:18">
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2512,7 +1904,7 @@
         <v>1013</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
@@ -2527,36 +1919,36 @@
         <v>48</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O13" s="1">
         <v>1009</v>
       </c>
       <c r="P13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:18">
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2568,7 +1960,7 @@
         <v>1014</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I14" s="2">
         <v>2</v>
@@ -2583,36 +1975,36 @@
         <v>48</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O14" s="1">
         <v>1010</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:18">
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2624,7 +2016,7 @@
         <v>1015</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I15" s="2">
         <v>2</v>
@@ -2639,36 +2031,36 @@
         <v>48</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="1">
         <v>1011</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:18">
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2680,7 +2072,7 @@
         <v>1015</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I16" s="2">
         <v>2</v>
@@ -2695,36 +2087,36 @@
         <v>48</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="1">
         <v>1012</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:18">
+    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2736,7 +2128,7 @@
         <v>1015</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I17" s="2">
         <v>2</v>
@@ -2751,48 +2143,48 @@
         <v>48</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O17" s="1">
         <v>1013</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:18">
+    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
       <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="G18" s="1">
         <v>1015</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="I18" s="2">
         <v>3</v>
@@ -2807,48 +2199,48 @@
         <v>48</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O18" s="1">
         <v>1014</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:18">
+    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="I19" s="2">
         <v>4</v>
@@ -2863,36 +2255,36 @@
         <v>48</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O19" s="1">
         <v>1015</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:18">
+    <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2904,7 +2296,7 @@
         <v>1020</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I20" s="2">
         <v>2</v>
@@ -2919,36 +2311,36 @@
         <v>48</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O20" s="1">
         <v>1016</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:18">
+    <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2960,7 +2352,7 @@
         <v>1021</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2975,36 +2367,36 @@
         <v>48</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O21" s="1">
         <v>1017</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:18">
+    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -3016,7 +2408,7 @@
         <v>1023</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="I22" s="2">
         <v>4</v>
@@ -3031,36 +2423,36 @@
         <v>48</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O22" s="1">
         <v>1018</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:18">
+    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -3072,7 +2464,7 @@
         <v>1023</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="I23" s="2">
         <v>4</v>
@@ -3087,36 +2479,36 @@
         <v>48</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O23" s="1">
         <v>1019</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:18">
+    <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -3128,7 +2520,7 @@
         <v>1022</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I24" s="2">
         <v>2</v>
@@ -3143,36 +2535,36 @@
         <v>48</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O24" s="1">
         <v>1020</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:18">
+    <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -3184,7 +2576,7 @@
         <v>1022</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -3199,48 +2591,48 @@
         <v>48</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O25" s="1">
         <v>1021</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:18">
+    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G26" s="1">
         <v>1024</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="I26" s="2">
         <v>3</v>
@@ -3255,48 +2647,48 @@
         <v>48</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O26" s="1">
         <v>1022</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:18">
+    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G27" s="1">
         <v>1024</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="I27" s="2">
         <v>3</v>
@@ -3311,48 +2703,48 @@
         <v>48</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O27" s="1">
         <v>1023</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:18">
+    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="I28" s="2">
         <v>4</v>
@@ -3367,36 +2759,36 @@
         <v>48</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O28" s="1">
         <v>1024</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:18">
+    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -3408,7 +2800,7 @@
         <v>1028</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="I29" s="2">
         <v>3</v>
@@ -3423,36 +2815,36 @@
         <v>48</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O29" s="1">
         <v>1025</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:18">
+    <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3464,7 +2856,7 @@
         <v>1028</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="I30" s="2">
         <v>3</v>
@@ -3479,36 +2871,36 @@
         <v>48</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O30" s="1">
         <v>1026</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:18">
+    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3517,10 +2909,10 @@
         <v>1024</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="I31" s="2">
         <v>3</v>
@@ -3535,48 +2927,48 @@
         <v>48</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O31" s="1">
         <v>1027</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:18">
+    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="I32" s="2">
         <v>3</v>
@@ -3591,36 +2983,36 @@
         <v>48</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O32" s="1">
         <v>1028</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:18">
+    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3632,7 +3024,7 @@
         <v>1034</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I33" s="2">
         <v>2</v>
@@ -3647,36 +3039,36 @@
         <v>48</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O33" s="1">
         <v>1029</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:18">
+    <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3688,7 +3080,7 @@
         <v>1038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="I34" s="2">
         <v>5</v>
@@ -3703,36 +3095,36 @@
         <v>48</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O34" s="1">
         <v>1030</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:18">
+    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3744,7 +3136,7 @@
         <v>1035</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I35" s="2">
         <v>2</v>
@@ -3759,36 +3151,36 @@
         <v>48</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O35" s="1">
         <v>1031</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:18">
+    <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3800,7 +3192,7 @@
         <v>1036</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I36" s="2">
         <v>2</v>
@@ -3815,36 +3207,36 @@
         <v>48</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O36" s="1">
         <v>1032</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:18">
+    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3856,7 +3248,7 @@
         <v>1037</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I37" s="2">
         <v>2</v>
@@ -3871,36 +3263,36 @@
         <v>48</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O37" s="1">
         <v>1033</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:18">
+    <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3912,7 +3304,7 @@
         <v>1038</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I38" s="2">
         <v>2</v>
@@ -3927,36 +3319,36 @@
         <v>48</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O38" s="1">
         <v>1034</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:18">
+    <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3968,7 +3360,7 @@
         <v>1039</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I39" s="2">
         <v>2</v>
@@ -3983,36 +3375,36 @@
         <v>48</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O39" s="1">
         <v>1035</v>
       </c>
       <c r="P39" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:18">
+    <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -4024,7 +3416,7 @@
         <v>1039</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I40" s="2">
         <v>2</v>
@@ -4039,36 +3431,36 @@
         <v>48</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O40" s="1">
         <v>1036</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:18">
+    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -4080,7 +3472,7 @@
         <v>1039</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I41" s="2">
         <v>2</v>
@@ -4095,48 +3487,48 @@
         <v>48</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O41" s="1">
         <v>1037</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:18">
+    <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G42" s="1">
         <v>1039</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="I42" s="2">
         <v>3</v>
@@ -4151,48 +3543,48 @@
         <v>48</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O42" s="1">
         <v>1038</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:18">
+    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="I43" s="2">
         <v>4</v>
@@ -4207,36 +3599,36 @@
         <v>48</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O43" s="1">
         <v>1039</v>
       </c>
       <c r="P43" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:18">
+    <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -4248,7 +3640,7 @@
         <v>1044</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I44" s="2">
         <v>2</v>
@@ -4263,36 +3655,36 @@
         <v>48</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O44" s="1">
         <v>1040</v>
       </c>
       <c r="P44" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:18">
+    <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -4304,7 +3696,7 @@
         <v>1045</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
@@ -4319,36 +3711,36 @@
         <v>48</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O45" s="1">
         <v>1041</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="R45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:18">
+    <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -4360,7 +3752,7 @@
         <v>1046</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="I46" s="2">
         <v>4</v>
@@ -4375,36 +3767,36 @@
         <v>48</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O46" s="1">
         <v>1042</v>
       </c>
       <c r="P46" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:18">
+    <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -4416,7 +3808,7 @@
         <v>1046</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="I47" s="2">
         <v>4</v>
@@ -4431,36 +3823,36 @@
         <v>48</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O47" s="1">
         <v>1043</v>
       </c>
       <c r="P47" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:18">
+    <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -4472,7 +3864,7 @@
         <v>1046</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="I48" s="2">
         <v>2</v>
@@ -4487,36 +3879,36 @@
         <v>48</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O48" s="1">
         <v>1044</v>
       </c>
       <c r="P48" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:18">
+    <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="B49" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -4528,7 +3920,7 @@
         <v>1046</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
@@ -4543,48 +3935,48 @@
         <v>48</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O49" s="1">
         <v>1045</v>
       </c>
       <c r="P49" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:18">
+    <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c r="I50" s="2">
         <v>4</v>
@@ -4599,36 +3991,36 @@
         <v>48</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O50" s="1">
         <v>1046</v>
       </c>
       <c r="P50" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:18">
+    <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -4637,7 +4029,7 @@
         <v>1046</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="I51" s="2">
         <v>10</v>
@@ -4652,36 +4044,36 @@
         <v>72</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O51" s="1">
         <v>1047</v>
       </c>
       <c r="P51" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="R51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:18">
+    <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -4690,7 +4082,7 @@
         <v>1046</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="I52" s="2">
         <v>10</v>
@@ -4705,36 +4097,36 @@
         <v>72</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O52" s="1">
         <v>1048</v>
       </c>
       <c r="P52" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="R52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:18">
+    <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -4743,7 +4135,7 @@
         <v>1046</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="I53" s="2">
         <v>10</v>
@@ -4758,27 +4150,27 @@
         <v>72</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O53" s="1">
         <v>1049</v>
       </c>
       <c r="P53" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="R53">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D04600B-29B4-4D8E-B8BE-CAD919DB3A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE62CC8-BBE6-4DD9-A2EF-7425582B02A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4041,7 +4041,7 @@
         <v>387060</v>
       </c>
       <c r="L51" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>272</v>
@@ -4094,7 +4094,7 @@
         <v>387059</v>
       </c>
       <c r="L52" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>272</v>
@@ -4147,7 +4147,7 @@
         <v>387061</v>
       </c>
       <c r="L53" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>272</v>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE62CC8-BBE6-4DD9-A2EF-7425582B02A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC23574-8EB4-467C-B656-01D7E6458B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -849,9 +849,6 @@
     <t>talentItemCanvas_47</t>
   </si>
   <si>
-    <t>4.5|4.5</t>
-  </si>
-  <si>
     <t>TalentTree_Desc_47</t>
   </si>
   <si>
@@ -904,6 +901,10 @@
   </si>
   <si>
     <t>1|200||2|200</t>
+  </si>
+  <si>
+    <t>0|-4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1255,7 +1256,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1462,7 +1463,7 @@
         <v>1004</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I5" s="2">
         <v>2</v>
@@ -1515,7 +1516,7 @@
         <v>1004</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
@@ -1568,7 +1569,7 @@
         <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
@@ -1624,7 +1625,7 @@
         <v>64</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -1680,7 +1681,7 @@
         <v>1010</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -1736,7 +1737,7 @@
         <v>1014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I10" s="2">
         <v>5</v>
@@ -1792,7 +1793,7 @@
         <v>1011</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I11" s="2">
         <v>2</v>
@@ -1848,7 +1849,7 @@
         <v>1012</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I12" s="2">
         <v>2</v>
@@ -1904,7 +1905,7 @@
         <v>1013</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
@@ -1960,7 +1961,7 @@
         <v>1014</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I14" s="2">
         <v>2</v>
@@ -2016,7 +2017,7 @@
         <v>1015</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I15" s="2">
         <v>2</v>
@@ -2072,7 +2073,7 @@
         <v>1015</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I16" s="2">
         <v>2</v>
@@ -2128,7 +2129,7 @@
         <v>1015</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I17" s="2">
         <v>2</v>
@@ -2184,7 +2185,7 @@
         <v>1015</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I18" s="2">
         <v>3</v>
@@ -2240,7 +2241,7 @@
         <v>122</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I19" s="2">
         <v>4</v>
@@ -2296,7 +2297,7 @@
         <v>1020</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I20" s="2">
         <v>2</v>
@@ -2352,7 +2353,7 @@
         <v>1021</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2408,7 +2409,7 @@
         <v>1023</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I22" s="2">
         <v>4</v>
@@ -2464,7 +2465,7 @@
         <v>1023</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I23" s="2">
         <v>4</v>
@@ -2520,7 +2521,7 @@
         <v>1022</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I24" s="2">
         <v>2</v>
@@ -2576,7 +2577,7 @@
         <v>1022</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -2632,7 +2633,7 @@
         <v>1024</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I26" s="2">
         <v>3</v>
@@ -2688,7 +2689,7 @@
         <v>1024</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I27" s="2">
         <v>3</v>
@@ -2744,7 +2745,7 @@
         <v>171</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I28" s="2">
         <v>4</v>
@@ -2800,7 +2801,7 @@
         <v>1028</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I29" s="2">
         <v>3</v>
@@ -2856,7 +2857,7 @@
         <v>1028</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I30" s="2">
         <v>3</v>
@@ -2912,7 +2913,7 @@
         <v>184</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I31" s="2">
         <v>3</v>
@@ -2968,7 +2969,7 @@
         <v>190</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I32" s="2">
         <v>3</v>
@@ -3024,7 +3025,7 @@
         <v>1034</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I33" s="2">
         <v>2</v>
@@ -3080,7 +3081,7 @@
         <v>1038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I34" s="2">
         <v>5</v>
@@ -3136,7 +3137,7 @@
         <v>1035</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I35" s="2">
         <v>2</v>
@@ -3192,7 +3193,7 @@
         <v>1036</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I36" s="2">
         <v>2</v>
@@ -3248,7 +3249,7 @@
         <v>1037</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I37" s="2">
         <v>2</v>
@@ -3304,7 +3305,7 @@
         <v>1038</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I38" s="2">
         <v>2</v>
@@ -3360,7 +3361,7 @@
         <v>1039</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I39" s="2">
         <v>2</v>
@@ -3416,7 +3417,7 @@
         <v>1039</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I40" s="2">
         <v>2</v>
@@ -3472,7 +3473,7 @@
         <v>1039</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I41" s="2">
         <v>2</v>
@@ -3528,7 +3529,7 @@
         <v>1039</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I42" s="2">
         <v>3</v>
@@ -3584,7 +3585,7 @@
         <v>237</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I43" s="2">
         <v>4</v>
@@ -3640,7 +3641,7 @@
         <v>1044</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I44" s="2">
         <v>2</v>
@@ -3696,7 +3697,7 @@
         <v>1045</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
@@ -3752,7 +3753,7 @@
         <v>1046</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I46" s="2">
         <v>4</v>
@@ -3808,7 +3809,7 @@
         <v>1046</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I47" s="2">
         <v>4</v>
@@ -3864,7 +3865,7 @@
         <v>1046</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I48" s="2">
         <v>2</v>
@@ -3920,7 +3921,7 @@
         <v>1046</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
@@ -3976,7 +3977,7 @@
         <v>267</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I50" s="2">
         <v>4</v>
@@ -4029,7 +4030,7 @@
         <v>1046</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I51" s="2">
         <v>10</v>
@@ -4044,7 +4045,7 @@
         <v>80</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="N51" s="3" t="s">
         <v>46</v>
@@ -4053,10 +4054,10 @@
         <v>1047</v>
       </c>
       <c r="P51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q51" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4067,13 +4068,13 @@
         <v>1048</v>
       </c>
       <c r="B52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -4082,7 +4083,7 @@
         <v>1046</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I52" s="2">
         <v>10</v>
@@ -4097,7 +4098,7 @@
         <v>80</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>46</v>
@@ -4106,10 +4107,10 @@
         <v>1048</v>
       </c>
       <c r="P52" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q52" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4120,13 +4121,13 @@
         <v>1049</v>
       </c>
       <c r="B53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -4135,7 +4136,7 @@
         <v>1046</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I53" s="2">
         <v>10</v>
@@ -4150,7 +4151,7 @@
         <v>80</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>46</v>
@@ -4159,10 +4160,10 @@
         <v>1049</v>
       </c>
       <c r="P53" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q53" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="R53">
         <v>0</v>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC23574-8EB4-467C-B656-01D7E6458B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="303">
   <si>
     <t>int</t>
   </si>
@@ -87,9 +83,21 @@
     <t>iconSize</t>
   </si>
   <si>
+    <t>selectedSize</t>
+  </si>
+  <si>
+    <t>infoSize</t>
+  </si>
+  <si>
     <t>iconPos</t>
   </si>
   <si>
+    <t>selectedPos</t>
+  </si>
+  <si>
+    <t>infoPos</t>
+  </si>
+  <si>
     <t>outlineColor</t>
   </si>
   <si>
@@ -141,9 +149,21 @@
     <t>icon大小</t>
   </si>
   <si>
+    <t>选中背景大小</t>
+  </si>
+  <si>
+    <t>底部icon大小</t>
+  </si>
+  <si>
     <t>icon位置</t>
   </si>
   <si>
+    <t>选中背景位置</t>
+  </si>
+  <si>
+    <t>底部icon位置</t>
+  </si>
+  <si>
     <t>字体描边颜色</t>
   </si>
   <si>
@@ -168,9 +188,18 @@
     <t>talentItemCanvas_1</t>
   </si>
   <si>
+    <t>1|50|70||2|50|70</t>
+  </si>
+  <si>
     <t>12.5|-2</t>
   </si>
   <si>
+    <t>0.5|-14</t>
+  </si>
+  <si>
+    <t>0|0</t>
+  </si>
+  <si>
     <t>#000000</t>
   </si>
   <si>
@@ -207,6 +236,9 @@
     <t>1005|1006</t>
   </si>
   <si>
+    <t>1|50|70|100||2|50|70|100</t>
+  </si>
+  <si>
     <t>TalentTree_Desc_3</t>
   </si>
   <si>
@@ -258,6 +290,9 @@
     <t>talentItemCanvas_6</t>
   </si>
   <si>
+    <t>1|50|70|100|140|200||2|50|70|100|140|200</t>
+  </si>
+  <si>
     <t>TalentTree_Desc_6</t>
   </si>
   <si>
@@ -402,6 +437,9 @@
     <t>1016|1017|1018|1019</t>
   </si>
   <si>
+    <t>1|50|70|100|140||2|50|70|100|140</t>
+  </si>
+  <si>
     <t>TalentTree_Desc_15</t>
   </si>
   <si>
@@ -432,6 +470,9 @@
     <t>talentItemCanvas_17</t>
   </si>
   <si>
+    <t>1|50||2|50</t>
+  </si>
+  <si>
     <t>TalentTree_Desc_17</t>
   </si>
   <si>
@@ -849,6 +890,18 @@
     <t>talentItemCanvas_47</t>
   </si>
   <si>
+    <t>1|200||2|200</t>
+  </si>
+  <si>
+    <t>0|-4</t>
+  </si>
+  <si>
+    <t>-2.5|-9</t>
+  </si>
+  <si>
+    <t>-6|-6</t>
+  </si>
+  <si>
     <t>TalentTree_Desc_47</t>
   </si>
   <si>
@@ -883,35 +936,19 @@
   </si>
   <si>
     <t>在无尽模式下，基地耐久提高{0}</t>
-  </si>
-  <si>
-    <t>1|50|70||2|50|70</t>
-  </si>
-  <si>
-    <t>1|50|70|100||2|50|70|100</t>
-  </si>
-  <si>
-    <t>1|50|70|100|140|200||2|50|70|100|140|200</t>
-  </si>
-  <si>
-    <t>1|50|70|100|140||2|50|70|100|140</t>
-  </si>
-  <si>
-    <t>1|50||2|50</t>
-  </si>
-  <si>
-    <t>1|200||2|200</t>
-  </si>
-  <si>
-    <t>0|-4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,14 +959,12 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -937,26 +972,348 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -964,9 +1321,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,17 +1586,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1247,19 +1890,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="I36" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -1269,12 +1912,13 @@
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="63.375" customWidth="1"/>
     <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="15" width="16.625" customWidth="1"/>
-    <col min="16" max="16" width="20.5" customWidth="1"/>
-    <col min="17" max="17" width="30" customWidth="1"/>
+    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="13" max="19" width="16.625" customWidth="1"/>
+    <col min="20" max="20" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,25 +1956,37 @@
         <v>4</v>
       </c>
       <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1385,76 +2041,100 @@
       <c r="R2" t="s">
         <v>23</v>
       </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="42" customHeight="1" spans="1:22">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" ht="42" customHeight="1"/>
+    <row r="5" ht="16.5" spans="1:22">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1463,7 +2143,7 @@
         <v>1004</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I5" s="2">
         <v>2</v>
@@ -1477,37 +2157,49 @@
       <c r="L5" s="1">
         <v>48</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="M5" s="1">
+        <v>72</v>
+      </c>
+      <c r="N5" s="1">
+        <v>80</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="1">
         <v>1001</v>
       </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5">
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" ht="16.5" spans="1:22">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1516,7 +2208,7 @@
         <v>1004</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I6" s="2">
         <v>2</v>
@@ -1530,46 +2222,58 @@
       <c r="L6" s="1">
         <v>48</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="1">
+      <c r="M6" s="1">
+        <v>72</v>
+      </c>
+      <c r="N6" s="1">
+        <v>80</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="1">
         <v>1002</v>
       </c>
-      <c r="P6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6">
+      <c r="T6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" ht="16.5" spans="1:22">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
@@ -1583,49 +2287,61 @@
       <c r="L7" s="1">
         <v>48</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="1">
+      <c r="M7" s="1">
+        <v>72</v>
+      </c>
+      <c r="N7" s="1">
+        <v>80</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="1">
         <v>1003</v>
       </c>
-      <c r="P7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7">
+      <c r="T7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" ht="16.5" spans="1:22">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -1639,37 +2355,49 @@
       <c r="L8" s="1">
         <v>48</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="M8" s="1">
+        <v>72</v>
+      </c>
+      <c r="N8" s="1">
+        <v>80</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="1">
         <v>1004</v>
       </c>
-      <c r="P8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8">
+      <c r="T8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" ht="16.5" spans="1:22">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1681,7 +2409,7 @@
         <v>1010</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -1695,37 +2423,49 @@
       <c r="L9" s="1">
         <v>48</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="M9" s="1">
+        <v>72</v>
+      </c>
+      <c r="N9" s="1">
+        <v>80</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="1">
         <v>1005</v>
       </c>
-      <c r="P9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9">
+      <c r="T9" t="s">
+        <v>82</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" ht="16.5" spans="1:22">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1737,7 +2477,7 @@
         <v>1014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2">
         <v>5</v>
@@ -1751,37 +2491,49 @@
       <c r="L10" s="1">
         <v>48</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="M10" s="1">
+        <v>72</v>
+      </c>
+      <c r="N10" s="1">
+        <v>80</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="1">
         <v>1006</v>
       </c>
-      <c r="P10" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R10">
+      <c r="T10" t="s">
+        <v>88</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" ht="16.5" spans="1:22">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1793,7 +2545,7 @@
         <v>1011</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I11" s="2">
         <v>2</v>
@@ -1807,37 +2559,49 @@
       <c r="L11" s="1">
         <v>48</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="M11" s="1">
+        <v>72</v>
+      </c>
+      <c r="N11" s="1">
+        <v>80</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="1">
         <v>1007</v>
       </c>
-      <c r="P11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11">
+      <c r="T11" t="s">
+        <v>93</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" ht="16.5" spans="1:22">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1849,7 +2613,7 @@
         <v>1012</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2">
         <v>2</v>
@@ -1863,37 +2627,49 @@
       <c r="L12" s="1">
         <v>48</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="1">
+      <c r="M12" s="1">
+        <v>72</v>
+      </c>
+      <c r="N12" s="1">
+        <v>80</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="1">
         <v>1008</v>
       </c>
-      <c r="P12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12">
+      <c r="T12" t="s">
+        <v>98</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="V12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" ht="16.5" spans="1:22">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1905,7 +2681,7 @@
         <v>1013</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
@@ -1919,37 +2695,49 @@
       <c r="L13" s="1">
         <v>48</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="1">
+      <c r="M13" s="1">
+        <v>72</v>
+      </c>
+      <c r="N13" s="1">
+        <v>80</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="1">
         <v>1009</v>
       </c>
-      <c r="P13" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R13">
+      <c r="T13" t="s">
+        <v>103</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="V13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" ht="16.5" spans="1:22">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1961,7 +2749,7 @@
         <v>1014</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I14" s="2">
         <v>2</v>
@@ -1975,37 +2763,49 @@
       <c r="L14" s="1">
         <v>48</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="1">
+      <c r="M14" s="1">
+        <v>72</v>
+      </c>
+      <c r="N14" s="1">
+        <v>80</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="1">
         <v>1010</v>
       </c>
-      <c r="P14" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R14">
+      <c r="T14" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" ht="16.5" spans="1:22">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2017,7 +2817,7 @@
         <v>1015</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I15" s="2">
         <v>2</v>
@@ -2031,37 +2831,49 @@
       <c r="L15" s="1">
         <v>48</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="1">
+      <c r="M15" s="1">
+        <v>72</v>
+      </c>
+      <c r="N15" s="1">
+        <v>80</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="1">
         <v>1011</v>
       </c>
-      <c r="P15" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="R15">
+      <c r="T15" t="s">
+        <v>113</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" ht="16.5" spans="1:22">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2073,7 +2885,7 @@
         <v>1015</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I16" s="2">
         <v>2</v>
@@ -2087,37 +2899,49 @@
       <c r="L16" s="1">
         <v>48</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="1">
+      <c r="M16" s="1">
+        <v>72</v>
+      </c>
+      <c r="N16" s="1">
+        <v>80</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="1">
         <v>1012</v>
       </c>
-      <c r="P16" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="R16">
+      <c r="T16" t="s">
+        <v>118</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="V16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" ht="16.5" spans="1:22">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2129,7 +2953,7 @@
         <v>1015</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I17" s="2">
         <v>2</v>
@@ -2143,49 +2967,61 @@
       <c r="L17" s="1">
         <v>48</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="1">
+      <c r="M17" s="1">
+        <v>72</v>
+      </c>
+      <c r="N17" s="1">
+        <v>80</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="1">
         <v>1013</v>
       </c>
-      <c r="P17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="R17">
+      <c r="T17" t="s">
+        <v>123</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" ht="16.5" spans="1:22">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G18" s="1">
         <v>1015</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="I18" s="2">
         <v>3</v>
@@ -2199,49 +3035,61 @@
       <c r="L18" s="1">
         <v>48</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O18" s="1">
+      <c r="M18" s="1">
+        <v>72</v>
+      </c>
+      <c r="N18" s="1">
+        <v>80</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="1">
         <v>1014</v>
       </c>
-      <c r="P18" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="R18">
+      <c r="T18" t="s">
+        <v>129</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="V18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" ht="16.5" spans="1:22">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="I19" s="2">
         <v>4</v>
@@ -2255,37 +3103,49 @@
       <c r="L19" s="1">
         <v>48</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O19" s="1">
+      <c r="M19" s="1">
+        <v>72</v>
+      </c>
+      <c r="N19" s="1">
+        <v>80</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" s="1">
         <v>1015</v>
       </c>
-      <c r="P19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="R19">
+      <c r="T19" t="s">
+        <v>137</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" ht="16.5" spans="1:22">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2297,7 +3157,7 @@
         <v>1020</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I20" s="2">
         <v>2</v>
@@ -2311,37 +3171,49 @@
       <c r="L20" s="1">
         <v>48</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="1">
+      <c r="M20" s="1">
+        <v>72</v>
+      </c>
+      <c r="N20" s="1">
+        <v>80</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S20" s="1">
         <v>1016</v>
       </c>
-      <c r="P20" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R20">
+      <c r="T20" t="s">
+        <v>142</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" ht="16.5" spans="1:22">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2353,7 +3225,7 @@
         <v>1021</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2367,37 +3239,49 @@
       <c r="L21" s="1">
         <v>48</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" s="1">
+      <c r="M21" s="1">
+        <v>72</v>
+      </c>
+      <c r="N21" s="1">
+        <v>80</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21" s="1">
         <v>1017</v>
       </c>
-      <c r="P21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="R21">
+      <c r="T21" t="s">
+        <v>148</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" ht="16.5" spans="1:22">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2409,7 +3293,7 @@
         <v>1023</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="I22" s="2">
         <v>4</v>
@@ -2423,37 +3307,49 @@
       <c r="L22" s="1">
         <v>48</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O22" s="1">
+      <c r="M22" s="1">
+        <v>72</v>
+      </c>
+      <c r="N22" s="1">
+        <v>80</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22" s="1">
         <v>1018</v>
       </c>
-      <c r="P22" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R22">
+      <c r="T22" t="s">
+        <v>153</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" ht="16.5" spans="1:22">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2465,7 +3361,7 @@
         <v>1023</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="I23" s="2">
         <v>4</v>
@@ -2479,37 +3375,49 @@
       <c r="L23" s="1">
         <v>48</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O23" s="1">
+      <c r="M23" s="1">
+        <v>72</v>
+      </c>
+      <c r="N23" s="1">
+        <v>80</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23" s="1">
         <v>1019</v>
       </c>
-      <c r="P23" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R23">
+      <c r="T23" t="s">
+        <v>158</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="V23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" ht="16.5" spans="1:22">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2521,7 +3429,7 @@
         <v>1022</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I24" s="2">
         <v>2</v>
@@ -2535,37 +3443,49 @@
       <c r="L24" s="1">
         <v>48</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O24" s="1">
+      <c r="M24" s="1">
+        <v>72</v>
+      </c>
+      <c r="N24" s="1">
+        <v>80</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24" s="1">
         <v>1020</v>
       </c>
-      <c r="P24" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R24">
+      <c r="T24" t="s">
+        <v>163</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="V24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" ht="16.5" spans="1:22">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2577,7 +3497,7 @@
         <v>1022</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -2591,49 +3511,61 @@
       <c r="L25" s="1">
         <v>48</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O25" s="1">
+      <c r="M25" s="1">
+        <v>72</v>
+      </c>
+      <c r="N25" s="1">
+        <v>80</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25" s="1">
         <v>1021</v>
       </c>
-      <c r="P25" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="R25">
+      <c r="T25" t="s">
+        <v>168</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" ht="16.5" spans="1:22">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G26" s="1">
         <v>1024</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="I26" s="2">
         <v>3</v>
@@ -2647,49 +3579,61 @@
       <c r="L26" s="1">
         <v>48</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O26" s="1">
+      <c r="M26" s="1">
+        <v>72</v>
+      </c>
+      <c r="N26" s="1">
+        <v>80</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26" s="1">
         <v>1022</v>
       </c>
-      <c r="P26" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="R26">
+      <c r="T26" t="s">
+        <v>174</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="V26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" ht="16.5" spans="1:22">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G27" s="1">
         <v>1024</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="I27" s="2">
         <v>3</v>
@@ -2703,49 +3647,61 @@
       <c r="L27" s="1">
         <v>48</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" s="1">
+      <c r="M27" s="1">
+        <v>72</v>
+      </c>
+      <c r="N27" s="1">
+        <v>80</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S27" s="1">
         <v>1023</v>
       </c>
-      <c r="P27" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="R27">
+      <c r="T27" t="s">
+        <v>180</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" ht="16.5" spans="1:22">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="I28" s="2">
         <v>4</v>
@@ -2759,37 +3715,49 @@
       <c r="L28" s="1">
         <v>48</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O28" s="1">
+      <c r="M28" s="1">
+        <v>72</v>
+      </c>
+      <c r="N28" s="1">
+        <v>80</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28" s="1">
         <v>1024</v>
       </c>
-      <c r="P28" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R28">
+      <c r="T28" t="s">
+        <v>187</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" ht="16.5" spans="1:22">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2801,7 +3769,7 @@
         <v>1028</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="I29" s="2">
         <v>3</v>
@@ -2815,37 +3783,49 @@
       <c r="L29" s="1">
         <v>48</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O29" s="1">
+      <c r="M29" s="1">
+        <v>72</v>
+      </c>
+      <c r="N29" s="1">
+        <v>80</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S29" s="1">
         <v>1025</v>
       </c>
-      <c r="P29" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R29">
+      <c r="T29" t="s">
+        <v>191</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" ht="16.5" spans="1:22">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2857,7 +3837,7 @@
         <v>1028</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="I30" s="2">
         <v>3</v>
@@ -2871,37 +3851,49 @@
       <c r="L30" s="1">
         <v>48</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O30" s="1">
+      <c r="M30" s="1">
+        <v>72</v>
+      </c>
+      <c r="N30" s="1">
+        <v>80</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30" s="1">
         <v>1026</v>
       </c>
-      <c r="P30" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R30">
+      <c r="T30" t="s">
+        <v>195</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" ht="16.5" spans="1:22">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2910,10 +3902,10 @@
         <v>1024</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I31" s="2">
         <v>3</v>
@@ -2927,49 +3919,61 @@
       <c r="L31" s="1">
         <v>48</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O31" s="1">
+      <c r="M31" s="1">
+        <v>72</v>
+      </c>
+      <c r="N31" s="1">
+        <v>80</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S31" s="1">
         <v>1027</v>
       </c>
-      <c r="P31" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="R31">
+      <c r="T31" t="s">
+        <v>200</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" ht="16.5" spans="1:22">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I32" s="2">
         <v>3</v>
@@ -2983,37 +3987,49 @@
       <c r="L32" s="1">
         <v>48</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O32" s="1">
+      <c r="M32" s="1">
+        <v>72</v>
+      </c>
+      <c r="N32" s="1">
+        <v>80</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S32" s="1">
         <v>1028</v>
       </c>
-      <c r="P32" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R32">
+      <c r="T32" t="s">
+        <v>206</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" ht="16.5" spans="1:22">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3025,7 +4041,7 @@
         <v>1034</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I33" s="2">
         <v>2</v>
@@ -3039,37 +4055,49 @@
       <c r="L33" s="1">
         <v>48</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O33" s="1">
+      <c r="M33" s="1">
+        <v>72</v>
+      </c>
+      <c r="N33" s="1">
+        <v>80</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S33" s="1">
         <v>1029</v>
       </c>
-      <c r="P33" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R33">
+      <c r="T33" t="s">
+        <v>210</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" ht="16.5" spans="1:22">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3081,7 +4109,7 @@
         <v>1038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="I34" s="2">
         <v>5</v>
@@ -3095,37 +4123,49 @@
       <c r="L34" s="1">
         <v>48</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O34" s="1">
+      <c r="M34" s="1">
+        <v>72</v>
+      </c>
+      <c r="N34" s="1">
+        <v>80</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34" s="1">
         <v>1030</v>
       </c>
-      <c r="P34" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R34">
+      <c r="T34" t="s">
+        <v>214</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" ht="16.5" spans="1:22">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3137,7 +4177,7 @@
         <v>1035</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I35" s="2">
         <v>2</v>
@@ -3151,37 +4191,49 @@
       <c r="L35" s="1">
         <v>48</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O35" s="1">
+      <c r="M35" s="1">
+        <v>72</v>
+      </c>
+      <c r="N35" s="1">
+        <v>80</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S35" s="1">
         <v>1031</v>
       </c>
-      <c r="P35" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R35">
+      <c r="T35" t="s">
+        <v>218</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" ht="16.5" spans="1:22">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3193,7 +4245,7 @@
         <v>1036</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I36" s="2">
         <v>2</v>
@@ -3207,37 +4259,49 @@
       <c r="L36" s="1">
         <v>48</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O36" s="1">
+      <c r="M36" s="1">
+        <v>72</v>
+      </c>
+      <c r="N36" s="1">
+        <v>80</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36" s="1">
         <v>1032</v>
       </c>
-      <c r="P36" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R36">
+      <c r="T36" t="s">
+        <v>222</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" ht="16.5" spans="1:22">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3249,7 +4313,7 @@
         <v>1037</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I37" s="2">
         <v>2</v>
@@ -3263,37 +4327,49 @@
       <c r="L37" s="1">
         <v>48</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O37" s="1">
+      <c r="M37" s="1">
+        <v>72</v>
+      </c>
+      <c r="N37" s="1">
+        <v>80</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S37" s="1">
         <v>1033</v>
       </c>
-      <c r="P37" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R37">
+      <c r="T37" t="s">
+        <v>226</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" ht="16.5" spans="1:22">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3305,7 +4381,7 @@
         <v>1038</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I38" s="2">
         <v>2</v>
@@ -3319,37 +4395,49 @@
       <c r="L38" s="1">
         <v>48</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O38" s="1">
+      <c r="M38" s="1">
+        <v>72</v>
+      </c>
+      <c r="N38" s="1">
+        <v>80</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38" s="1">
         <v>1034</v>
       </c>
-      <c r="P38" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R38">
+      <c r="T38" t="s">
+        <v>230</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" ht="16.5" spans="1:22">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3361,7 +4449,7 @@
         <v>1039</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I39" s="2">
         <v>2</v>
@@ -3375,37 +4463,49 @@
       <c r="L39" s="1">
         <v>48</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O39" s="1">
+      <c r="M39" s="1">
+        <v>72</v>
+      </c>
+      <c r="N39" s="1">
+        <v>80</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" s="1">
         <v>1035</v>
       </c>
-      <c r="P39" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R39">
+      <c r="T39" t="s">
+        <v>234</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" ht="16.5" spans="1:22">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -3417,7 +4517,7 @@
         <v>1039</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I40" s="2">
         <v>2</v>
@@ -3431,37 +4531,49 @@
       <c r="L40" s="1">
         <v>48</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O40" s="1">
+      <c r="M40" s="1">
+        <v>72</v>
+      </c>
+      <c r="N40" s="1">
+        <v>80</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S40" s="1">
         <v>1036</v>
       </c>
-      <c r="P40" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R40">
+      <c r="T40" t="s">
+        <v>238</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" ht="16.5" spans="1:22">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3473,7 +4585,7 @@
         <v>1039</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I41" s="2">
         <v>2</v>
@@ -3487,49 +4599,61 @@
       <c r="L41" s="1">
         <v>48</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O41" s="1">
+      <c r="M41" s="1">
+        <v>72</v>
+      </c>
+      <c r="N41" s="1">
+        <v>80</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41" s="1">
         <v>1037</v>
       </c>
-      <c r="P41" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R41">
+      <c r="T41" t="s">
+        <v>242</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" ht="16.5" spans="1:22">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G42" s="1">
         <v>1039</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="I42" s="2">
         <v>3</v>
@@ -3543,49 +4667,61 @@
       <c r="L42" s="1">
         <v>48</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O42" s="1">
+      <c r="M42" s="1">
+        <v>72</v>
+      </c>
+      <c r="N42" s="1">
+        <v>80</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42" s="1">
         <v>1038</v>
       </c>
-      <c r="P42" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="R42">
+      <c r="T42" t="s">
+        <v>247</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" ht="16.5" spans="1:22">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="I43" s="2">
         <v>4</v>
@@ -3599,37 +4735,49 @@
       <c r="L43" s="1">
         <v>48</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O43" s="1">
+      <c r="M43" s="1">
+        <v>72</v>
+      </c>
+      <c r="N43" s="1">
+        <v>80</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S43" s="1">
         <v>1039</v>
       </c>
-      <c r="P43" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R43">
+      <c r="T43" t="s">
+        <v>253</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" ht="16.5" spans="1:22">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -3641,7 +4789,7 @@
         <v>1044</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I44" s="2">
         <v>2</v>
@@ -3655,37 +4803,49 @@
       <c r="L44" s="1">
         <v>48</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O44" s="1">
+      <c r="M44" s="1">
+        <v>72</v>
+      </c>
+      <c r="N44" s="1">
+        <v>80</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44" s="1">
         <v>1040</v>
       </c>
-      <c r="P44" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R44">
+      <c r="T44" t="s">
+        <v>257</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" ht="16.5" spans="1:22">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -3697,7 +4857,7 @@
         <v>1045</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
@@ -3711,37 +4871,49 @@
       <c r="L45" s="1">
         <v>48</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O45" s="1">
+      <c r="M45" s="1">
+        <v>72</v>
+      </c>
+      <c r="N45" s="1">
+        <v>80</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S45" s="1">
         <v>1041</v>
       </c>
-      <c r="P45" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="R45">
+      <c r="T45" t="s">
+        <v>261</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" ht="16.5" spans="1:22">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -3753,7 +4925,7 @@
         <v>1046</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="I46" s="2">
         <v>4</v>
@@ -3767,37 +4939,49 @@
       <c r="L46" s="1">
         <v>48</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O46" s="1">
+      <c r="M46" s="1">
+        <v>72</v>
+      </c>
+      <c r="N46" s="1">
+        <v>80</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S46" s="1">
         <v>1042</v>
       </c>
-      <c r="P46" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R46">
+      <c r="T46" t="s">
+        <v>265</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" ht="16.5" spans="1:22">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -3809,7 +4993,7 @@
         <v>1046</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="I47" s="2">
         <v>4</v>
@@ -3823,37 +5007,49 @@
       <c r="L47" s="1">
         <v>48</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O47" s="1">
+      <c r="M47" s="1">
+        <v>72</v>
+      </c>
+      <c r="N47" s="1">
+        <v>80</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S47" s="1">
         <v>1043</v>
       </c>
-      <c r="P47" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R47">
+      <c r="T47" t="s">
+        <v>269</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="V47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" ht="16.5" spans="1:22">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -3865,7 +5061,7 @@
         <v>1046</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="I48" s="2">
         <v>2</v>
@@ -3879,37 +5075,49 @@
       <c r="L48" s="1">
         <v>48</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O48" s="1">
+      <c r="M48" s="1">
+        <v>72</v>
+      </c>
+      <c r="N48" s="1">
+        <v>80</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S48" s="1">
         <v>1044</v>
       </c>
-      <c r="P48" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R48">
+      <c r="T48" t="s">
+        <v>273</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="V48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" ht="16.5" spans="1:22">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -3921,7 +5129,7 @@
         <v>1046</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
@@ -3935,49 +5143,61 @@
       <c r="L49" s="1">
         <v>48</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O49" s="1">
+      <c r="M49" s="1">
+        <v>72</v>
+      </c>
+      <c r="N49" s="1">
+        <v>80</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49" s="1">
         <v>1045</v>
       </c>
-      <c r="P49" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="R49">
+      <c r="T49" t="s">
+        <v>277</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" ht="16.5" spans="1:22">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
       <c r="B50" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="I50" s="2">
         <v>4</v>
@@ -3991,37 +5211,49 @@
       <c r="L50" s="1">
         <v>48</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O50" s="1">
+      <c r="M50" s="1">
+        <v>72</v>
+      </c>
+      <c r="N50" s="1">
+        <v>80</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S50" s="1">
         <v>1046</v>
       </c>
-      <c r="P50" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R50">
+      <c r="T50" t="s">
+        <v>283</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" ht="16.5" spans="1:22">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -4030,7 +5262,7 @@
         <v>1046</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I51" s="2">
         <v>10</v>
@@ -4044,37 +5276,49 @@
       <c r="L51" s="1">
         <v>80</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="M51" s="3">
+        <v>86</v>
+      </c>
+      <c r="N51" s="1">
+        <v>96</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q51" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="N51" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O51" s="1">
+      <c r="R51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S51" s="1">
         <v>1047</v>
       </c>
-      <c r="P51" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="R51">
+      <c r="T51" t="s">
+        <v>291</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" ht="16.5" spans="1:22">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -4083,7 +5327,7 @@
         <v>1046</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I52" s="2">
         <v>10</v>
@@ -4097,37 +5341,49 @@
       <c r="L52" s="1">
         <v>80</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="3">
+        <v>86</v>
+      </c>
+      <c r="N52" s="1">
+        <v>96</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q52" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O52" s="1">
+      <c r="R52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S52" s="1">
         <v>1048</v>
       </c>
-      <c r="P52" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="R52">
+      <c r="T52" t="s">
+        <v>296</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="V52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" ht="16.5" spans="1:22">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -4136,7 +5392,7 @@
         <v>1046</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I53" s="2">
         <v>10</v>
@@ -4150,28 +5406,40 @@
       <c r="L53" s="1">
         <v>80</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="3">
+        <v>86</v>
+      </c>
+      <c r="N53" s="1">
+        <v>96</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q53" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O53" s="1">
+      <c r="R53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S53" s="1">
         <v>1049</v>
       </c>
-      <c r="P53" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="R53">
+      <c r="T53" t="s">
+        <v>301</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="V53">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82360879-1F3C-4CE4-98F7-ECF3AA465113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -197,9 +201,6 @@
     <t>0.5|-14</t>
   </si>
   <si>
-    <t>0|0</t>
-  </si>
-  <si>
     <t>#000000</t>
   </si>
   <si>
@@ -899,9 +900,6 @@
     <t>-2.5|-9</t>
   </si>
   <si>
-    <t>-6|-6</t>
-  </si>
-  <si>
     <t>TalentTree_Desc_47</t>
   </si>
   <si>
@@ -936,19 +934,20 @@
   </si>
   <si>
     <t>在无尽模式下，基地耐久提高{0}</t>
+  </si>
+  <si>
+    <t>5|5</t>
+  </si>
+  <si>
+    <t>5|5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,345 +974,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1321,255 +1004,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1585,62 +1026,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1890,19 +1290,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I36" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView tabSelected="1" topLeftCell="H31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -1918,7 +1318,7 @@
     <col min="21" max="21" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1986,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2054,7 +1454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="42" customHeight="1" spans="1:22">
+    <row r="3" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2122,8 +1522,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1"/>
-    <row r="5" ht="16.5" spans="1:22">
+    <row r="4" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -2161,7 +1561,7 @@
         <v>72</v>
       </c>
       <c r="N5" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>54</v>
@@ -2169,37 +1569,37 @@
       <c r="P5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S5" s="1">
         <v>1001</v>
       </c>
       <c r="T5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="V5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:22">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2226,7 +1626,7 @@
         <v>72</v>
       </c>
       <c r="N6" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>54</v>
@@ -2234,46 +1634,46 @@
       <c r="P6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S6" s="1">
         <v>1002</v>
       </c>
       <c r="T6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="U6" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="V6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:22">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
@@ -2291,7 +1691,7 @@
         <v>72</v>
       </c>
       <c r="N7" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>54</v>
@@ -2299,49 +1699,49 @@
       <c r="P7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S7" s="1">
         <v>1003</v>
       </c>
       <c r="T7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="V7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:22">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -2359,7 +1759,7 @@
         <v>72</v>
       </c>
       <c r="N8" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>54</v>
@@ -2367,37 +1767,37 @@
       <c r="P8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S8" s="1">
         <v>1004</v>
       </c>
       <c r="T8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="V8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:22">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2427,7 +1827,7 @@
         <v>72</v>
       </c>
       <c r="N9" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>54</v>
@@ -2435,37 +1835,37 @@
       <c r="P9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S9" s="1">
         <v>1005</v>
       </c>
       <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="V9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:22">
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
       <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2477,7 +1877,7 @@
         <v>1014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="2">
         <v>5</v>
@@ -2495,7 +1895,7 @@
         <v>72</v>
       </c>
       <c r="N10" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>54</v>
@@ -2503,37 +1903,37 @@
       <c r="P10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S10" s="1">
         <v>1006</v>
       </c>
       <c r="T10" t="s">
+        <v>87</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="V10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:22">
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2563,7 +1963,7 @@
         <v>72</v>
       </c>
       <c r="N11" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>54</v>
@@ -2571,37 +1971,37 @@
       <c r="P11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S11" s="1">
         <v>1007</v>
       </c>
       <c r="T11" t="s">
+        <v>92</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U11" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="V11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:22">
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2631,7 +2031,7 @@
         <v>72</v>
       </c>
       <c r="N12" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>54</v>
@@ -2639,37 +2039,37 @@
       <c r="P12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S12" s="1">
         <v>1008</v>
       </c>
       <c r="T12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="V12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:22">
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2699,7 +2099,7 @@
         <v>72</v>
       </c>
       <c r="N13" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>54</v>
@@ -2707,37 +2107,37 @@
       <c r="P13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S13" s="1">
         <v>1009</v>
       </c>
       <c r="T13" t="s">
+        <v>102</v>
+      </c>
+      <c r="U13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="U13" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="V13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:22">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2767,7 +2167,7 @@
         <v>72</v>
       </c>
       <c r="N14" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>54</v>
@@ -2775,37 +2175,37 @@
       <c r="P14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S14" s="1">
         <v>1010</v>
       </c>
       <c r="T14" t="s">
+        <v>107</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="V14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:22">
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2835,7 +2235,7 @@
         <v>72</v>
       </c>
       <c r="N15" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>54</v>
@@ -2843,37 +2243,37 @@
       <c r="P15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S15" s="1">
         <v>1011</v>
       </c>
       <c r="T15" t="s">
+        <v>112</v>
+      </c>
+      <c r="U15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="U15" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="V15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:22">
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2903,7 +2303,7 @@
         <v>72</v>
       </c>
       <c r="N16" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>54</v>
@@ -2911,37 +2311,37 @@
       <c r="P16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S16" s="1">
         <v>1012</v>
       </c>
       <c r="T16" t="s">
+        <v>117</v>
+      </c>
+      <c r="U16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="U16" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="V16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:22">
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2971,7 +2371,7 @@
         <v>72</v>
       </c>
       <c r="N17" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>54</v>
@@ -2979,49 +2379,49 @@
       <c r="P17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S17" s="1">
         <v>1013</v>
       </c>
       <c r="T17" t="s">
+        <v>122</v>
+      </c>
+      <c r="U17" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="U17" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="V17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:22">
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
       <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="G18" s="1">
         <v>1015</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="2">
         <v>3</v>
@@ -3039,7 +2439,7 @@
         <v>72</v>
       </c>
       <c r="N18" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>54</v>
@@ -3047,49 +2447,49 @@
       <c r="P18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S18" s="1">
         <v>1014</v>
       </c>
       <c r="T18" t="s">
+        <v>128</v>
+      </c>
+      <c r="U18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U18" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="V18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:22">
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="I19" s="2">
         <v>4</v>
@@ -3107,7 +2507,7 @@
         <v>72</v>
       </c>
       <c r="N19" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>54</v>
@@ -3115,37 +2515,37 @@
       <c r="P19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S19" s="1">
         <v>1015</v>
       </c>
       <c r="T19" t="s">
+        <v>136</v>
+      </c>
+      <c r="U19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="U19" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="V19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:22">
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
       <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -3175,7 +2575,7 @@
         <v>72</v>
       </c>
       <c r="N20" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>54</v>
@@ -3183,37 +2583,37 @@
       <c r="P20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S20" s="1">
         <v>1016</v>
       </c>
       <c r="T20" t="s">
+        <v>141</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="V20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:22">
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
       <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -3225,7 +2625,7 @@
         <v>1021</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -3243,7 +2643,7 @@
         <v>72</v>
       </c>
       <c r="N21" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>54</v>
@@ -3251,37 +2651,37 @@
       <c r="P21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S21" s="1">
         <v>1017</v>
       </c>
       <c r="T21" t="s">
+        <v>147</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="U21" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="V21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:22">
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
       <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -3293,7 +2693,7 @@
         <v>1023</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I22" s="2">
         <v>4</v>
@@ -3311,7 +2711,7 @@
         <v>72</v>
       </c>
       <c r="N22" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>54</v>
@@ -3319,37 +2719,37 @@
       <c r="P22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S22" s="1">
         <v>1018</v>
       </c>
       <c r="T22" t="s">
+        <v>152</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="V22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:22">
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
       <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -3361,7 +2761,7 @@
         <v>1023</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I23" s="2">
         <v>4</v>
@@ -3379,7 +2779,7 @@
         <v>72</v>
       </c>
       <c r="N23" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>54</v>
@@ -3387,37 +2787,37 @@
       <c r="P23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S23" s="1">
         <v>1019</v>
       </c>
       <c r="T23" t="s">
+        <v>157</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="V23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:22">
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
       <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -3447,7 +2847,7 @@
         <v>72</v>
       </c>
       <c r="N24" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>54</v>
@@ -3455,37 +2855,37 @@
       <c r="P24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S24" s="1">
         <v>1020</v>
       </c>
       <c r="T24" t="s">
+        <v>162</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U24" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="V24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:22">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
       <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -3497,7 +2897,7 @@
         <v>1022</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -3515,7 +2915,7 @@
         <v>72</v>
       </c>
       <c r="N25" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>54</v>
@@ -3523,49 +2923,49 @@
       <c r="P25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S25" s="1">
         <v>1021</v>
       </c>
       <c r="T25" t="s">
+        <v>167</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="U25" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="V25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:22">
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
       <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G26" s="1">
         <v>1024</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" s="2">
         <v>3</v>
@@ -3583,7 +2983,7 @@
         <v>72</v>
       </c>
       <c r="N26" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>54</v>
@@ -3591,49 +2991,49 @@
       <c r="P26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R26" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S26" s="1">
         <v>1022</v>
       </c>
       <c r="T26" t="s">
+        <v>173</v>
+      </c>
+      <c r="U26" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="U26" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="V26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:22">
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
       <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="G27" s="1">
         <v>1024</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I27" s="2">
         <v>3</v>
@@ -3651,7 +3051,7 @@
         <v>72</v>
       </c>
       <c r="N27" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>54</v>
@@ -3659,49 +3059,49 @@
       <c r="P27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R27" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S27" s="1">
         <v>1023</v>
       </c>
       <c r="T27" t="s">
+        <v>179</v>
+      </c>
+      <c r="U27" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="U27" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="V27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:22">
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
       <c r="B28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="2">
         <v>4</v>
@@ -3719,7 +3119,7 @@
         <v>72</v>
       </c>
       <c r="N28" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>54</v>
@@ -3727,37 +3127,37 @@
       <c r="P28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="Q28" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S28" s="1">
         <v>1024</v>
       </c>
       <c r="T28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:22">
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
       <c r="B29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -3769,7 +3169,7 @@
         <v>1028</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I29" s="2">
         <v>3</v>
@@ -3787,7 +3187,7 @@
         <v>72</v>
       </c>
       <c r="N29" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>54</v>
@@ -3795,37 +3195,37 @@
       <c r="P29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S29" s="1">
         <v>1025</v>
       </c>
       <c r="T29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:22">
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
       <c r="B30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3837,7 +3237,7 @@
         <v>1028</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I30" s="2">
         <v>3</v>
@@ -3855,7 +3255,7 @@
         <v>72</v>
       </c>
       <c r="N30" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>54</v>
@@ -3863,37 +3263,37 @@
       <c r="P30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="Q30" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R30" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S30" s="1">
         <v>1026</v>
       </c>
       <c r="T30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:22">
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
       <c r="B31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3902,7 +3302,7 @@
         <v>1024</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>53</v>
@@ -3923,7 +3323,7 @@
         <v>72</v>
       </c>
       <c r="N31" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>54</v>
@@ -3931,46 +3331,46 @@
       <c r="P31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="Q31" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R31" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S31" s="1">
         <v>1027</v>
       </c>
       <c r="T31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:22">
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
       <c r="B32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>53</v>
@@ -3991,7 +3391,7 @@
         <v>72</v>
       </c>
       <c r="N32" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>54</v>
@@ -3999,37 +3399,37 @@
       <c r="P32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R32" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S32" s="1">
         <v>1028</v>
       </c>
       <c r="T32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:22">
+    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
       <c r="B33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -4059,7 +3459,7 @@
         <v>72</v>
       </c>
       <c r="N33" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>54</v>
@@ -4067,37 +3467,37 @@
       <c r="P33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R33" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S33" s="1">
         <v>1029</v>
       </c>
       <c r="T33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:22">
+    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
       <c r="B34" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -4109,7 +3509,7 @@
         <v>1038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I34" s="2">
         <v>5</v>
@@ -4127,7 +3527,7 @@
         <v>72</v>
       </c>
       <c r="N34" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>54</v>
@@ -4135,37 +3535,37 @@
       <c r="P34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R34" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S34" s="1">
         <v>1030</v>
       </c>
       <c r="T34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:22">
+    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
       <c r="B35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -4195,7 +3595,7 @@
         <v>72</v>
       </c>
       <c r="N35" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>54</v>
@@ -4203,37 +3603,37 @@
       <c r="P35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="Q35" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R35" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S35" s="1">
         <v>1031</v>
       </c>
       <c r="T35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:22">
+    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
       <c r="B36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -4263,7 +3663,7 @@
         <v>72</v>
       </c>
       <c r="N36" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>54</v>
@@ -4271,37 +3671,37 @@
       <c r="P36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="Q36" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R36" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S36" s="1">
         <v>1032</v>
       </c>
       <c r="T36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:22">
+    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
       <c r="B37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -4331,7 +3731,7 @@
         <v>72</v>
       </c>
       <c r="N37" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>54</v>
@@ -4339,37 +3739,37 @@
       <c r="P37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R37" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S37" s="1">
         <v>1033</v>
       </c>
       <c r="T37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:22">
+    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
       <c r="B38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -4399,7 +3799,7 @@
         <v>72</v>
       </c>
       <c r="N38" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>54</v>
@@ -4407,37 +3807,37 @@
       <c r="P38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="Q38" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R38" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S38" s="1">
         <v>1034</v>
       </c>
       <c r="T38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:22">
+    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
       <c r="B39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -4467,7 +3867,7 @@
         <v>72</v>
       </c>
       <c r="N39" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>54</v>
@@ -4475,37 +3875,37 @@
       <c r="P39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="Q39" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R39" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S39" s="1">
         <v>1035</v>
       </c>
       <c r="T39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:22">
+    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
       <c r="B40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -4535,7 +3935,7 @@
         <v>72</v>
       </c>
       <c r="N40" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>54</v>
@@ -4543,37 +3943,37 @@
       <c r="P40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="Q40" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R40" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S40" s="1">
         <v>1036</v>
       </c>
       <c r="T40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:22">
+    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="B41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -4603,7 +4003,7 @@
         <v>72</v>
       </c>
       <c r="N41" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>54</v>
@@ -4611,49 +4011,49 @@
       <c r="P41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="Q41" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R41" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S41" s="1">
         <v>1037</v>
       </c>
       <c r="T41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:22">
+    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="B42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="G42" s="1">
         <v>1039</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="2">
         <v>3</v>
@@ -4671,7 +4071,7 @@
         <v>72</v>
       </c>
       <c r="N42" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>54</v>
@@ -4679,49 +4079,49 @@
       <c r="P42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S42" s="1">
         <v>1038</v>
       </c>
       <c r="T42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:22">
+    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
       <c r="B43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I43" s="2">
         <v>4</v>
@@ -4739,7 +4139,7 @@
         <v>72</v>
       </c>
       <c r="N43" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>54</v>
@@ -4747,37 +4147,37 @@
       <c r="P43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="Q43" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R43" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S43" s="1">
         <v>1039</v>
       </c>
       <c r="T43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:22">
+    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
       <c r="B44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -4807,7 +4207,7 @@
         <v>72</v>
       </c>
       <c r="N44" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>54</v>
@@ -4815,37 +4215,37 @@
       <c r="P44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="Q44" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R44" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S44" s="1">
         <v>1040</v>
       </c>
       <c r="T44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:22">
+    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
       <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -4857,7 +4257,7 @@
         <v>1045</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
@@ -4875,7 +4275,7 @@
         <v>72</v>
       </c>
       <c r="N45" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>54</v>
@@ -4883,37 +4283,37 @@
       <c r="P45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S45" s="1">
         <v>1041</v>
       </c>
       <c r="T45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:22">
+    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
       <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -4925,7 +4325,7 @@
         <v>1046</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I46" s="2">
         <v>4</v>
@@ -4943,7 +4343,7 @@
         <v>72</v>
       </c>
       <c r="N46" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>54</v>
@@ -4951,37 +4351,37 @@
       <c r="P46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="Q46" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R46" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S46" s="1">
         <v>1042</v>
       </c>
       <c r="T46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:22">
+    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
       <c r="B47" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -4993,7 +4393,7 @@
         <v>1046</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I47" s="2">
         <v>4</v>
@@ -5011,7 +4411,7 @@
         <v>72</v>
       </c>
       <c r="N47" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>54</v>
@@ -5019,37 +4419,37 @@
       <c r="P47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S47" s="1">
         <v>1043</v>
       </c>
       <c r="T47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:22">
+    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
       <c r="B48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -5079,7 +4479,7 @@
         <v>72</v>
       </c>
       <c r="N48" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>54</v>
@@ -5087,37 +4487,37 @@
       <c r="P48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="Q48" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R48" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S48" s="1">
         <v>1044</v>
       </c>
       <c r="T48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:22">
+    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="B49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -5129,7 +4529,7 @@
         <v>1046</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
@@ -5147,7 +4547,7 @@
         <v>72</v>
       </c>
       <c r="N49" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>54</v>
@@ -5155,49 +4555,49 @@
       <c r="P49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="Q49" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S49" s="1">
         <v>1045</v>
       </c>
       <c r="T49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:22">
+    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
       <c r="B50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I50" s="2">
         <v>4</v>
@@ -5215,7 +4615,7 @@
         <v>72</v>
       </c>
       <c r="N50" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>54</v>
@@ -5223,37 +4623,37 @@
       <c r="P50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="Q50" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="R50" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="S50" s="1">
         <v>1046</v>
       </c>
       <c r="T50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:22">
+    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
       <c r="B51" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -5262,16 +4662,16 @@
         <v>1046</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I51" s="2">
         <v>10</v>
       </c>
       <c r="J51" s="2">
-        <v>387007</v>
+        <v>434893</v>
       </c>
       <c r="K51" s="2">
-        <v>387060</v>
+        <v>434899</v>
       </c>
       <c r="L51" s="1">
         <v>80</v>
@@ -5280,45 +4680,45 @@
         <v>86</v>
       </c>
       <c r="N51" s="1">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="O51" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="P51" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>290</v>
+      <c r="Q51" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S51" s="1">
         <v>1047</v>
       </c>
       <c r="T51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:22">
+    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -5327,16 +4727,16 @@
         <v>1046</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I52" s="2">
         <v>10</v>
       </c>
       <c r="J52" s="2">
-        <v>387002</v>
+        <v>434909</v>
       </c>
       <c r="K52" s="2">
-        <v>387059</v>
+        <v>434904</v>
       </c>
       <c r="L52" s="1">
         <v>80</v>
@@ -5345,45 +4745,45 @@
         <v>86</v>
       </c>
       <c r="N52" s="1">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="O52" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="P52" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>290</v>
+      <c r="Q52" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S52" s="1">
         <v>1048</v>
       </c>
       <c r="T52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:22">
+    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
+        <v>296</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -5392,16 +4792,16 @@
         <v>1046</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I53" s="2">
         <v>10</v>
       </c>
       <c r="J53" s="2">
-        <v>387004</v>
+        <v>434910</v>
       </c>
       <c r="K53" s="2">
-        <v>387061</v>
+        <v>434897</v>
       </c>
       <c r="L53" s="1">
         <v>80</v>
@@ -5410,36 +4810,36 @@
         <v>86</v>
       </c>
       <c r="N53" s="1">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="O53" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="P53" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>290</v>
+      <c r="Q53" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S53" s="1">
         <v>1049</v>
       </c>
       <c r="T53" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82360879-1F3C-4CE4-98F7-ECF3AA465113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="302">
   <si>
     <t>int</t>
   </si>
@@ -201,6 +197,9 @@
     <t>0.5|-14</t>
   </si>
   <si>
+    <t>5|5</t>
+  </si>
+  <si>
     <t>#000000</t>
   </si>
   <si>
@@ -894,10 +893,10 @@
     <t>1|200||2|200</t>
   </si>
   <si>
-    <t>0|-4</t>
-  </si>
-  <si>
-    <t>-2.5|-9</t>
+    <t>-4|-4</t>
+  </si>
+  <si>
+    <t>-6.5|-9</t>
   </si>
   <si>
     <t>TalentTree_Desc_47</t>
@@ -934,20 +933,19 @@
   </si>
   <si>
     <t>在无尽模式下，基地耐久提高{0}</t>
-  </si>
-  <si>
-    <t>5|5</t>
-  </si>
-  <si>
-    <t>5|5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,29 +972,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1004,9 +1318,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,27 +1576,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1290,19 +1890,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" topLeftCell="H31" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -1318,7 +1918,7 @@
     <col min="21" max="21" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +2054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="42" customHeight="1" spans="1:22">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1522,8 +2122,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" ht="42" customHeight="1"/>
+    <row r="5" ht="16.5" spans="1:22">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -1569,37 +2169,37 @@
       <c r="P5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>302</v>
+      <c r="Q5" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S5" s="1">
         <v>1001</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="4" t="s">
         <v>58</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" ht="16.5" spans="1:22">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1634,46 +2234,46 @@
       <c r="P6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>302</v>
+      <c r="Q6" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S6" s="1">
         <v>1002</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U6" s="4" t="s">
         <v>63</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" ht="16.5" spans="1:22">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
@@ -1699,49 +2299,49 @@
       <c r="P7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>301</v>
+      <c r="Q7" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S7" s="1">
         <v>1003</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" ht="16.5" spans="1:22">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
@@ -1767,37 +2367,37 @@
       <c r="P8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>301</v>
+      <c r="Q8" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S8" s="1">
         <v>1004</v>
       </c>
       <c r="T8" t="s">
-        <v>76</v>
-      </c>
-      <c r="U8" s="4" t="s">
         <v>77</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" ht="16.5" spans="1:22">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1835,37 +2435,37 @@
       <c r="P9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>301</v>
+      <c r="Q9" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S9" s="1">
         <v>1005</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" ht="16.5" spans="1:22">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1877,7 +2477,7 @@
         <v>1014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" s="2">
         <v>5</v>
@@ -1903,37 +2503,37 @@
       <c r="P10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>301</v>
+      <c r="Q10" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S10" s="1">
         <v>1006</v>
       </c>
       <c r="T10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" ht="16.5" spans="1:22">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1971,37 +2571,37 @@
       <c r="P11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>301</v>
+      <c r="Q11" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S11" s="1">
         <v>1007</v>
       </c>
       <c r="T11" t="s">
-        <v>92</v>
-      </c>
-      <c r="U11" s="4" t="s">
         <v>93</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" ht="16.5" spans="1:22">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2039,37 +2639,37 @@
       <c r="P12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>301</v>
+      <c r="Q12" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S12" s="1">
         <v>1008</v>
       </c>
       <c r="T12" t="s">
-        <v>97</v>
-      </c>
-      <c r="U12" s="4" t="s">
         <v>98</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" ht="16.5" spans="1:22">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2107,37 +2707,37 @@
       <c r="P13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>301</v>
+      <c r="Q13" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S13" s="1">
         <v>1009</v>
       </c>
       <c r="T13" t="s">
-        <v>102</v>
-      </c>
-      <c r="U13" s="4" t="s">
         <v>103</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" ht="16.5" spans="1:22">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2175,37 +2775,37 @@
       <c r="P14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="5" t="s">
-        <v>301</v>
+      <c r="Q14" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S14" s="1">
         <v>1010</v>
       </c>
       <c r="T14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" ht="16.5" spans="1:22">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2243,37 +2843,37 @@
       <c r="P15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>301</v>
+      <c r="Q15" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S15" s="1">
         <v>1011</v>
       </c>
       <c r="T15" t="s">
-        <v>112</v>
-      </c>
-      <c r="U15" s="4" t="s">
         <v>113</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" ht="16.5" spans="1:22">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2311,37 +2911,37 @@
       <c r="P16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" s="5" t="s">
-        <v>301</v>
+      <c r="Q16" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S16" s="1">
         <v>1012</v>
       </c>
       <c r="T16" t="s">
-        <v>117</v>
-      </c>
-      <c r="U16" s="4" t="s">
         <v>118</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" ht="16.5" spans="1:22">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2379,49 +2979,49 @@
       <c r="P17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q17" s="5" t="s">
-        <v>301</v>
+      <c r="Q17" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S17" s="1">
         <v>1013</v>
       </c>
       <c r="T17" t="s">
-        <v>122</v>
-      </c>
-      <c r="U17" s="4" t="s">
         <v>123</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" ht="16.5" spans="1:22">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G18" s="1">
         <v>1015</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I18" s="2">
         <v>3</v>
@@ -2447,49 +3047,49 @@
       <c r="P18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q18" s="5" t="s">
-        <v>301</v>
+      <c r="Q18" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S18" s="1">
         <v>1014</v>
       </c>
       <c r="T18" t="s">
-        <v>128</v>
-      </c>
-      <c r="U18" s="4" t="s">
         <v>129</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" ht="16.5" spans="1:22">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I19" s="2">
         <v>4</v>
@@ -2515,37 +3115,37 @@
       <c r="P19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q19" s="5" t="s">
-        <v>301</v>
+      <c r="Q19" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S19" s="1">
         <v>1015</v>
       </c>
       <c r="T19" t="s">
-        <v>136</v>
-      </c>
-      <c r="U19" s="4" t="s">
         <v>137</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" ht="16.5" spans="1:22">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2583,37 +3183,37 @@
       <c r="P20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q20" s="5" t="s">
-        <v>301</v>
+      <c r="Q20" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S20" s="1">
         <v>1016</v>
       </c>
       <c r="T20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" ht="16.5" spans="1:22">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2625,7 +3225,7 @@
         <v>1021</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2651,37 +3251,37 @@
       <c r="P21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q21" s="5" t="s">
-        <v>301</v>
+      <c r="Q21" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S21" s="1">
         <v>1017</v>
       </c>
       <c r="T21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" ht="16.5" spans="1:22">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2693,7 +3293,7 @@
         <v>1023</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I22" s="2">
         <v>4</v>
@@ -2719,37 +3319,37 @@
       <c r="P22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q22" s="5" t="s">
-        <v>301</v>
+      <c r="Q22" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S22" s="1">
         <v>1018</v>
       </c>
       <c r="T22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" ht="16.5" spans="1:22">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2761,7 +3361,7 @@
         <v>1023</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I23" s="2">
         <v>4</v>
@@ -2787,37 +3387,37 @@
       <c r="P23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q23" s="5" t="s">
-        <v>301</v>
+      <c r="Q23" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S23" s="1">
         <v>1019</v>
       </c>
       <c r="T23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" ht="16.5" spans="1:22">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2855,37 +3455,37 @@
       <c r="P24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q24" s="5" t="s">
-        <v>301</v>
+      <c r="Q24" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S24" s="1">
         <v>1020</v>
       </c>
       <c r="T24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" ht="16.5" spans="1:22">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2897,7 +3497,7 @@
         <v>1022</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -2923,49 +3523,49 @@
       <c r="P25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="5" t="s">
-        <v>301</v>
+      <c r="Q25" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S25" s="1">
         <v>1021</v>
       </c>
       <c r="T25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" ht="16.5" spans="1:22">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G26" s="1">
         <v>1024</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I26" s="2">
         <v>3</v>
@@ -2991,49 +3591,49 @@
       <c r="P26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q26" s="5" t="s">
-        <v>301</v>
+      <c r="Q26" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S26" s="1">
         <v>1022</v>
       </c>
       <c r="T26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" ht="16.5" spans="1:22">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G27" s="1">
         <v>1024</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I27" s="2">
         <v>3</v>
@@ -3059,49 +3659,49 @@
       <c r="P27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q27" s="5" t="s">
-        <v>301</v>
+      <c r="Q27" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S27" s="1">
         <v>1023</v>
       </c>
       <c r="T27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" ht="16.5" spans="1:22">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I28" s="2">
         <v>4</v>
@@ -3127,37 +3727,37 @@
       <c r="P28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q28" s="5" t="s">
-        <v>301</v>
+      <c r="Q28" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S28" s="1">
         <v>1024</v>
       </c>
       <c r="T28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" ht="16.5" spans="1:22">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -3169,7 +3769,7 @@
         <v>1028</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I29" s="2">
         <v>3</v>
@@ -3195,37 +3795,37 @@
       <c r="P29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q29" s="5" t="s">
-        <v>301</v>
+      <c r="Q29" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S29" s="1">
         <v>1025</v>
       </c>
       <c r="T29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" ht="16.5" spans="1:22">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3237,7 +3837,7 @@
         <v>1028</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I30" s="2">
         <v>3</v>
@@ -3263,37 +3863,37 @@
       <c r="P30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q30" s="5" t="s">
-        <v>301</v>
+      <c r="Q30" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S30" s="1">
         <v>1026</v>
       </c>
       <c r="T30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" ht="16.5" spans="1:22">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3302,7 +3902,7 @@
         <v>1024</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>53</v>
@@ -3331,46 +3931,46 @@
       <c r="P31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q31" s="5" t="s">
-        <v>301</v>
+      <c r="Q31" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S31" s="1">
         <v>1027</v>
       </c>
       <c r="T31" t="s">
-        <v>199</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>70</v>
+        <v>200</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" ht="16.5" spans="1:22">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>53</v>
@@ -3399,37 +3999,37 @@
       <c r="P32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q32" s="5" t="s">
-        <v>301</v>
+      <c r="Q32" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S32" s="1">
         <v>1028</v>
       </c>
       <c r="T32" t="s">
-        <v>205</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>77</v>
+        <v>206</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" ht="16.5" spans="1:22">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3467,37 +4067,37 @@
       <c r="P33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q33" s="5" t="s">
-        <v>301</v>
+      <c r="Q33" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S33" s="1">
         <v>1029</v>
       </c>
       <c r="T33" t="s">
-        <v>209</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>82</v>
+        <v>210</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" ht="16.5" spans="1:22">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3509,7 +4109,7 @@
         <v>1038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I34" s="2">
         <v>5</v>
@@ -3535,37 +4135,37 @@
       <c r="P34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q34" s="5" t="s">
-        <v>301</v>
+      <c r="Q34" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S34" s="1">
         <v>1030</v>
       </c>
       <c r="T34" t="s">
-        <v>213</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>88</v>
+        <v>214</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" ht="16.5" spans="1:22">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3603,37 +4203,37 @@
       <c r="P35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q35" s="5" t="s">
-        <v>301</v>
+      <c r="Q35" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S35" s="1">
         <v>1031</v>
       </c>
       <c r="T35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" ht="16.5" spans="1:22">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3671,37 +4271,37 @@
       <c r="P36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q36" s="5" t="s">
-        <v>301</v>
+      <c r="Q36" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S36" s="1">
         <v>1032</v>
       </c>
       <c r="T36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" ht="16.5" spans="1:22">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3739,37 +4339,37 @@
       <c r="P37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q37" s="5" t="s">
-        <v>301</v>
+      <c r="Q37" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S37" s="1">
         <v>1033</v>
       </c>
       <c r="T37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" ht="16.5" spans="1:22">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3807,37 +4407,37 @@
       <c r="P38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q38" s="5" t="s">
-        <v>301</v>
+      <c r="Q38" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S38" s="1">
         <v>1034</v>
       </c>
       <c r="T38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" ht="16.5" spans="1:22">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3875,37 +4475,37 @@
       <c r="P39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q39" s="5" t="s">
-        <v>301</v>
+      <c r="Q39" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S39" s="1">
         <v>1035</v>
       </c>
       <c r="T39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" ht="16.5" spans="1:22">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -3943,37 +4543,37 @@
       <c r="P40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q40" s="5" t="s">
-        <v>301</v>
+      <c r="Q40" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S40" s="1">
         <v>1036</v>
       </c>
       <c r="T40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" ht="16.5" spans="1:22">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -4011,49 +4611,49 @@
       <c r="P41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q41" s="5" t="s">
-        <v>301</v>
+      <c r="Q41" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S41" s="1">
         <v>1037</v>
       </c>
       <c r="T41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" ht="16.5" spans="1:22">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G42" s="1">
         <v>1039</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I42" s="2">
         <v>3</v>
@@ -4079,49 +4679,49 @@
       <c r="P42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q42" s="5" t="s">
-        <v>301</v>
+      <c r="Q42" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S42" s="1">
         <v>1038</v>
       </c>
       <c r="T42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="V42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" ht="16.5" spans="1:22">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I43" s="2">
         <v>4</v>
@@ -4147,37 +4747,37 @@
       <c r="P43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q43" s="5" t="s">
-        <v>301</v>
+      <c r="Q43" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S43" s="1">
         <v>1039</v>
       </c>
       <c r="T43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" ht="16.5" spans="1:22">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -4215,37 +4815,37 @@
       <c r="P44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q44" s="5" t="s">
-        <v>301</v>
+      <c r="Q44" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S44" s="1">
         <v>1040</v>
       </c>
       <c r="T44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" ht="16.5" spans="1:22">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -4257,7 +4857,7 @@
         <v>1045</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I45" s="2">
         <v>1</v>
@@ -4283,37 +4883,37 @@
       <c r="P45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q45" s="5" t="s">
-        <v>301</v>
+      <c r="Q45" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S45" s="1">
         <v>1041</v>
       </c>
       <c r="T45" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" ht="16.5" spans="1:22">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -4325,7 +4925,7 @@
         <v>1046</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I46" s="2">
         <v>4</v>
@@ -4351,37 +4951,37 @@
       <c r="P46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q46" s="5" t="s">
-        <v>301</v>
+      <c r="Q46" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S46" s="1">
         <v>1042</v>
       </c>
       <c r="T46" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" ht="16.5" spans="1:22">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -4393,7 +4993,7 @@
         <v>1046</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I47" s="2">
         <v>4</v>
@@ -4419,37 +5019,37 @@
       <c r="P47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q47" s="5" t="s">
-        <v>301</v>
+      <c r="Q47" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S47" s="1">
         <v>1043</v>
       </c>
       <c r="T47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" ht="16.5" spans="1:22">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -4487,37 +5087,37 @@
       <c r="P48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q48" s="5" t="s">
-        <v>301</v>
+      <c r="Q48" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S48" s="1">
         <v>1044</v>
       </c>
       <c r="T48" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" ht="16.5" spans="1:22">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="B49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -4529,7 +5129,7 @@
         <v>1046</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I49" s="2">
         <v>1</v>
@@ -4555,49 +5155,49 @@
       <c r="P49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q49" s="5" t="s">
-        <v>301</v>
+      <c r="Q49" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S49" s="1">
         <v>1045</v>
       </c>
       <c r="T49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" ht="16.5" spans="1:22">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
       <c r="B50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I50" s="2">
         <v>4</v>
@@ -4623,37 +5223,37 @@
       <c r="P50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q50" s="5" t="s">
-        <v>301</v>
+      <c r="Q50" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S50" s="1">
         <v>1046</v>
       </c>
       <c r="T50" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" ht="16.5" spans="1:22">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -4662,7 +5262,7 @@
         <v>1046</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I51" s="2">
         <v>10</v>
@@ -4683,42 +5283,42 @@
         <v>80</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q51" s="5" t="s">
-        <v>301</v>
+        <v>289</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S51" s="1">
         <v>1047</v>
       </c>
       <c r="T51" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" ht="16.5" spans="1:22">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -4727,7 +5327,7 @@
         <v>1046</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I52" s="2">
         <v>10</v>
@@ -4748,42 +5348,42 @@
         <v>80</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q52" s="5" t="s">
-        <v>301</v>
+        <v>289</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S52" s="1">
         <v>1048</v>
       </c>
       <c r="T52" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" ht="16.5" spans="1:22">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -4792,7 +5392,7 @@
         <v>1046</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I53" s="2">
         <v>10</v>
@@ -4813,33 +5413,33 @@
         <v>80</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>301</v>
+        <v>289</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S53" s="1">
         <v>1049</v>
       </c>
       <c r="T53" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150F465A-D122-4AB2-876A-11A01A1A0E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -938,14 +944,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,345 +972,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1318,255 +994,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1576,9 +1010,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1586,61 +1017,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1890,19 +1277,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -1918,7 +1305,7 @@
     <col min="21" max="21" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1986,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2054,7 +1441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="42" customHeight="1" spans="1:22">
+    <row r="3" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2122,8 +1509,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1"/>
-    <row r="5" ht="16.5" spans="1:22">
+    <row r="4" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -2169,10 +1556,10 @@
       <c r="P5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S5" s="1">
@@ -2181,14 +1568,14 @@
       <c r="T5" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:22">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
@@ -2234,10 +1621,10 @@
       <c r="P6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S6" s="1">
@@ -2246,14 +1633,14 @@
       <c r="T6" t="s">
         <v>63</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:22">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
@@ -2299,10 +1686,10 @@
       <c r="P7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S7" s="1">
@@ -2318,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:22">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
@@ -2367,10 +1754,10 @@
       <c r="P8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S8" s="1">
@@ -2379,14 +1766,14 @@
       <c r="T8" t="s">
         <v>77</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:22">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
@@ -2435,10 +1822,10 @@
       <c r="P9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S9" s="1">
@@ -2454,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:22">
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
@@ -2503,10 +1890,10 @@
       <c r="P10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S10" s="1">
@@ -2522,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:22">
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -2571,10 +1958,10 @@
       <c r="P11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S11" s="1">
@@ -2583,14 +1970,14 @@
       <c r="T11" t="s">
         <v>93</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="4" t="s">
         <v>94</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:22">
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
@@ -2639,10 +2026,10 @@
       <c r="P12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S12" s="1">
@@ -2651,14 +2038,14 @@
       <c r="T12" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="4" t="s">
         <v>99</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:22">
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -2707,10 +2094,10 @@
       <c r="P13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S13" s="1">
@@ -2719,14 +2106,14 @@
       <c r="T13" t="s">
         <v>103</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="4" t="s">
         <v>104</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:22">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
@@ -2775,10 +2162,10 @@
       <c r="P14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S14" s="1">
@@ -2794,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:22">
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -2843,10 +2230,10 @@
       <c r="P15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S15" s="1">
@@ -2855,14 +2242,14 @@
       <c r="T15" t="s">
         <v>113</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="4" t="s">
         <v>114</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:22">
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -2911,10 +2298,10 @@
       <c r="P16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S16" s="1">
@@ -2923,14 +2310,14 @@
       <c r="T16" t="s">
         <v>118</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="4" t="s">
         <v>119</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:22">
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -2979,10 +2366,10 @@
       <c r="P17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S17" s="1">
@@ -2991,14 +2378,14 @@
       <c r="T17" t="s">
         <v>123</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="4" t="s">
         <v>124</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:22">
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
@@ -3047,10 +2434,10 @@
       <c r="P18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S18" s="1">
@@ -3059,14 +2446,14 @@
       <c r="T18" t="s">
         <v>129</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="4" t="s">
         <v>130</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:22">
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
@@ -3115,10 +2502,10 @@
       <c r="P19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="Q19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S19" s="1">
@@ -3127,14 +2514,14 @@
       <c r="T19" t="s">
         <v>137</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="4" t="s">
         <v>138</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:22">
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
@@ -3183,10 +2570,10 @@
       <c r="P20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S20" s="1">
@@ -3202,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:22">
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
@@ -3251,10 +2638,10 @@
       <c r="P21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="Q21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S21" s="1">
@@ -3270,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:22">
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
@@ -3319,10 +2706,10 @@
       <c r="P22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S22" s="1">
@@ -3338,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:22">
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
@@ -3387,10 +2774,10 @@
       <c r="P23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S23" s="1">
@@ -3406,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:22">
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
@@ -3455,10 +2842,10 @@
       <c r="P24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S24" s="1">
@@ -3474,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:22">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
@@ -3523,10 +2910,10 @@
       <c r="P25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="Q25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S25" s="1">
@@ -3542,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:22">
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
@@ -3591,10 +2978,10 @@
       <c r="P26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S26" s="1">
@@ -3610,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:22">
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
@@ -3659,10 +3046,10 @@
       <c r="P27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="Q27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="R27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S27" s="1">
@@ -3678,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:22">
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
@@ -3727,10 +3114,10 @@
       <c r="P28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="R28" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S28" s="1">
@@ -3746,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:22">
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
@@ -3795,10 +3182,10 @@
       <c r="P29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S29" s="1">
@@ -3814,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:22">
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
@@ -3863,10 +3250,10 @@
       <c r="P30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="Q30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="R30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S30" s="1">
@@ -3882,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:22">
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
@@ -3931,10 +3318,10 @@
       <c r="P31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="R31" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S31" s="1">
@@ -3943,14 +3330,14 @@
       <c r="T31" t="s">
         <v>200</v>
       </c>
-      <c r="U31" s="5" t="s">
+      <c r="U31" s="4" t="s">
         <v>71</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:22">
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
@@ -3999,10 +3386,10 @@
       <c r="P32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="R32" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S32" s="1">
@@ -4011,14 +3398,14 @@
       <c r="T32" t="s">
         <v>206</v>
       </c>
-      <c r="U32" s="5" t="s">
+      <c r="U32" s="4" t="s">
         <v>78</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:22">
+    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
@@ -4067,10 +3454,10 @@
       <c r="P33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="Q33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="R33" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S33" s="1">
@@ -4079,14 +3466,14 @@
       <c r="T33" t="s">
         <v>210</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="U33" s="4" t="s">
         <v>83</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:22">
+    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
@@ -4135,10 +3522,10 @@
       <c r="P34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="R34" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S34" s="1">
@@ -4147,14 +3534,14 @@
       <c r="T34" t="s">
         <v>214</v>
       </c>
-      <c r="U34" s="5" t="s">
+      <c r="U34" s="4" t="s">
         <v>89</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:22">
+    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
@@ -4203,10 +3590,10 @@
       <c r="P35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="Q35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="R35" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S35" s="1">
@@ -4222,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:22">
+    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
@@ -4271,10 +3658,10 @@
       <c r="P36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="Q36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="R36" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S36" s="1">
@@ -4290,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:22">
+    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
@@ -4339,10 +3726,10 @@
       <c r="P37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="Q37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="R37" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S37" s="1">
@@ -4358,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:22">
+    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
@@ -4407,10 +3794,10 @@
       <c r="P38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="R38" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S38" s="1">
@@ -4426,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:22">
+    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
@@ -4475,10 +3862,10 @@
       <c r="P39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="Q39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S39" s="1">
@@ -4494,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:22">
+    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
@@ -4543,10 +3930,10 @@
       <c r="P40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="R40" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S40" s="1">
@@ -4562,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:22">
+    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
@@ -4611,10 +3998,10 @@
       <c r="P41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="Q41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="R41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S41" s="1">
@@ -4630,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:22">
+    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
@@ -4679,10 +4066,10 @@
       <c r="P42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="Q42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="R42" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S42" s="1">
@@ -4698,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:22">
+    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
@@ -4747,10 +4134,10 @@
       <c r="P43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q43" s="4" t="s">
+      <c r="Q43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="R43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S43" s="1">
@@ -4766,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:22">
+    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
@@ -4815,10 +4202,10 @@
       <c r="P44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S44" s="1">
@@ -4834,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:22">
+    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
@@ -4883,10 +4270,10 @@
       <c r="P45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="R45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S45" s="1">
@@ -4902,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:22">
+    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
@@ -4951,10 +4338,10 @@
       <c r="P46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q46" s="4" t="s">
+      <c r="Q46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="R46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S46" s="1">
@@ -4970,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:22">
+    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
@@ -5019,10 +4406,10 @@
       <c r="P47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="Q47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S47" s="1">
@@ -5038,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:22">
+    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
@@ -5087,10 +4474,10 @@
       <c r="P48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="Q48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="R48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S48" s="1">
@@ -5106,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:22">
+    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
@@ -5155,10 +4542,10 @@
       <c r="P49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q49" s="4" t="s">
+      <c r="Q49" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S49" s="1">
@@ -5174,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:22">
+    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
@@ -5223,10 +4610,10 @@
       <c r="P50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q50" s="4" t="s">
+      <c r="Q50" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="R50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S50" s="1">
@@ -5242,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:22">
+    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
@@ -5276,22 +4663,22 @@
       <c r="L51" s="1">
         <v>80</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="1">
         <v>86</v>
       </c>
       <c r="N51" s="1">
         <v>80</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="O51" s="1" t="s">
         <v>288</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="Q51" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="R51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S51" s="1">
@@ -5307,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:22">
+    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
@@ -5341,22 +4728,22 @@
       <c r="L52" s="1">
         <v>80</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="1">
         <v>86</v>
       </c>
       <c r="N52" s="1">
         <v>80</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="1" t="s">
         <v>288</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="Q52" s="4" t="s">
+      <c r="Q52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="R52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S52" s="1">
@@ -5372,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:22">
+    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
@@ -5406,22 +4793,22 @@
       <c r="L53" s="1">
         <v>80</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="1">
         <v>86</v>
       </c>
       <c r="N53" s="1">
         <v>80</v>
       </c>
-      <c r="O53" s="3" t="s">
+      <c r="O53" s="1" t="s">
         <v>288</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="Q53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="R53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S53" s="1">
@@ -5438,8 +4825,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150F465A-D122-4AB2-876A-11A01A1A0E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9718F448-419E-4DF0-8FD2-CC0881823AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1285,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3295,7 +3293,7 @@
         <v>53</v>
       </c>
       <c r="I31" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" s="2">
         <v>387015</v>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9718F448-419E-4DF0-8FD2-CC0881823AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B551F-4AF6-4E36-ABC4-8D33BD0EF658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -921,29 +921,31 @@
     <t>TalentTree_Desc_48</t>
   </si>
   <si>
+    <t>TalentTree_Name_49</t>
+  </si>
+  <si>
+    <t>耐久</t>
+  </si>
+  <si>
+    <t>talentItemCanvas_49</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_49</t>
+  </si>
+  <si>
     <t>在无尽模式下，魔法伤害提高{0}%</t>
-  </si>
-  <si>
-    <t>TalentTree_Name_49</t>
-  </si>
-  <si>
-    <t>耐久</t>
-  </si>
-  <si>
-    <t>talentItemCanvas_49</t>
-  </si>
-  <si>
-    <t>TalentTree_Desc_49</t>
-  </si>
-  <si>
-    <t>在无尽模式下，基地耐久提高{0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在无尽模式下，基地耐久提高{0}%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,24 +956,21 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -998,7 +997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,9 +1008,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1281,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1300,7 +1296,8 @@
     <col min="12" max="12" width="16.875" customWidth="1"/>
     <col min="13" max="19" width="16.625" customWidth="1"/>
     <col min="20" max="20" width="20.5" customWidth="1"/>
-    <col min="21" max="21" width="30" customWidth="1"/>
+    <col min="21" max="21" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
@@ -1566,7 +1563,7 @@
       <c r="T5" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="V5">
@@ -1631,7 +1628,7 @@
       <c r="T6" t="s">
         <v>63</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="V6">
@@ -1764,7 +1761,7 @@
       <c r="T8" t="s">
         <v>77</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="V8">
@@ -1968,7 +1965,7 @@
       <c r="T11" t="s">
         <v>93</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="1" t="s">
         <v>94</v>
       </c>
       <c r="V11">
@@ -2036,7 +2033,7 @@
       <c r="T12" t="s">
         <v>98</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="V12">
@@ -2104,7 +2101,7 @@
       <c r="T13" t="s">
         <v>103</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="U13" s="1" t="s">
         <v>104</v>
       </c>
       <c r="V13">
@@ -2240,7 +2237,7 @@
       <c r="T15" t="s">
         <v>113</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="U15" s="1" t="s">
         <v>114</v>
       </c>
       <c r="V15">
@@ -2308,7 +2305,7 @@
       <c r="T16" t="s">
         <v>118</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="U16" s="1" t="s">
         <v>119</v>
       </c>
       <c r="V16">
@@ -2376,7 +2373,7 @@
       <c r="T17" t="s">
         <v>123</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="U17" s="1" t="s">
         <v>124</v>
       </c>
       <c r="V17">
@@ -2444,7 +2441,7 @@
       <c r="T18" t="s">
         <v>129</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" s="1" t="s">
         <v>130</v>
       </c>
       <c r="V18">
@@ -2512,7 +2509,7 @@
       <c r="T19" t="s">
         <v>137</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="U19" s="1" t="s">
         <v>138</v>
       </c>
       <c r="V19">
@@ -3328,7 +3325,7 @@
       <c r="T31" t="s">
         <v>200</v>
       </c>
-      <c r="U31" s="4" t="s">
+      <c r="U31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="V31">
@@ -3396,7 +3393,7 @@
       <c r="T32" t="s">
         <v>206</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="U32" s="1" t="s">
         <v>78</v>
       </c>
       <c r="V32">
@@ -3464,7 +3461,7 @@
       <c r="T33" t="s">
         <v>210</v>
       </c>
-      <c r="U33" s="4" t="s">
+      <c r="U33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="V33">
@@ -3532,7 +3529,7 @@
       <c r="T34" t="s">
         <v>214</v>
       </c>
-      <c r="U34" s="4" t="s">
+      <c r="U34" s="1" t="s">
         <v>89</v>
       </c>
       <c r="V34">
@@ -4650,7 +4647,7 @@
         <v>287</v>
       </c>
       <c r="I51" s="2">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="J51" s="2">
         <v>434893</v>
@@ -4715,7 +4712,7 @@
         <v>287</v>
       </c>
       <c r="I52" s="2">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="J52" s="2">
         <v>434909</v>
@@ -4751,7 +4748,7 @@
         <v>295</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -4762,13 +4759,13 @@
         <v>1049</v>
       </c>
       <c r="B53" t="s">
+        <v>296</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -4780,7 +4777,7 @@
         <v>287</v>
       </c>
       <c r="I53" s="2">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="J53" s="2">
         <v>434910</v>
@@ -4813,7 +4810,7 @@
         <v>1049</v>
       </c>
       <c r="T53" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>301</v>
@@ -4822,8 +4819,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I56" s="2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B551F-4AF6-4E36-ABC4-8D33BD0EF658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5567C52F-1476-42A9-8A93-A607929667C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3358,7 +3358,7 @@
         <v>53</v>
       </c>
       <c r="I32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" s="2">
         <v>387108</v>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B551F-4AF6-4E36-ABC4-8D33BD0EF658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="307">
   <si>
     <t>int</t>
   </si>
@@ -45,6 +41,9 @@
     <t>int[][]</t>
   </si>
   <si>
+    <t>float[][]</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
@@ -75,6 +74,9 @@
     <t>cost</t>
   </si>
   <si>
+    <t>lvTimes</t>
+  </si>
+  <si>
     <t>maxLevel</t>
   </si>
   <si>
@@ -141,6 +143,9 @@
     <t xml:space="preserve"> 解锁以及升级所需资源[[资源id,1级,2级,3级],[资源id,1级,2级,3级]]</t>
   </si>
   <si>
+    <t>升级曲线</t>
+  </si>
+  <si>
     <t>最大等级</t>
   </si>
   <si>
@@ -195,6 +200,9 @@
     <t>1|50|70||2|50|70</t>
   </si>
   <si>
+    <t>0|1</t>
+  </si>
+  <si>
     <t>12.5|-2</t>
   </si>
   <si>
@@ -897,10 +905,13 @@
     <t>1|200||2|200</t>
   </si>
   <si>
+    <t>0|1.06||20|1.05||40|1.02||60|1.005||80|1.002||100|1.001</t>
+  </si>
+  <si>
     <t>-4|-4</t>
   </si>
   <si>
-    <t>-6.5|-9</t>
+    <t>-15|-14</t>
   </si>
   <si>
     <t>TalentTree_Desc_47</t>
@@ -921,6 +932,9 @@
     <t>TalentTree_Desc_48</t>
   </si>
   <si>
+    <t>在无尽模式下，魔法伤害提高{0}%</t>
+  </si>
+  <si>
     <t>TalentTree_Name_49</t>
   </si>
   <si>
@@ -933,19 +947,20 @@
     <t>TalentTree_Desc_49</t>
   </si>
   <si>
-    <t>在无尽模式下，魔法伤害提高{0}%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在无尽模式下，基地耐久提高{0}%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,34 +971,348 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -991,9 +1320,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,21 +1578,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1271,19 +1886,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="G32" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -1292,15 +1907,16 @@
     <col min="5" max="5" width="31.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="63.375" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="12" width="16.875" customWidth="1"/>
-    <col min="13" max="19" width="16.625" customWidth="1"/>
-    <col min="20" max="20" width="20.5" customWidth="1"/>
-    <col min="21" max="21" width="47.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
+    <col min="14" max="20" width="16.625" customWidth="1"/>
+    <col min="21" max="21" width="20.5" customWidth="1"/>
+    <col min="22" max="22" width="47.875" customWidth="1"/>
+    <col min="23" max="23" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1326,197 +1942,206 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
       <c r="K1" t="s">
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O1" t="s">
         <v>5</v>
       </c>
       <c r="P1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
         <v>0</v>
       </c>
-      <c r="T1" t="s">
-        <v>1</v>
-      </c>
       <c r="U1" t="s">
         <v>1</v>
       </c>
       <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="W2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="42" customHeight="1" spans="1:23">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="W3" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" ht="42" customHeight="1"/>
+    <row r="5" ht="16.5" spans="1:23">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1525,63 +2150,66 @@
         <v>1004</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="2">
+        <v>56</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>387109</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>386997</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>48</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>72</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>70</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="1">
         <v>1001</v>
       </c>
-      <c r="T5" t="s">
-        <v>58</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5">
+      <c r="U5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" ht="16.5" spans="1:23">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1590,196 +2218,205 @@
         <v>1004</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="2">
+        <v>56</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>386998</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>387089</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>48</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>72</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>70</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="1">
         <v>1002</v>
       </c>
-      <c r="T6" t="s">
-        <v>63</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V6">
+      <c r="U6" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" ht="16.5" spans="1:23">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="2">
+        <v>73</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>387015</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>385893</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>48</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>72</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>70</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="1">
         <v>1003</v>
       </c>
-      <c r="T7" t="s">
-        <v>70</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V7">
+      <c r="U7" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" ht="16.5" spans="1:23">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>387108</v>
+      </c>
+      <c r="L8" s="2">
+        <v>387003</v>
+      </c>
+      <c r="M8" s="1">
+        <v>48</v>
+      </c>
+      <c r="N8" s="1">
         <v>72</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>387108</v>
-      </c>
-      <c r="K8" s="2">
-        <v>387003</v>
-      </c>
-      <c r="L8" s="1">
-        <v>48</v>
-      </c>
-      <c r="M8" s="1">
-        <v>72</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>70</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="1">
         <v>1004</v>
       </c>
-      <c r="T8" t="s">
-        <v>77</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V8">
+      <c r="U8" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" ht="16.5" spans="1:23">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1791,63 +2428,66 @@
         <v>1010</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="2">
+        <v>56</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>387011</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>387090</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>48</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>72</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>70</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S9" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="1">
         <v>1005</v>
       </c>
-      <c r="T9" t="s">
-        <v>82</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9">
+      <c r="U9" t="s">
+        <v>86</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" ht="16.5" spans="1:23">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1859,63 +2499,66 @@
         <v>1014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="2">
+        <v>91</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>387006</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>387055</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>48</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>72</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>70</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="1">
         <v>1006</v>
       </c>
-      <c r="T10" t="s">
-        <v>88</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V10">
+      <c r="U10" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" ht="16.5" spans="1:23">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1927,63 +2570,66 @@
         <v>1011</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="2">
+        <v>56</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>385317</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>385333</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>48</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>72</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>70</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="1">
         <v>1007</v>
       </c>
-      <c r="T11" t="s">
-        <v>93</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V11">
+      <c r="U11" t="s">
+        <v>97</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" ht="16.5" spans="1:23">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1995,63 +2641,66 @@
         <v>1012</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="2">
+        <v>56</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="2">
         <v>2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>385384</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>385288</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>48</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>72</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>70</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="1">
         <v>1008</v>
       </c>
-      <c r="T12" t="s">
-        <v>98</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="V12">
+      <c r="U12" t="s">
+        <v>102</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" ht="16.5" spans="1:23">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2063,63 +2712,66 @@
         <v>1013</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="2">
+        <v>56</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>385337</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>385284</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>48</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>72</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>70</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="1">
         <v>1009</v>
       </c>
-      <c r="T13" t="s">
-        <v>103</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V13">
+      <c r="U13" t="s">
+        <v>107</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" ht="16.5" spans="1:23">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2131,63 +2783,66 @@
         <v>1014</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="2">
+        <v>56</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>387000</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>387058</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>48</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>72</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>70</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="1">
         <v>1010</v>
       </c>
-      <c r="T14" t="s">
-        <v>108</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V14">
+      <c r="U14" t="s">
+        <v>112</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" ht="16.5" spans="1:23">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2199,63 +2854,66 @@
         <v>1015</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="2">
+        <v>56</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="2">
         <v>2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>385331</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>385335</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>48</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>72</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>70</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="1">
         <v>1011</v>
       </c>
-      <c r="T15" t="s">
-        <v>113</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V15">
+      <c r="U15" t="s">
+        <v>117</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" ht="16.5" spans="1:23">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2267,63 +2925,66 @@
         <v>1015</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="2">
+        <v>56</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="2">
         <v>2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>391472</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>385290</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>48</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>72</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>70</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S16" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" s="1">
         <v>1012</v>
       </c>
-      <c r="T16" t="s">
-        <v>118</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="V16">
+      <c r="U16" t="s">
+        <v>122</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" ht="16.5" spans="1:23">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2335,199 +2996,208 @@
         <v>1015</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="2">
+        <v>56</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="2">
         <v>2</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>385338</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>385286</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>48</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>72</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>70</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S17" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" s="1">
         <v>1013</v>
       </c>
-      <c r="T17" t="s">
-        <v>123</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V17">
+      <c r="U17" t="s">
+        <v>127</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" ht="16.5" spans="1:23">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G18" s="1">
         <v>1015</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="2">
+        <v>73</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="2">
         <v>3</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>387013</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>387088</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>48</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>72</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>70</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S18" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="1">
         <v>1014</v>
       </c>
-      <c r="T18" t="s">
-        <v>129</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="V18">
+      <c r="U18" t="s">
+        <v>133</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" ht="16.5" spans="1:23">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="2">
+        <v>140</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="2">
         <v>4</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>387110</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <v>387087</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>48</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>72</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>70</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S19" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" s="1">
         <v>1015</v>
       </c>
-      <c r="T19" t="s">
-        <v>137</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V19">
+      <c r="U19" t="s">
+        <v>141</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" ht="16.5" spans="1:23">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2539,63 +3209,66 @@
         <v>1020</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="2">
+        <v>56</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="2">
         <v>2</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>387010</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="2">
         <v>387086</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>48</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>72</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>70</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S20" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="1">
         <v>1016</v>
       </c>
-      <c r="T20" t="s">
-        <v>142</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="V20">
+      <c r="U20" t="s">
+        <v>146</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" ht="16.5" spans="1:23">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2607,63 +3280,66 @@
         <v>1021</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
         <v>387111</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>387005</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>48</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>72</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>70</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S21" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="1">
         <v>1017</v>
       </c>
-      <c r="T21" t="s">
-        <v>148</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="V21">
+      <c r="U21" t="s">
+        <v>152</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" ht="16.5" spans="1:23">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2675,63 +3351,66 @@
         <v>1023</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="2">
+        <v>140</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="2">
         <v>4</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>387014</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <v>387062</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>48</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>72</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>70</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S22" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" s="1">
         <v>1018</v>
       </c>
-      <c r="T22" t="s">
-        <v>153</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V22">
+      <c r="U22" t="s">
+        <v>157</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" ht="16.5" spans="1:23">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2743,63 +3422,66 @@
         <v>1023</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" s="2">
+        <v>140</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="2">
         <v>4</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>386996</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>387056</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>48</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>72</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>70</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S23" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T23" s="1">
         <v>1019</v>
       </c>
-      <c r="T23" t="s">
-        <v>158</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="V23">
+      <c r="U23" t="s">
+        <v>162</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" ht="16.5" spans="1:23">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2811,63 +3493,66 @@
         <v>1022</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="2">
+        <v>56</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="2">
         <v>2</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>387112</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="2">
         <v>387084</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>48</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>72</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>70</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S24" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T24" s="1">
         <v>1020</v>
       </c>
-      <c r="T24" t="s">
-        <v>163</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="V24">
+      <c r="U24" t="s">
+        <v>167</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" ht="16.5" spans="1:23">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2879,267 +3564,279 @@
         <v>1022</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
         <v>387107</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <v>387085</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>48</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>72</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>70</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S25" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T25" s="1">
         <v>1021</v>
       </c>
-      <c r="T25" t="s">
-        <v>168</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="V25">
+      <c r="U25" t="s">
+        <v>172</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" ht="16.5" spans="1:23">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G26" s="1">
         <v>1024</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="2">
+        <v>73</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="2">
         <v>3</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>387012</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>387057</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>48</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>72</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>70</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S26" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T26" s="1">
         <v>1022</v>
       </c>
-      <c r="T26" t="s">
-        <v>174</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="V26">
+      <c r="U26" t="s">
+        <v>178</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="W26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" ht="16.5" spans="1:23">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G27" s="1">
         <v>1024</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" s="2">
+        <v>73</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="2">
         <v>3</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <v>386999</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <v>387063</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>48</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>72</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>70</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S27" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T27" s="1">
         <v>1023</v>
       </c>
-      <c r="T27" t="s">
-        <v>180</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="V27">
+      <c r="U27" t="s">
+        <v>184</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="W27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" ht="16.5" spans="1:23">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I28" s="2">
+        <v>140</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="2">
         <v>4</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <v>387110</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="2">
         <v>387087</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>48</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>72</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>70</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S28" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T28" s="1">
         <v>1024</v>
       </c>
-      <c r="T28" t="s">
-        <v>187</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V28">
+      <c r="U28" t="s">
+        <v>191</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" ht="16.5" spans="1:23">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -3151,63 +3848,66 @@
         <v>1028</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="2">
+        <v>73</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="2">
         <v>3</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>387109</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <v>386997</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>48</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>72</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>70</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S29" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T29" s="1">
         <v>1025</v>
       </c>
-      <c r="T29" t="s">
-        <v>191</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V29">
+      <c r="U29" t="s">
+        <v>195</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" ht="16.5" spans="1:23">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3219,63 +3919,66 @@
         <v>1028</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="2">
+        <v>73</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="2">
         <v>3</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>386998</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <v>387089</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>48</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>72</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>70</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S30" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T30" s="1">
         <v>1026</v>
       </c>
-      <c r="T30" t="s">
-        <v>195</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V30">
+      <c r="U30" t="s">
+        <v>199</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" ht="16.5" spans="1:23">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3284,134 +3987,140 @@
         <v>1024</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="2">
+        <v>56</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="2">
         <v>2</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>387015</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="2">
         <v>385893</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>48</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>72</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>70</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S31" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T31" s="1">
         <v>1027</v>
       </c>
-      <c r="T31" t="s">
-        <v>200</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V31">
+      <c r="U31" t="s">
+        <v>204</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" ht="16.5" spans="1:23">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="2">
+        <v>56</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="2">
         <v>3</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>387108</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <v>387003</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>48</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>72</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>70</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S32" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T32" s="1">
         <v>1028</v>
       </c>
-      <c r="T32" t="s">
-        <v>206</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V32">
+      <c r="U32" t="s">
+        <v>210</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" ht="16.5" spans="1:23">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3423,63 +4132,66 @@
         <v>1034</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="2">
+        <v>56</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="2">
         <v>2</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>387011</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <v>387090</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>48</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <v>72</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>70</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S33" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T33" s="1">
         <v>1029</v>
       </c>
-      <c r="T33" t="s">
-        <v>210</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V33">
+      <c r="U33" t="s">
+        <v>214</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" ht="16.5" spans="1:23">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3491,63 +4203,66 @@
         <v>1038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I34" s="2">
+        <v>91</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="2">
         <v>5</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>387006</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="2">
         <v>387055</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>48</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <v>72</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>70</v>
       </c>
-      <c r="O34" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S34" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T34" s="1">
         <v>1030</v>
       </c>
-      <c r="T34" t="s">
-        <v>214</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V34">
+      <c r="U34" t="s">
+        <v>218</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" ht="16.5" spans="1:23">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3559,63 +4274,66 @@
         <v>1035</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I35" s="2">
+        <v>56</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="2">
         <v>2</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>385317</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="2">
         <v>385333</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>48</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <v>72</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>70</v>
       </c>
-      <c r="O35" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S35" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T35" s="1">
         <v>1031</v>
       </c>
-      <c r="T35" t="s">
-        <v>218</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V35">
+      <c r="U35" t="s">
+        <v>222</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" ht="16.5" spans="1:23">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3627,63 +4345,66 @@
         <v>1036</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I36" s="2">
+        <v>56</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="2">
         <v>2</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>385384</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="2">
         <v>385288</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>48</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <v>72</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <v>70</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S36" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T36" s="1">
         <v>1032</v>
       </c>
-      <c r="T36" t="s">
-        <v>222</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="V36">
+      <c r="U36" t="s">
+        <v>226</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" ht="16.5" spans="1:23">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3695,63 +4416,66 @@
         <v>1037</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="2">
+        <v>56</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="2">
         <v>2</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>385337</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="2">
         <v>385284</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>48</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
         <v>72</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <v>70</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S37" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T37" s="1">
         <v>1033</v>
       </c>
-      <c r="T37" t="s">
-        <v>226</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V37">
+      <c r="U37" t="s">
+        <v>230</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" ht="16.5" spans="1:23">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3763,63 +4487,66 @@
         <v>1038</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" s="2">
+        <v>56</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="2">
         <v>2</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>387000</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>387058</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>48</v>
       </c>
-      <c r="M38" s="1">
+      <c r="N38" s="1">
         <v>72</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="1">
         <v>70</v>
       </c>
-      <c r="O38" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S38" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T38" s="1">
         <v>1034</v>
       </c>
-      <c r="T38" t="s">
-        <v>230</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V38">
+      <c r="U38" t="s">
+        <v>234</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" ht="16.5" spans="1:23">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3831,63 +4558,66 @@
         <v>1039</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I39" s="2">
+        <v>56</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="2">
         <v>2</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>385331</v>
       </c>
-      <c r="K39" s="2">
+      <c r="L39" s="2">
         <v>385335</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <v>48</v>
       </c>
-      <c r="M39" s="1">
+      <c r="N39" s="1">
         <v>72</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <v>70</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S39" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T39" s="1">
         <v>1035</v>
       </c>
-      <c r="T39" t="s">
-        <v>234</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V39">
+      <c r="U39" t="s">
+        <v>238</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" ht="16.5" spans="1:23">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -3899,63 +4629,66 @@
         <v>1039</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I40" s="2">
+        <v>56</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="2">
         <v>2</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>391472</v>
       </c>
-      <c r="K40" s="2">
+      <c r="L40" s="2">
         <v>385290</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <v>48</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="1">
         <v>72</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <v>70</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S40" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T40" s="1">
         <v>1036</v>
       </c>
-      <c r="T40" t="s">
-        <v>238</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="V40">
+      <c r="U40" t="s">
+        <v>242</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" ht="16.5" spans="1:23">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -3967,199 +4700,208 @@
         <v>1039</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I41" s="2">
+        <v>56</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="2">
         <v>2</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>385338</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L41" s="2">
         <v>385286</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <v>48</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41" s="1">
         <v>72</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>70</v>
       </c>
-      <c r="O41" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S41" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T41" s="1">
         <v>1037</v>
       </c>
-      <c r="T41" t="s">
-        <v>242</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V41">
+      <c r="U41" t="s">
+        <v>246</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" ht="16.5" spans="1:23">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G42" s="1">
         <v>1039</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="2">
+        <v>73</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="2">
         <v>3</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>387013</v>
       </c>
-      <c r="K42" s="2">
+      <c r="L42" s="2">
         <v>387088</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <v>48</v>
       </c>
-      <c r="M42" s="1">
+      <c r="N42" s="1">
         <v>72</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <v>70</v>
       </c>
-      <c r="O42" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S42" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T42" s="1">
         <v>1038</v>
       </c>
-      <c r="T42" t="s">
-        <v>247</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="V42">
+      <c r="U42" t="s">
+        <v>251</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" ht="16.5" spans="1:23">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I43" s="2">
+        <v>140</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="2">
         <v>4</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>387110</v>
       </c>
-      <c r="K43" s="2">
+      <c r="L43" s="2">
         <v>387087</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <v>48</v>
       </c>
-      <c r="M43" s="1">
+      <c r="N43" s="1">
         <v>72</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <v>70</v>
       </c>
-      <c r="O43" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S43" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T43" s="1">
         <v>1039</v>
       </c>
-      <c r="T43" t="s">
-        <v>253</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V43">
+      <c r="U43" t="s">
+        <v>257</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" ht="16.5" spans="1:23">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -4171,63 +4913,66 @@
         <v>1044</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="2">
+        <v>56</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="2">
         <v>2</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>387010</v>
       </c>
-      <c r="K44" s="2">
+      <c r="L44" s="2">
         <v>387086</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <v>48</v>
       </c>
-      <c r="M44" s="1">
+      <c r="N44" s="1">
         <v>72</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <v>70</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S44" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T44" s="1">
         <v>1040</v>
       </c>
-      <c r="T44" t="s">
-        <v>257</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="V44">
+      <c r="U44" t="s">
+        <v>261</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" ht="16.5" spans="1:23">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -4239,63 +4984,66 @@
         <v>1045</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I45" s="2">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
         <v>387111</v>
       </c>
-      <c r="K45" s="2">
+      <c r="L45" s="2">
         <v>387005</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <v>48</v>
       </c>
-      <c r="M45" s="1">
+      <c r="N45" s="1">
         <v>72</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <v>70</v>
       </c>
-      <c r="O45" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S45" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T45" s="1">
         <v>1041</v>
       </c>
-      <c r="T45" t="s">
-        <v>261</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="V45">
+      <c r="U45" t="s">
+        <v>265</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" ht="16.5" spans="1:23">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -4307,63 +5055,66 @@
         <v>1046</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I46" s="2">
+        <v>140</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="2">
         <v>4</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>387014</v>
       </c>
-      <c r="K46" s="2">
+      <c r="L46" s="2">
         <v>387062</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <v>48</v>
       </c>
-      <c r="M46" s="1">
+      <c r="N46" s="1">
         <v>72</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <v>70</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S46" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T46" s="1">
         <v>1042</v>
       </c>
-      <c r="T46" t="s">
-        <v>265</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V46">
+      <c r="U46" t="s">
+        <v>269</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="W46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" ht="16.5" spans="1:23">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -4375,63 +5126,66 @@
         <v>1046</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I47" s="2">
+        <v>140</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="2">
         <v>4</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>386996</v>
       </c>
-      <c r="K47" s="2">
+      <c r="L47" s="2">
         <v>387056</v>
       </c>
-      <c r="L47" s="1">
+      <c r="M47" s="1">
         <v>48</v>
       </c>
-      <c r="M47" s="1">
+      <c r="N47" s="1">
         <v>72</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <v>70</v>
       </c>
-      <c r="O47" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S47" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T47" s="1">
         <v>1043</v>
       </c>
-      <c r="T47" t="s">
-        <v>269</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="V47">
+      <c r="U47" t="s">
+        <v>273</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" ht="16.5" spans="1:23">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -4443,63 +5197,66 @@
         <v>1046</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I48" s="2">
+        <v>56</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" s="2">
         <v>2</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>387112</v>
       </c>
-      <c r="K48" s="2">
+      <c r="L48" s="2">
         <v>387084</v>
       </c>
-      <c r="L48" s="1">
+      <c r="M48" s="1">
         <v>48</v>
       </c>
-      <c r="M48" s="1">
+      <c r="N48" s="1">
         <v>72</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <v>70</v>
       </c>
-      <c r="O48" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S48" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T48" s="1">
         <v>1044</v>
       </c>
-      <c r="T48" t="s">
-        <v>273</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="V48">
+      <c r="U48" t="s">
+        <v>277</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" ht="16.5" spans="1:23">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
       <c r="B49" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -4511,131 +5268,137 @@
         <v>1046</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I49" s="2">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
         <v>387107</v>
       </c>
-      <c r="K49" s="2">
+      <c r="L49" s="2">
         <v>387085</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <v>48</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49" s="1">
         <v>72</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <v>70</v>
       </c>
-      <c r="O49" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S49" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T49" s="1">
         <v>1045</v>
       </c>
-      <c r="T49" t="s">
-        <v>277</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="V49">
+      <c r="U49" t="s">
+        <v>281</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" ht="16.5" spans="1:23">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I50" s="2">
+        <v>140</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="2">
         <v>4</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>387012</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L50" s="2">
         <v>387057</v>
       </c>
-      <c r="L50" s="1">
+      <c r="M50" s="1">
         <v>48</v>
       </c>
-      <c r="M50" s="1">
+      <c r="N50" s="1">
         <v>72</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <v>70</v>
       </c>
-      <c r="O50" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="P50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S50" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T50" s="1">
         <v>1046</v>
       </c>
-      <c r="T50" t="s">
-        <v>283</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V50">
+      <c r="U50" t="s">
+        <v>287</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="W50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" ht="16.5" spans="1:23">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -4644,63 +5407,66 @@
         <v>1046</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I51" s="2">
+        <v>291</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J51" s="2">
         <v>999</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <v>434893</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L51" s="2">
         <v>434899</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="1">
         <v>80</v>
       </c>
-      <c r="M51" s="1">
-        <v>86</v>
-      </c>
       <c r="N51" s="1">
+        <v>100</v>
+      </c>
+      <c r="O51" s="1">
         <v>80</v>
       </c>
-      <c r="O51" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="P51" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S51" s="1">
+        <v>293</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T51" s="1">
         <v>1047</v>
       </c>
-      <c r="T51" t="s">
-        <v>290</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="V51">
+      <c r="U51" t="s">
+        <v>295</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="W51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" ht="16.5" spans="1:23">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -4709,63 +5475,66 @@
         <v>1046</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I52" s="2">
+        <v>291</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J52" s="2">
         <v>999</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <v>434909</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L52" s="2">
         <v>434904</v>
       </c>
-      <c r="L52" s="1">
+      <c r="M52" s="1">
         <v>80</v>
       </c>
-      <c r="M52" s="1">
-        <v>86</v>
-      </c>
       <c r="N52" s="1">
+        <v>100</v>
+      </c>
+      <c r="O52" s="1">
         <v>80</v>
       </c>
-      <c r="O52" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="P52" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S52" s="1">
+        <v>293</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T52" s="1">
         <v>1048</v>
       </c>
-      <c r="T52" t="s">
-        <v>295</v>
-      </c>
-      <c r="U52" s="1" t="s">
+      <c r="U52" t="s">
         <v>300</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="W52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" ht="16.5" spans="1:23">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -4774,57 +5543,61 @@
         <v>1046</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I53" s="2">
+        <v>291</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J53" s="2">
         <v>999</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <v>434910</v>
       </c>
-      <c r="K53" s="2">
+      <c r="L53" s="2">
         <v>434897</v>
       </c>
-      <c r="L53" s="1">
+      <c r="M53" s="1">
         <v>80</v>
       </c>
-      <c r="M53" s="1">
-        <v>86</v>
-      </c>
       <c r="N53" s="1">
+        <v>100</v>
+      </c>
+      <c r="O53" s="1">
         <v>80</v>
       </c>
-      <c r="O53" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="P53" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S53" s="1">
+        <v>293</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T53" s="1">
         <v>1049</v>
       </c>
-      <c r="T53" t="s">
-        <v>299</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="V53">
+      <c r="U53" t="s">
+        <v>305</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="W53">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="56" ht="16.5" spans="9:10">
       <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F41F6-18DC-49AD-BE25-E6276E2F911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -902,9 +906,6 @@
     <t>talentItemCanvas_47</t>
   </si>
   <si>
-    <t>1|200||2|200</t>
-  </si>
-  <si>
     <t>0|1.06||20|1.05||40|1.02||60|1.005||80|1.002||100|1.001</t>
   </si>
   <si>
@@ -948,19 +949,17 @@
   </si>
   <si>
     <t>在无尽模式下，基地耐久提高{0}%</t>
+  </si>
+  <si>
+    <t>1|50||2|50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,345 +973,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1320,251 +1003,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1578,65 +1019,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1886,19 +1283,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G32" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -1916,7 +1313,7 @@
     <col min="23" max="23" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +1455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="42" customHeight="1" spans="1:23">
+    <row r="3" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2129,8 +1526,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1"/>
-    <row r="5" ht="16.5" spans="1:23">
+    <row r="4" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -2179,7 +1576,7 @@
       <c r="Q5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -2198,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:23">
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
@@ -2247,7 +1644,7 @@
       <c r="Q6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -2266,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:23">
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
@@ -2315,7 +1712,7 @@
       <c r="Q7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -2334,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:23">
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
@@ -2386,7 +1783,7 @@
       <c r="Q8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -2405,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:23">
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
@@ -2457,7 +1854,7 @@
       <c r="Q9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S9" s="1" t="s">
@@ -2476,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:23">
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
@@ -2528,7 +1925,7 @@
       <c r="Q10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -2547,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:23">
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -2599,7 +1996,7 @@
       <c r="Q11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -2618,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:23">
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
@@ -2670,7 +2067,7 @@
       <c r="Q12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -2689,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:23">
+    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -2741,7 +2138,7 @@
       <c r="Q13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -2760,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:23">
+    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
@@ -2812,7 +2209,7 @@
       <c r="Q14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -2831,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:23">
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -2883,7 +2280,7 @@
       <c r="Q15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -2902,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:23">
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -2954,7 +2351,7 @@
       <c r="Q16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -2973,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:23">
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -3025,7 +2422,7 @@
       <c r="Q17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -3044,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:23">
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
@@ -3096,7 +2493,7 @@
       <c r="Q18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S18" s="1" t="s">
@@ -3115,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:23">
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
@@ -3167,7 +2564,7 @@
       <c r="Q19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S19" s="1" t="s">
@@ -3186,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:23">
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
@@ -3238,7 +2635,7 @@
       <c r="Q20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -3257,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:23">
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
@@ -3309,7 +2706,7 @@
       <c r="Q21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S21" s="1" t="s">
@@ -3328,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:23">
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
@@ -3380,7 +2777,7 @@
       <c r="Q22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S22" s="1" t="s">
@@ -3399,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:23">
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
@@ -3451,7 +2848,7 @@
       <c r="Q23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -3470,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:23">
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
@@ -3522,7 +2919,7 @@
       <c r="Q24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S24" s="1" t="s">
@@ -3541,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:23">
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
@@ -3593,7 +2990,7 @@
       <c r="Q25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S25" s="1" t="s">
@@ -3612,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:23">
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
@@ -3664,7 +3061,7 @@
       <c r="Q26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S26" s="1" t="s">
@@ -3683,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:23">
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
@@ -3735,7 +3132,7 @@
       <c r="Q27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="R27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S27" s="1" t="s">
@@ -3754,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:23">
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
@@ -3806,7 +3203,7 @@
       <c r="Q28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="R28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S28" s="1" t="s">
@@ -3825,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:23">
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
@@ -3877,7 +3274,7 @@
       <c r="Q29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S29" s="1" t="s">
@@ -3896,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:23">
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
@@ -3948,7 +3345,7 @@
       <c r="Q30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="R30" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S30" s="1" t="s">
@@ -3967,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:23">
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
@@ -4019,7 +3416,7 @@
       <c r="Q31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="R31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S31" s="1" t="s">
@@ -4038,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:23">
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
@@ -4067,7 +3464,7 @@
         <v>57</v>
       </c>
       <c r="J32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" s="2">
         <v>387108</v>
@@ -4090,7 +3487,7 @@
       <c r="Q32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="R32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S32" s="1" t="s">
@@ -4109,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:23">
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
@@ -4161,7 +3558,7 @@
       <c r="Q33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="R33" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S33" s="1" t="s">
@@ -4180,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:23">
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
@@ -4232,7 +3629,7 @@
       <c r="Q34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="R34" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S34" s="1" t="s">
@@ -4251,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:23">
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
@@ -4303,7 +3700,7 @@
       <c r="Q35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="R35" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S35" s="1" t="s">
@@ -4322,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:23">
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
@@ -4374,7 +3771,7 @@
       <c r="Q36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="R36" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S36" s="1" t="s">
@@ -4393,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:23">
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
@@ -4445,7 +3842,7 @@
       <c r="Q37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="R37" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S37" s="1" t="s">
@@ -4464,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:23">
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
@@ -4516,7 +3913,7 @@
       <c r="Q38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="R38" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S38" s="1" t="s">
@@ -4535,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:23">
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
@@ -4587,7 +3984,7 @@
       <c r="Q39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S39" s="1" t="s">
@@ -4606,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:23">
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
@@ -4658,7 +4055,7 @@
       <c r="Q40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="R40" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S40" s="1" t="s">
@@ -4677,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:23">
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
@@ -4729,7 +4126,7 @@
       <c r="Q41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="R41" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S41" s="1" t="s">
@@ -4748,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:23">
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
@@ -4800,7 +4197,7 @@
       <c r="Q42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R42" s="3" t="s">
+      <c r="R42" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S42" s="1" t="s">
@@ -4819,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:23">
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
@@ -4871,7 +4268,7 @@
       <c r="Q43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="R43" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S43" s="1" t="s">
@@ -4890,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:23">
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
@@ -4942,7 +4339,7 @@
       <c r="Q44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S44" s="1" t="s">
@@ -4961,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:23">
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
@@ -5013,7 +4410,7 @@
       <c r="Q45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="R45" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S45" s="1" t="s">
@@ -5032,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:23">
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
@@ -5084,7 +4481,7 @@
       <c r="Q46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="R46" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S46" s="1" t="s">
@@ -5103,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:23">
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
@@ -5155,7 +4552,7 @@
       <c r="Q47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S47" s="1" t="s">
@@ -5174,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:23">
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
@@ -5226,7 +4623,7 @@
       <c r="Q48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R48" s="3" t="s">
+      <c r="R48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S48" s="1" t="s">
@@ -5245,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:23">
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
@@ -5297,7 +4694,7 @@
       <c r="Q49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S49" s="1" t="s">
@@ -5316,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:23">
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
@@ -5368,7 +4765,7 @@
       <c r="Q50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="R50" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S50" s="1" t="s">
@@ -5387,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:23">
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
@@ -5406,11 +4803,11 @@
       <c r="F51" s="1">
         <v>1046</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="J51" s="2">
         <v>999</v>
@@ -5431,12 +4828,12 @@
         <v>80</v>
       </c>
       <c r="P51" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q51" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="Q51" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="R51" s="3" t="s">
+      <c r="R51" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S51" s="1" t="s">
@@ -5446,27 +4843,27 @@
         <v>1047</v>
       </c>
       <c r="U51" t="s">
+        <v>294</v>
+      </c>
+      <c r="V51" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="W51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:23">
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
+        <v>296</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -5474,11 +4871,11 @@
       <c r="F52" s="1">
         <v>1046</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="J52" s="2">
         <v>999</v>
@@ -5499,12 +4896,12 @@
         <v>80</v>
       </c>
       <c r="P52" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q52" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="Q52" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="R52" s="3" t="s">
+      <c r="R52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S52" s="1" t="s">
@@ -5514,27 +4911,27 @@
         <v>1048</v>
       </c>
       <c r="U52" t="s">
+        <v>299</v>
+      </c>
+      <c r="V52" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="W52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:23">
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
+        <v>301</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -5542,11 +4939,11 @@
       <c r="F53" s="1">
         <v>1046</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="J53" s="2">
         <v>999</v>
@@ -5567,12 +4964,12 @@
         <v>80</v>
       </c>
       <c r="P53" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q53" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="Q53" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="R53" s="3" t="s">
+      <c r="R53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="S53" s="1" t="s">
@@ -5582,22 +4979,22 @@
         <v>1049</v>
       </c>
       <c r="U53" t="s">
+        <v>304</v>
+      </c>
+      <c r="V53" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="W53">
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="9:10">
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F41F6-18DC-49AD-BE25-E6276E2F911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -915,6 +911,9 @@
     <t>-15|-14</t>
   </si>
   <si>
+    <t>0|0</t>
+  </si>
+  <si>
     <t>TalentTree_Desc_47</t>
   </si>
   <si>
@@ -949,17 +948,26 @@
   </si>
   <si>
     <t>在无尽模式下，基地耐久提高{0}%</t>
-  </si>
-  <si>
-    <t>1|50||2|50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,29 +981,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1003,9 +1327,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,23 +1583,67 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1283,19 +1893,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -1313,7 +1923,7 @@
     <col min="23" max="23" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1455,7 +2065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="42" customHeight="1" spans="1:23">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1526,8 +2136,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" ht="42" customHeight="1"/>
+    <row r="5" ht="16.5" spans="1:23">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -1549,16 +2159,16 @@
       <c r="H5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>387109</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>386997</v>
       </c>
       <c r="M5" s="1">
@@ -1595,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" ht="16.5" spans="1:23">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
@@ -1617,16 +2227,16 @@
       <c r="H6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>386998</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3">
         <v>387089</v>
       </c>
       <c r="M6" s="1">
@@ -1663,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" ht="16.5" spans="1:23">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
@@ -1685,16 +2295,16 @@
       <c r="H7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>3</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>387015</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>385893</v>
       </c>
       <c r="M7" s="1">
@@ -1731,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" ht="16.5" spans="1:23">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
@@ -1756,16 +2366,16 @@
       <c r="H8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>3</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>387108</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>387003</v>
       </c>
       <c r="M8" s="1">
@@ -1802,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" ht="16.5" spans="1:23">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
@@ -1827,16 +2437,16 @@
       <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>387011</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>387090</v>
       </c>
       <c r="M9" s="1">
@@ -1873,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" ht="16.5" spans="1:23">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
@@ -1898,16 +2508,16 @@
       <c r="H10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>5</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="3">
         <v>387006</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="3">
         <v>387055</v>
       </c>
       <c r="M10" s="1">
@@ -1944,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" ht="16.5" spans="1:23">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -1969,16 +2579,16 @@
       <c r="H11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>2</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>385317</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3">
         <v>385333</v>
       </c>
       <c r="M11" s="1">
@@ -2015,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" ht="16.5" spans="1:23">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
@@ -2040,16 +2650,16 @@
       <c r="H12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="3">
         <v>385384</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3">
         <v>385288</v>
       </c>
       <c r="M12" s="1">
@@ -2086,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" ht="16.5" spans="1:23">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -2111,16 +2721,16 @@
       <c r="H13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="3">
         <v>385337</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3">
         <v>385284</v>
       </c>
       <c r="M13" s="1">
@@ -2157,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" ht="16.5" spans="1:23">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
@@ -2182,16 +2792,16 @@
       <c r="H14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>2</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="3">
         <v>387000</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3">
         <v>387058</v>
       </c>
       <c r="M14" s="1">
@@ -2228,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" ht="16.5" spans="1:23">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -2253,16 +2863,16 @@
       <c r="H15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <v>2</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="3">
         <v>385331</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3">
         <v>385335</v>
       </c>
       <c r="M15" s="1">
@@ -2299,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" ht="16.5" spans="1:23">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -2324,16 +2934,16 @@
       <c r="H16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="3">
         <v>391472</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="3">
         <v>385290</v>
       </c>
       <c r="M16" s="1">
@@ -2370,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" ht="16.5" spans="1:23">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -2395,16 +3005,16 @@
       <c r="H17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="3">
         <v>2</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="3">
         <v>385338</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="3">
         <v>385286</v>
       </c>
       <c r="M17" s="1">
@@ -2441,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" ht="16.5" spans="1:23">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
@@ -2466,16 +3076,16 @@
       <c r="H18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>3</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="3">
         <v>387013</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="3">
         <v>387088</v>
       </c>
       <c r="M18" s="1">
@@ -2512,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" ht="16.5" spans="1:23">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
@@ -2537,16 +3147,16 @@
       <c r="H19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="3">
         <v>4</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="3">
         <v>387110</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="3">
         <v>387087</v>
       </c>
       <c r="M19" s="1">
@@ -2583,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" ht="16.5" spans="1:23">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
@@ -2608,16 +3218,16 @@
       <c r="H20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="3">
         <v>2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="3">
         <v>387010</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="3">
         <v>387086</v>
       </c>
       <c r="M20" s="1">
@@ -2654,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" ht="16.5" spans="1:23">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
@@ -2679,16 +3289,16 @@
       <c r="H21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
         <v>387111</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="3">
         <v>387005</v>
       </c>
       <c r="M21" s="1">
@@ -2725,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" ht="16.5" spans="1:23">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
@@ -2750,16 +3360,16 @@
       <c r="H22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="3">
         <v>4</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="3">
         <v>387014</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="3">
         <v>387062</v>
       </c>
       <c r="M22" s="1">
@@ -2796,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" ht="16.5" spans="1:23">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
@@ -2821,16 +3431,16 @@
       <c r="H23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="3">
         <v>4</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="3">
         <v>386996</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="3">
         <v>387056</v>
       </c>
       <c r="M23" s="1">
@@ -2867,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" ht="16.5" spans="1:23">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
@@ -2892,16 +3502,16 @@
       <c r="H24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="3">
         <v>2</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="3">
         <v>387112</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="3">
         <v>387084</v>
       </c>
       <c r="M24" s="1">
@@ -2938,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" ht="16.5" spans="1:23">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
@@ -2963,16 +3573,16 @@
       <c r="H25" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
         <v>387107</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="3">
         <v>387085</v>
       </c>
       <c r="M25" s="1">
@@ -3009,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" ht="16.5" spans="1:23">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
@@ -3034,16 +3644,16 @@
       <c r="H26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="3">
         <v>3</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="3">
         <v>387012</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="3">
         <v>387057</v>
       </c>
       <c r="M26" s="1">
@@ -3080,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" ht="16.5" spans="1:23">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
@@ -3105,16 +3715,16 @@
       <c r="H27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="3">
         <v>3</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="3">
         <v>386999</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="3">
         <v>387063</v>
       </c>
       <c r="M27" s="1">
@@ -3151,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" ht="16.5" spans="1:23">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
@@ -3176,16 +3786,16 @@
       <c r="H28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="3">
         <v>4</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="3">
         <v>387110</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="3">
         <v>387087</v>
       </c>
       <c r="M28" s="1">
@@ -3222,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" ht="16.5" spans="1:23">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
@@ -3247,16 +3857,16 @@
       <c r="H29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="3">
         <v>3</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="3">
         <v>387109</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="3">
         <v>386997</v>
       </c>
       <c r="M29" s="1">
@@ -3293,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" ht="16.5" spans="1:23">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
@@ -3318,16 +3928,16 @@
       <c r="H30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="3">
         <v>3</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="3">
         <v>386998</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="3">
         <v>387089</v>
       </c>
       <c r="M30" s="1">
@@ -3364,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" ht="16.5" spans="1:23">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
@@ -3389,16 +3999,16 @@
       <c r="H31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="3">
         <v>2</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="3">
         <v>387015</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="3">
         <v>385893</v>
       </c>
       <c r="M31" s="1">
@@ -3435,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" ht="16.5" spans="1:23">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
@@ -3460,16 +4070,16 @@
       <c r="H32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="3">
         <v>2</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="3">
         <v>387108</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="3">
         <v>387003</v>
       </c>
       <c r="M32" s="1">
@@ -3506,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" ht="16.5" spans="1:23">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
@@ -3531,16 +4141,16 @@
       <c r="H33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="3">
         <v>2</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="3">
         <v>387011</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="3">
         <v>387090</v>
       </c>
       <c r="M33" s="1">
@@ -3577,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" ht="16.5" spans="1:23">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
@@ -3602,16 +4212,16 @@
       <c r="H34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="3">
         <v>5</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="3">
         <v>387006</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="3">
         <v>387055</v>
       </c>
       <c r="M34" s="1">
@@ -3648,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" ht="16.5" spans="1:23">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
@@ -3673,16 +4283,16 @@
       <c r="H35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="3">
         <v>2</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="3">
         <v>385317</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="3">
         <v>385333</v>
       </c>
       <c r="M35" s="1">
@@ -3719,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" ht="16.5" spans="1:23">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
@@ -3744,16 +4354,16 @@
       <c r="H36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="3">
         <v>2</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="3">
         <v>385384</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="3">
         <v>385288</v>
       </c>
       <c r="M36" s="1">
@@ -3790,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" ht="16.5" spans="1:23">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
@@ -3815,16 +4425,16 @@
       <c r="H37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="3">
         <v>2</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="3">
         <v>385337</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="3">
         <v>385284</v>
       </c>
       <c r="M37" s="1">
@@ -3861,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" ht="16.5" spans="1:23">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
@@ -3886,16 +4496,16 @@
       <c r="H38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="3">
         <v>2</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="3">
         <v>387000</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="3">
         <v>387058</v>
       </c>
       <c r="M38" s="1">
@@ -3932,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" ht="16.5" spans="1:23">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
@@ -3957,16 +4567,16 @@
       <c r="H39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="3">
         <v>2</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="3">
         <v>385331</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="3">
         <v>385335</v>
       </c>
       <c r="M39" s="1">
@@ -4003,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" ht="16.5" spans="1:23">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
@@ -4028,16 +4638,16 @@
       <c r="H40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="3">
         <v>2</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="3">
         <v>391472</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="3">
         <v>385290</v>
       </c>
       <c r="M40" s="1">
@@ -4074,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" ht="16.5" spans="1:23">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
@@ -4099,16 +4709,16 @@
       <c r="H41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="3">
         <v>2</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="3">
         <v>385338</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="3">
         <v>385286</v>
       </c>
       <c r="M41" s="1">
@@ -4145,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" ht="16.5" spans="1:23">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
@@ -4170,16 +4780,16 @@
       <c r="H42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="3">
         <v>3</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="3">
         <v>387013</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="3">
         <v>387088</v>
       </c>
       <c r="M42" s="1">
@@ -4216,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" ht="16.5" spans="1:23">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
@@ -4241,16 +4851,16 @@
       <c r="H43" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="3">
         <v>4</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="3">
         <v>387110</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="3">
         <v>387087</v>
       </c>
       <c r="M43" s="1">
@@ -4287,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" ht="16.5" spans="1:23">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
@@ -4312,16 +4922,16 @@
       <c r="H44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="3">
         <v>2</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="3">
         <v>387010</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="3">
         <v>387086</v>
       </c>
       <c r="M44" s="1">
@@ -4358,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" ht="16.5" spans="1:23">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
@@ -4383,16 +4993,16 @@
       <c r="H45" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J45" s="2">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2">
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3">
         <v>387111</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="3">
         <v>387005</v>
       </c>
       <c r="M45" s="1">
@@ -4429,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" ht="16.5" spans="1:23">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
@@ -4454,16 +5064,16 @@
       <c r="H46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="3">
         <v>4</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="3">
         <v>387014</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="3">
         <v>387062</v>
       </c>
       <c r="M46" s="1">
@@ -4500,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" ht="16.5" spans="1:23">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
@@ -4525,16 +5135,16 @@
       <c r="H47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="3">
         <v>4</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="3">
         <v>386996</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="3">
         <v>387056</v>
       </c>
       <c r="M47" s="1">
@@ -4571,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" ht="16.5" spans="1:23">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
@@ -4596,16 +5206,16 @@
       <c r="H48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="3">
         <v>2</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="3">
         <v>387112</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="3">
         <v>387084</v>
       </c>
       <c r="M48" s="1">
@@ -4642,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" ht="16.5" spans="1:23">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
@@ -4667,16 +5277,16 @@
       <c r="H49" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J49" s="2">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2">
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3">
         <v>387107</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="3">
         <v>387085</v>
       </c>
       <c r="M49" s="1">
@@ -4713,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" ht="16.5" spans="1:23">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
@@ -4738,16 +5348,16 @@
       <c r="H50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="3">
         <v>4</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="3">
         <v>387012</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="3">
         <v>387057</v>
       </c>
       <c r="M50" s="1">
@@ -4784,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" ht="16.5" spans="1:23">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
@@ -4803,19 +5413,19 @@
       <c r="F51" s="1">
         <v>1046</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I51" s="2" t="s">
+      <c r="H51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="3">
         <v>999</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="3">
         <v>434893</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="3">
         <v>434899</v>
       </c>
       <c r="M51" s="1">
@@ -4834,7 +5444,7 @@
         <v>293</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>61</v>
@@ -4843,27 +5453,27 @@
         <v>1047</v>
       </c>
       <c r="U51" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" ht="16.5" spans="1:23">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -4871,19 +5481,19 @@
       <c r="F52" s="1">
         <v>1046</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I52" s="2" t="s">
+      <c r="H52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="3">
         <v>999</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="3">
         <v>434909</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="3">
         <v>434904</v>
       </c>
       <c r="M52" s="1">
@@ -4902,7 +5512,7 @@
         <v>293</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>61</v>
@@ -4911,27 +5521,27 @@
         <v>1048</v>
       </c>
       <c r="U52" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" ht="16.5" spans="1:23">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -4939,19 +5549,19 @@
       <c r="F53" s="1">
         <v>1046</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I53" s="2" t="s">
+      <c r="H53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="3">
         <v>999</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="3">
         <v>434910</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="3">
         <v>434897</v>
       </c>
       <c r="M53" s="1">
@@ -4970,7 +5580,7 @@
         <v>293</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>61</v>
@@ -4979,22 +5589,22 @@
         <v>1049</v>
       </c>
       <c r="U53" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+    <row r="56" ht="16.5" spans="9:10">
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A335F6-DDD7-4EA0-A32F-14D465501453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -953,14 +957,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,345 +979,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1327,251 +1001,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1589,61 +1021,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1893,19 +1281,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H34" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -1923,7 +1311,7 @@
     <col min="23" max="23" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2065,7 +1453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="42" customHeight="1" spans="1:23">
+    <row r="3" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2136,8 +1524,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="42" customHeight="1"/>
-    <row r="5" ht="16.5" spans="1:23">
+    <row r="4" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -2205,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:23">
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
@@ -2273,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:23">
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1003</v>
       </c>
@@ -2341,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:23">
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1004</v>
       </c>
@@ -2412,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:23">
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1005</v>
       </c>
@@ -2483,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:23">
+    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
@@ -2554,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:23">
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -2625,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:23">
+    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1008</v>
       </c>
@@ -2696,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:23">
+    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -2767,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:23">
+    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
@@ -2838,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:23">
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1011</v>
       </c>
@@ -2909,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:23">
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1012</v>
       </c>
@@ -2980,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:23">
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1013</v>
       </c>
@@ -3051,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:23">
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1014</v>
       </c>
@@ -3122,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:23">
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1015</v>
       </c>
@@ -3190,10 +2578,10 @@
         <v>142</v>
       </c>
       <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1016</v>
       </c>
@@ -3264,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:23">
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1017</v>
       </c>
@@ -3335,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:23">
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1018</v>
       </c>
@@ -3406,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:23">
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1019</v>
       </c>
@@ -3477,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:23">
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1020</v>
       </c>
@@ -3548,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:23">
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1021</v>
       </c>
@@ -3619,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:23">
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1022</v>
       </c>
@@ -3690,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:23">
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1023</v>
       </c>
@@ -3761,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:23">
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
@@ -3829,10 +3217,10 @@
         <v>142</v>
       </c>
       <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="1:23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1025</v>
       </c>
@@ -3903,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:23">
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1026</v>
       </c>
@@ -3974,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:23">
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1027</v>
       </c>
@@ -4045,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:23">
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1028</v>
       </c>
@@ -4116,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:23">
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1029</v>
       </c>
@@ -4187,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:23">
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1030</v>
       </c>
@@ -4258,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:23">
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1031</v>
       </c>
@@ -4329,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:23">
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1032</v>
       </c>
@@ -4400,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:23">
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1033</v>
       </c>
@@ -4471,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:23">
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1034</v>
       </c>
@@ -4542,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:23">
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1035</v>
       </c>
@@ -4613,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:23">
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1036</v>
       </c>
@@ -4684,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:23">
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1037</v>
       </c>
@@ -4755,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:23">
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1038</v>
       </c>
@@ -4826,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:23">
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1039</v>
       </c>
@@ -4894,10 +4282,10 @@
         <v>142</v>
       </c>
       <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" spans="1:23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1040</v>
       </c>
@@ -4968,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:23">
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1041</v>
       </c>
@@ -5039,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:23">
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1042</v>
       </c>
@@ -5110,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:23">
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1043</v>
       </c>
@@ -5181,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:23">
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1044</v>
       </c>
@@ -5252,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:23">
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1045</v>
       </c>
@@ -5323,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:23">
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1046</v>
       </c>
@@ -5391,10 +4779,10 @@
         <v>142</v>
       </c>
       <c r="W50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" spans="1:23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1047</v>
       </c>
@@ -5462,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:23">
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1048</v>
       </c>
@@ -5530,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:23">
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1049</v>
       </c>
@@ -5598,13 +4986,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="9:10">
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A335F6-DDD7-4EA0-A32F-14D465501453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6070DABF-2D22-4BE2-B7B4-61447240C913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,9 +201,6 @@
     <t>talentItemCanvas_1</t>
   </si>
   <si>
-    <t>1|50|70||2|50|70</t>
-  </si>
-  <si>
     <t>0|1</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>1005|1006</t>
   </si>
   <si>
-    <t>1|50|70|100||2|50|70|100</t>
-  </si>
-  <si>
     <t>TalentTree_Desc_3</t>
   </si>
   <si>
@@ -306,9 +300,6 @@
     <t>talentItemCanvas_6</t>
   </si>
   <si>
-    <t>1|50|70|100|140|200||2|50|70|100|140|200</t>
-  </si>
-  <si>
     <t>TalentTree_Desc_6</t>
   </si>
   <si>
@@ -453,9 +444,6 @@
     <t>1016|1017|1018|1019</t>
   </si>
   <si>
-    <t>1|50|70|100|140||2|50|70|100|140</t>
-  </si>
-  <si>
     <t>TalentTree_Desc_15</t>
   </si>
   <si>
@@ -952,6 +940,18 @@
   </si>
   <si>
     <t>在无尽模式下，基地耐久提高{0}%</t>
+  </si>
+  <si>
+    <t>1|50|80||2|50|80</t>
+  </si>
+  <si>
+    <t>1|50|80|120||2|50|80|120</t>
+  </si>
+  <si>
+    <t>1|50|80|120|170|225||2|50|80|120|170|225</t>
+  </si>
+  <si>
+    <t>1|50|80|120|170||2|50|80|120|170</t>
   </si>
 </sst>
 </file>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1545,10 +1545,10 @@
         <v>1004</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J5" s="3">
         <v>2</v>
@@ -1569,25 +1569,25 @@
         <v>70</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T5" s="1">
         <v>1001</v>
       </c>
       <c r="U5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1598,13 +1598,13 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1613,10 +1613,10 @@
         <v>1004</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J6" s="3">
         <v>2</v>
@@ -1637,25 +1637,25 @@
         <v>70</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T6" s="1">
         <v>1002</v>
       </c>
       <c r="U6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1666,25 +1666,25 @@
         <v>1003</v>
       </c>
       <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3">
         <v>3</v>
@@ -1705,25 +1705,25 @@
         <v>70</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T7" s="1">
         <v>1003</v>
       </c>
       <c r="U7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1734,28 +1734,28 @@
         <v>1004</v>
       </c>
       <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
@@ -1776,25 +1776,25 @@
         <v>70</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T8" s="1">
         <v>1004</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1805,13 +1805,13 @@
         <v>1005</v>
       </c>
       <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1823,10 +1823,10 @@
         <v>1010</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J9" s="3">
         <v>2</v>
@@ -1847,25 +1847,25 @@
         <v>70</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T9" s="1">
         <v>1005</v>
       </c>
       <c r="U9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1876,13 +1876,13 @@
         <v>1006</v>
       </c>
       <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1894,10 +1894,10 @@
         <v>1014</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>91</v>
+        <v>305</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="3">
         <v>5</v>
@@ -1918,25 +1918,25 @@
         <v>70</v>
       </c>
       <c r="P10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T10" s="1">
         <v>1006</v>
       </c>
       <c r="U10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1947,13 +1947,13 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1965,10 +1965,10 @@
         <v>1011</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J11" s="3">
         <v>2</v>
@@ -1989,25 +1989,25 @@
         <v>70</v>
       </c>
       <c r="P11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T11" s="1">
         <v>1007</v>
       </c>
       <c r="U11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2018,13 +2018,13 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2036,10 +2036,10 @@
         <v>1012</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J12" s="3">
         <v>2</v>
@@ -2060,25 +2060,25 @@
         <v>70</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T12" s="1">
         <v>1008</v>
       </c>
       <c r="U12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2107,10 +2107,10 @@
         <v>1013</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J13" s="3">
         <v>2</v>
@@ -2131,25 +2131,25 @@
         <v>70</v>
       </c>
       <c r="P13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T13" s="1">
         <v>1009</v>
       </c>
       <c r="U13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2178,10 +2178,10 @@
         <v>1014</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J14" s="3">
         <v>2</v>
@@ -2202,25 +2202,25 @@
         <v>70</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T14" s="1">
         <v>1010</v>
       </c>
       <c r="U14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2231,13 +2231,13 @@
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2249,10 +2249,10 @@
         <v>1015</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J15" s="3">
         <v>2</v>
@@ -2273,25 +2273,25 @@
         <v>70</v>
       </c>
       <c r="P15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T15" s="1">
         <v>1011</v>
       </c>
       <c r="U15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2302,13 +2302,13 @@
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2320,10 +2320,10 @@
         <v>1015</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J16" s="3">
         <v>2</v>
@@ -2344,25 +2344,25 @@
         <v>70</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T16" s="1">
         <v>1012</v>
       </c>
       <c r="U16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2373,13 +2373,13 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2391,10 +2391,10 @@
         <v>1015</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J17" s="3">
         <v>2</v>
@@ -2415,25 +2415,25 @@
         <v>70</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T17" s="1">
         <v>1013</v>
       </c>
       <c r="U17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>1014</v>
       </c>
       <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G18" s="1">
         <v>1015</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="3">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>70</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T18" s="1">
         <v>1014</v>
       </c>
       <c r="U18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2515,28 +2515,28 @@
         <v>1015</v>
       </c>
       <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="3">
         <v>4</v>
@@ -2557,25 +2557,25 @@
         <v>70</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T19" s="1">
         <v>1015</v>
       </c>
       <c r="U19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W19">
         <v>8</v>
@@ -2586,13 +2586,13 @@
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2604,10 +2604,10 @@
         <v>1020</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J20" s="3">
         <v>2</v>
@@ -2628,25 +2628,25 @@
         <v>70</v>
       </c>
       <c r="P20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T20" s="1">
         <v>1016</v>
       </c>
       <c r="U20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2657,13 +2657,13 @@
         <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2675,10 +2675,10 @@
         <v>1021</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
@@ -2699,25 +2699,25 @@
         <v>70</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T21" s="1">
         <v>1017</v>
       </c>
       <c r="U21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -2728,13 +2728,13 @@
         <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2746,10 +2746,10 @@
         <v>1023</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="3">
         <v>4</v>
@@ -2770,25 +2770,25 @@
         <v>70</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T22" s="1">
         <v>1018</v>
       </c>
       <c r="U22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -2799,13 +2799,13 @@
         <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2817,10 +2817,10 @@
         <v>1023</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" s="3">
         <v>4</v>
@@ -2841,25 +2841,25 @@
         <v>70</v>
       </c>
       <c r="P23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T23" s="1">
         <v>1019</v>
       </c>
       <c r="U23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2888,10 +2888,10 @@
         <v>1022</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J24" s="3">
         <v>2</v>
@@ -2912,25 +2912,25 @@
         <v>70</v>
       </c>
       <c r="P24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T24" s="1">
         <v>1020</v>
       </c>
       <c r="U24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -2941,13 +2941,13 @@
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2959,10 +2959,10 @@
         <v>1022</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" s="3">
         <v>1</v>
@@ -2983,25 +2983,25 @@
         <v>70</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T25" s="1">
         <v>1021</v>
       </c>
       <c r="U25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -3012,28 +3012,28 @@
         <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G26" s="1">
         <v>1024</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" s="3">
         <v>3</v>
@@ -3054,25 +3054,25 @@
         <v>70</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T26" s="1">
         <v>1022</v>
       </c>
       <c r="U26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -3083,28 +3083,28 @@
         <v>1023</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G27" s="1">
         <v>1024</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="3">
         <v>3</v>
@@ -3125,25 +3125,25 @@
         <v>70</v>
       </c>
       <c r="P27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T27" s="1">
         <v>1023</v>
       </c>
       <c r="U27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -3154,28 +3154,28 @@
         <v>1024</v>
       </c>
       <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" s="3">
         <v>4</v>
@@ -3196,25 +3196,25 @@
         <v>70</v>
       </c>
       <c r="P28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T28" s="1">
         <v>1024</v>
       </c>
       <c r="U28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W28">
         <v>10</v>
@@ -3225,13 +3225,13 @@
         <v>1025</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -3243,10 +3243,10 @@
         <v>1028</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="3">
         <v>3</v>
@@ -3267,25 +3267,25 @@
         <v>70</v>
       </c>
       <c r="P29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T29" s="1">
         <v>1025</v>
       </c>
       <c r="U29" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -3296,13 +3296,13 @@
         <v>1026</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -3314,10 +3314,10 @@
         <v>1028</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" s="3">
         <v>3</v>
@@ -3338,25 +3338,25 @@
         <v>70</v>
       </c>
       <c r="P30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T30" s="1">
         <v>1026</v>
       </c>
       <c r="U30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3367,13 +3367,13 @@
         <v>1027</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3382,13 +3382,13 @@
         <v>1024</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J31" s="3">
         <v>2</v>
@@ -3409,25 +3409,25 @@
         <v>70</v>
       </c>
       <c r="P31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T31" s="1">
         <v>1027</v>
       </c>
       <c r="U31" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3438,28 +3438,28 @@
         <v>1028</v>
       </c>
       <c r="B32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="H32" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J32" s="3">
         <v>2</v>
@@ -3480,25 +3480,25 @@
         <v>70</v>
       </c>
       <c r="P32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T32" s="1">
         <v>1028</v>
       </c>
       <c r="U32" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>1029</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -3527,10 +3527,10 @@
         <v>1034</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J33" s="3">
         <v>2</v>
@@ -3551,25 +3551,25 @@
         <v>70</v>
       </c>
       <c r="P33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T33" s="1">
         <v>1029</v>
       </c>
       <c r="U33" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3580,13 +3580,13 @@
         <v>1030</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -3598,10 +3598,10 @@
         <v>1038</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>91</v>
+        <v>305</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" s="3">
         <v>5</v>
@@ -3622,25 +3622,25 @@
         <v>70</v>
       </c>
       <c r="P34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T34" s="1">
         <v>1030</v>
       </c>
       <c r="U34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -3651,13 +3651,13 @@
         <v>1031</v>
       </c>
       <c r="B35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3669,10 +3669,10 @@
         <v>1035</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J35" s="3">
         <v>2</v>
@@ -3693,25 +3693,25 @@
         <v>70</v>
       </c>
       <c r="P35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="R35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T35" s="1">
         <v>1031</v>
       </c>
       <c r="U35" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -3722,13 +3722,13 @@
         <v>1032</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -3740,10 +3740,10 @@
         <v>1036</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J36" s="3">
         <v>2</v>
@@ -3764,25 +3764,25 @@
         <v>70</v>
       </c>
       <c r="P36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="R36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="S36" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T36" s="1">
         <v>1032</v>
       </c>
       <c r="U36" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>1033</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -3811,10 +3811,10 @@
         <v>1037</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J37" s="3">
         <v>2</v>
@@ -3835,25 +3835,25 @@
         <v>70</v>
       </c>
       <c r="P37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T37" s="1">
         <v>1033</v>
       </c>
       <c r="U37" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>1034</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -3882,10 +3882,10 @@
         <v>1038</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J38" s="3">
         <v>2</v>
@@ -3906,25 +3906,25 @@
         <v>70</v>
       </c>
       <c r="P38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="S38" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T38" s="1">
         <v>1034</v>
       </c>
       <c r="U38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -3935,13 +3935,13 @@
         <v>1035</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -3953,10 +3953,10 @@
         <v>1039</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J39" s="3">
         <v>2</v>
@@ -3977,25 +3977,25 @@
         <v>70</v>
       </c>
       <c r="P39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="S39" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T39" s="1">
         <v>1035</v>
       </c>
       <c r="U39" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -4006,13 +4006,13 @@
         <v>1036</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -4024,10 +4024,10 @@
         <v>1039</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J40" s="3">
         <v>2</v>
@@ -4048,25 +4048,25 @@
         <v>70</v>
       </c>
       <c r="P40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="R40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="S40" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T40" s="1">
         <v>1036</v>
       </c>
       <c r="U40" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -4077,13 +4077,13 @@
         <v>1037</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -4095,10 +4095,10 @@
         <v>1039</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J41" s="3">
         <v>2</v>
@@ -4119,25 +4119,25 @@
         <v>70</v>
       </c>
       <c r="P41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="R41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="S41" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T41" s="1">
         <v>1037</v>
       </c>
       <c r="U41" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -4148,28 +4148,28 @@
         <v>1038</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G42" s="1">
         <v>1039</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J42" s="3">
         <v>3</v>
@@ -4190,25 +4190,25 @@
         <v>70</v>
       </c>
       <c r="P42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="S42" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T42" s="1">
         <v>1038</v>
       </c>
       <c r="U42" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="W42">
         <v>0</v>
@@ -4219,28 +4219,28 @@
         <v>1039</v>
       </c>
       <c r="B43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J43" s="3">
         <v>4</v>
@@ -4261,25 +4261,25 @@
         <v>70</v>
       </c>
       <c r="P43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T43" s="1">
         <v>1039</v>
       </c>
       <c r="U43" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W43">
         <v>14</v>
@@ -4290,13 +4290,13 @@
         <v>1040</v>
       </c>
       <c r="B44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -4308,10 +4308,10 @@
         <v>1044</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J44" s="3">
         <v>2</v>
@@ -4332,25 +4332,25 @@
         <v>70</v>
       </c>
       <c r="P44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="R44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="S44" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T44" s="1">
         <v>1040</v>
       </c>
       <c r="U44" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -4361,13 +4361,13 @@
         <v>1041</v>
       </c>
       <c r="B45" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -4379,10 +4379,10 @@
         <v>1045</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" s="3">
         <v>1</v>
@@ -4403,25 +4403,25 @@
         <v>70</v>
       </c>
       <c r="P45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T45" s="1">
         <v>1041</v>
       </c>
       <c r="U45" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -4432,13 +4432,13 @@
         <v>1042</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -4450,10 +4450,10 @@
         <v>1046</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J46" s="3">
         <v>4</v>
@@ -4474,25 +4474,25 @@
         <v>70</v>
       </c>
       <c r="P46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T46" s="1">
         <v>1042</v>
       </c>
       <c r="U46" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -4503,13 +4503,13 @@
         <v>1043</v>
       </c>
       <c r="B47" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -4521,10 +4521,10 @@
         <v>1046</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J47" s="3">
         <v>4</v>
@@ -4545,25 +4545,25 @@
         <v>70</v>
       </c>
       <c r="P47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="R47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="S47" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T47" s="1">
         <v>1043</v>
       </c>
       <c r="U47" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -4574,13 +4574,13 @@
         <v>1044</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -4592,10 +4592,10 @@
         <v>1046</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J48" s="3">
         <v>2</v>
@@ -4616,25 +4616,25 @@
         <v>70</v>
       </c>
       <c r="P48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="S48" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T48" s="1">
         <v>1044</v>
       </c>
       <c r="U48" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -4645,13 +4645,13 @@
         <v>1045</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -4663,10 +4663,10 @@
         <v>1046</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" s="3">
         <v>1</v>
@@ -4687,25 +4687,25 @@
         <v>70</v>
       </c>
       <c r="P49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="R49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R49" s="1" t="s">
+      <c r="S49" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T49" s="1">
         <v>1045</v>
       </c>
       <c r="U49" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="W49">
         <v>0</v>
@@ -4716,28 +4716,28 @@
         <v>1046</v>
       </c>
       <c r="B50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J50" s="3">
         <v>4</v>
@@ -4758,25 +4758,25 @@
         <v>70</v>
       </c>
       <c r="P50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="R50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="S50" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="T50" s="1">
         <v>1046</v>
       </c>
       <c r="U50" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W50">
         <v>18</v>
@@ -4787,13 +4787,13 @@
         <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -4802,10 +4802,10 @@
         <v>1046</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J51" s="3">
         <v>999</v>
@@ -4826,25 +4826,25 @@
         <v>80</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T51" s="1">
         <v>1047</v>
       </c>
       <c r="U51" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -4855,13 +4855,13 @@
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -4870,10 +4870,10 @@
         <v>1046</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J52" s="3">
         <v>999</v>
@@ -4894,25 +4894,25 @@
         <v>80</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T52" s="1">
         <v>1048</v>
       </c>
       <c r="U52" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="W52">
         <v>0</v>
@@ -4923,13 +4923,13 @@
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -4938,10 +4938,10 @@
         <v>1046</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J53" s="3">
         <v>999</v>
@@ -4962,25 +4962,25 @@
         <v>80</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T53" s="1">
         <v>1049</v>
       </c>
       <c r="U53" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="W53">
         <v>0</v>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6070DABF-2D22-4BE2-B7B4-61447240C913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382E86B9-F3B4-44CA-B91D-FF869F8065D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="Y49" sqref="Y49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3217,7 +3217,7 @@
         <v>138</v>
       </c>
       <c r="W28">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -4282,7 +4282,7 @@
         <v>138</v>
       </c>
       <c r="W43">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -4779,7 +4779,7 @@
         <v>138</v>
       </c>
       <c r="W50">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382E86B9-F3B4-44CA-B91D-FF869F8065D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB847BBC-0A2A-49E8-B9AF-0A0F90A0227F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="308">
   <si>
     <t>int</t>
   </si>
@@ -952,6 +952,10 @@
   </si>
   <si>
     <t>1|50|80|120|170||2|50|80|120|170</t>
+  </si>
+  <si>
+    <t>1|80||2|80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -959,13 +963,6 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,6 +978,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1015,10 +1020,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="Y49" sqref="Y49"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1547,16 +1552,16 @@
       <c r="H5" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>387109</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>386997</v>
       </c>
       <c r="M5" s="1">
@@ -1615,16 +1620,16 @@
       <c r="H6" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>386998</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>387089</v>
       </c>
       <c r="M6" s="1">
@@ -1683,16 +1688,16 @@
       <c r="H7" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>387015</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>385893</v>
       </c>
       <c r="M7" s="1">
@@ -1754,16 +1759,16 @@
       <c r="H8" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>387108</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>387003</v>
       </c>
       <c r="M8" s="1">
@@ -1825,16 +1830,16 @@
       <c r="H9" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>387011</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>387090</v>
       </c>
       <c r="M9" s="1">
@@ -1896,16 +1901,16 @@
       <c r="H10" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>387006</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>387055</v>
       </c>
       <c r="M10" s="1">
@@ -1967,16 +1972,16 @@
       <c r="H11" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>385317</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>385333</v>
       </c>
       <c r="M11" s="1">
@@ -2038,16 +2043,16 @@
       <c r="H12" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>385384</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>385288</v>
       </c>
       <c r="M12" s="1">
@@ -2109,16 +2114,16 @@
       <c r="H13" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>385337</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>385284</v>
       </c>
       <c r="M13" s="1">
@@ -2180,16 +2185,16 @@
       <c r="H14" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>387000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>387058</v>
       </c>
       <c r="M14" s="1">
@@ -2251,16 +2256,16 @@
       <c r="H15" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>385331</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>385335</v>
       </c>
       <c r="M15" s="1">
@@ -2322,16 +2327,16 @@
       <c r="H16" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>391472</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>385290</v>
       </c>
       <c r="M16" s="1">
@@ -2393,16 +2398,16 @@
       <c r="H17" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>2</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>385338</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>385286</v>
       </c>
       <c r="M17" s="1">
@@ -2464,16 +2469,16 @@
       <c r="H18" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>387013</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>387088</v>
       </c>
       <c r="M18" s="1">
@@ -2535,16 +2540,16 @@
       <c r="H19" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>4</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>387110</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>387087</v>
       </c>
       <c r="M19" s="1">
@@ -2606,16 +2611,16 @@
       <c r="H20" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>2</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>387010</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <v>387086</v>
       </c>
       <c r="M20" s="1">
@@ -2677,16 +2682,16 @@
       <c r="H21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
         <v>387111</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>387005</v>
       </c>
       <c r="M21" s="1">
@@ -2748,16 +2753,16 @@
       <c r="H22" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>387014</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>387062</v>
       </c>
       <c r="M22" s="1">
@@ -2819,16 +2824,16 @@
       <c r="H23" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>4</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>386996</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>387056</v>
       </c>
       <c r="M23" s="1">
@@ -2890,16 +2895,16 @@
       <c r="H24" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>2</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>387112</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <v>387084</v>
       </c>
       <c r="M24" s="1">
@@ -2961,16 +2966,16 @@
       <c r="H25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3">
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
         <v>387107</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <v>387085</v>
       </c>
       <c r="M25" s="1">
@@ -3032,16 +3037,16 @@
       <c r="H26" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>3</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>387012</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <v>387057</v>
       </c>
       <c r="M26" s="1">
@@ -3103,16 +3108,16 @@
       <c r="H27" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>3</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>386999</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <v>387063</v>
       </c>
       <c r="M27" s="1">
@@ -3174,16 +3179,16 @@
       <c r="H28" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>4</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>387110</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="2">
         <v>387087</v>
       </c>
       <c r="M28" s="1">
@@ -3245,16 +3250,16 @@
       <c r="H29" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>387109</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="2">
         <v>386997</v>
       </c>
       <c r="M29" s="1">
@@ -3316,16 +3321,16 @@
       <c r="H30" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>3</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>386998</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="2">
         <v>387089</v>
       </c>
       <c r="M30" s="1">
@@ -3387,16 +3392,16 @@
       <c r="H31" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>2</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>387015</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="2">
         <v>385893</v>
       </c>
       <c r="M31" s="1">
@@ -3458,16 +3463,16 @@
       <c r="H32" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>2</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>387108</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <v>387003</v>
       </c>
       <c r="M32" s="1">
@@ -3529,16 +3534,16 @@
       <c r="H33" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>2</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>387011</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="2">
         <v>387090</v>
       </c>
       <c r="M33" s="1">
@@ -3600,16 +3605,16 @@
       <c r="H34" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>5</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>387006</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="2">
         <v>387055</v>
       </c>
       <c r="M34" s="1">
@@ -3671,16 +3676,16 @@
       <c r="H35" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>2</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>385317</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <v>385333</v>
       </c>
       <c r="M35" s="1">
@@ -3742,16 +3747,16 @@
       <c r="H36" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>2</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>385384</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <v>385288</v>
       </c>
       <c r="M36" s="1">
@@ -3813,16 +3818,16 @@
       <c r="H37" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>2</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>385337</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="2">
         <v>385284</v>
       </c>
       <c r="M37" s="1">
@@ -3884,16 +3889,16 @@
       <c r="H38" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>2</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>387000</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <v>387058</v>
       </c>
       <c r="M38" s="1">
@@ -3955,16 +3960,16 @@
       <c r="H39" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>2</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>385331</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="2">
         <v>385335</v>
       </c>
       <c r="M39" s="1">
@@ -4026,16 +4031,16 @@
       <c r="H40" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>2</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>391472</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="2">
         <v>385290</v>
       </c>
       <c r="M40" s="1">
@@ -4097,16 +4102,16 @@
       <c r="H41" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>2</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>385338</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="2">
         <v>385286</v>
       </c>
       <c r="M41" s="1">
@@ -4168,16 +4173,16 @@
       <c r="H42" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="2">
         <v>387013</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="2">
         <v>387088</v>
       </c>
       <c r="M42" s="1">
@@ -4239,16 +4244,16 @@
       <c r="H43" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>387110</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="2">
         <v>387087</v>
       </c>
       <c r="M43" s="1">
@@ -4310,16 +4315,16 @@
       <c r="H44" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>2</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>387010</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <v>387086</v>
       </c>
       <c r="M44" s="1">
@@ -4381,16 +4386,16 @@
       <c r="H45" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J45" s="3">
-        <v>1</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
         <v>387111</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="2">
         <v>387005</v>
       </c>
       <c r="M45" s="1">
@@ -4452,16 +4457,16 @@
       <c r="H46" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <v>387014</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="2">
         <v>387062</v>
       </c>
       <c r="M46" s="1">
@@ -4523,16 +4528,16 @@
       <c r="H47" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="2">
         <v>386996</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="2">
         <v>387056</v>
       </c>
       <c r="M47" s="1">
@@ -4594,16 +4599,16 @@
       <c r="H48" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <v>2</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <v>387112</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="2">
         <v>387084</v>
       </c>
       <c r="M48" s="1">
@@ -4665,16 +4670,16 @@
       <c r="H49" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J49" s="3">
-        <v>1</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
         <v>387107</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="2">
         <v>387085</v>
       </c>
       <c r="M49" s="1">
@@ -4736,16 +4741,16 @@
       <c r="H50" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <v>4</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>387012</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="2">
         <v>387057</v>
       </c>
       <c r="M50" s="1">
@@ -4801,19 +4806,19 @@
       <c r="F51" s="1">
         <v>1046</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I51" s="3" t="s">
+      <c r="H51" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <v>999</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <v>434893</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="2">
         <v>434899</v>
       </c>
       <c r="M51" s="1">
@@ -4869,19 +4874,19 @@
       <c r="F52" s="1">
         <v>1046</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="H52" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <v>999</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <v>434909</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="2">
         <v>434904</v>
       </c>
       <c r="M52" s="1">
@@ -4937,19 +4942,19 @@
       <c r="F53" s="1">
         <v>1046</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I53" s="3" t="s">
+      <c r="H53" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <v>999</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>434910</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="2">
         <v>434897</v>
       </c>
       <c r="M53" s="1">
@@ -4987,11 +4992,11 @@
       </c>
     </row>
     <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/nevergiveup/Excel/TalentTree_天赋树表.xlsx
+++ b/nevergiveup/Excel/TalentTree_天赋树表.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB847BBC-0A2A-49E8-B9AF-0A0F90A0227F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBF4047-6588-4F43-A6B3-16CFE584A5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -973,11 +973,13 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1294,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="V50" sqref="V50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4784,7 +4786,7 @@
         <v>138</v>
       </c>
       <c r="W50">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
